--- a/docs/Normalization.xlsx
+++ b/docs/Normalization.xlsx
@@ -7,10 +7,1321 @@
     <workbookView windowWidth="20385" windowHeight="8250"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CNAB 400 - Remittance" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372">
+  <si>
+    <t>Banco do Brasil</t>
+  </si>
+  <si>
+    <t>Bradesco</t>
+  </si>
+  <si>
+    <t>Caixa</t>
+  </si>
+  <si>
+    <t>Itau</t>
+  </si>
+  <si>
+    <t>SICOOB</t>
+  </si>
+  <si>
+    <t>Santander</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Header (0)</t>
+  </si>
+  <si>
+    <t>Identificação do Registro Header</t>
+  </si>
+  <si>
+    <t>Identificação do
+Registro</t>
+  </si>
+  <si>
+    <t>Código do Registro</t>
+  </si>
+  <si>
+    <t>TIPO DE REGISTRO</t>
+  </si>
+  <si>
+    <t>Identificação do Registro Header: “0” (zero)</t>
+  </si>
+  <si>
+    <t>Código do registro</t>
+  </si>
+  <si>
+    <t>registryType</t>
+  </si>
+  <si>
+    <t>Tipo de Operação</t>
+  </si>
+  <si>
+    <t>Identificação do Arquivo
+Remessa</t>
+  </si>
+  <si>
+    <t>Código da Remessa</t>
+  </si>
+  <si>
+    <t>OPERAÇÃO</t>
+  </si>
+  <si>
+    <t>Tipo de Operação: “1” (um)</t>
+  </si>
+  <si>
+    <t>Código da remessa</t>
+  </si>
+  <si>
+    <t>op</t>
+  </si>
+  <si>
+    <t>Identificação por Extenço do tipo de operação</t>
+  </si>
+  <si>
+    <t>Literal Remessa</t>
+  </si>
+  <si>
+    <t>Literal da Remessa</t>
+  </si>
+  <si>
+    <t>LITERAL DE REMESSA</t>
+  </si>
+  <si>
+    <t>Identificação por Extenso do Tipo de Operação: "REMESSA"</t>
+  </si>
+  <si>
+    <t>Literal de transmissão</t>
+  </si>
+  <si>
+    <t>remittanceLiteral</t>
+  </si>
+  <si>
+    <t>Identificação do Tipo de Serviço</t>
+  </si>
+  <si>
+    <t>Código de Serviço</t>
+  </si>
+  <si>
+    <t>Código do Serviço</t>
+  </si>
+  <si>
+    <t>CÓDIGO DO SERVIÇO</t>
+  </si>
+  <si>
+    <t>Identificação do Tipo de Serviço: “01” (um)</t>
+  </si>
+  <si>
+    <t>serviceCode</t>
+  </si>
+  <si>
+    <t>Identificação po Extenço do Tipo de Serviço</t>
+  </si>
+  <si>
+    <t>Literal Serviço</t>
+  </si>
+  <si>
+    <t>Literal de Serviço</t>
+  </si>
+  <si>
+    <t>LITERAL DE SERVIÇO</t>
+  </si>
+  <si>
+    <t>Identificação por Extenso do Tipo de Serviço: “COBRANÇA”</t>
+  </si>
+  <si>
+    <t>serviceLiteral</t>
+  </si>
+  <si>
+    <t>Prefixo da Agencia Numero da Agencia onde esta cadastrado o convênio lider do cedente</t>
+  </si>
+  <si>
+    <t>Código da Agência</t>
+  </si>
+  <si>
+    <t>AGÊNCIA</t>
+  </si>
+  <si>
+    <t>Prefixo da Cooperativa: vide planilha "Capa" deste arquivo</t>
+  </si>
+  <si>
+    <t>Código da agência cedente</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>Digito Verificador - D.V. - Prefixo da Agência</t>
+  </si>
+  <si>
+    <t>Dígito Verificador do Prefixo: vide planilha "Capa" deste arquivo</t>
+  </si>
+  <si>
+    <t>Numero da Conta Corrente: Numero da Conta onde está cadastrado o Convênio Lider do Cedente</t>
+  </si>
+  <si>
+    <t>CONTA</t>
+  </si>
+  <si>
+    <t>Conta movimento cedente</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>Digito Verificador - D.V. - numero da conta corrente do cedente</t>
+  </si>
+  <si>
+    <t>DAC</t>
+  </si>
+  <si>
+    <t>dac</t>
+  </si>
+  <si>
+    <t>Mensagem 1</t>
+  </si>
+  <si>
+    <t>message1</t>
+  </si>
+  <si>
+    <t>Mensagem 2</t>
+  </si>
+  <si>
+    <t>message2</t>
+  </si>
+  <si>
+    <t>Mensagem 3</t>
+  </si>
+  <si>
+    <t>message3</t>
+  </si>
+  <si>
+    <t>Mensagem 4</t>
+  </si>
+  <si>
+    <t>message4</t>
+  </si>
+  <si>
+    <t>Mensagem 5</t>
+  </si>
+  <si>
+    <t>message5</t>
+  </si>
+  <si>
+    <t>Mensagem 6</t>
+  </si>
+  <si>
+    <t>message6</t>
+  </si>
+  <si>
+    <t>Código de Transmissão</t>
+  </si>
+  <si>
+    <t>transmissionCode</t>
+  </si>
+  <si>
+    <t>Identificação do sistema</t>
+  </si>
+  <si>
+    <t>systemId</t>
+  </si>
+  <si>
+    <t>Numero do Convenio Lider</t>
+  </si>
+  <si>
+    <t>Número do convênio líder: Brancos</t>
+  </si>
+  <si>
+    <t>covenant</t>
+  </si>
+  <si>
+    <t>Código da Empresa</t>
+  </si>
+  <si>
+    <t>Código Beneficiário</t>
+  </si>
+  <si>
+    <t>Código do Cliente/Beneficiário: vide planilha "Capa" deste arquivo</t>
+  </si>
+  <si>
+    <t>companyCode</t>
+  </si>
+  <si>
+    <t>Dígito Verificador do Código: vide planilha "Capa" deste arquivo</t>
+  </si>
+  <si>
+    <t>Nome do Cedente</t>
+  </si>
+  <si>
+    <t>Nome da Empresa</t>
+  </si>
+  <si>
+    <t>NOME DA EMPRESA</t>
+  </si>
+  <si>
+    <t>Nome do Beneficiário: vide planilha "Capa" deste arquivo</t>
+  </si>
+  <si>
+    <t>Nome do cedente</t>
+  </si>
+  <si>
+    <t>companyName</t>
+  </si>
+  <si>
+    <t>001BANCODOBRASIL</t>
+  </si>
+  <si>
+    <t>Número do Bradesco na
+Câmara de Compensação</t>
+  </si>
+  <si>
+    <t>Código do Banco</t>
+  </si>
+  <si>
+    <t>CÓDIGO DO BANCO</t>
+  </si>
+  <si>
+    <t>Identificação do Banco: "756BANCOOBCED"</t>
+  </si>
+  <si>
+    <t>bankCode</t>
+  </si>
+  <si>
+    <t>Nome do Banco por
+Extenso</t>
+  </si>
+  <si>
+    <t>Nome do Banco</t>
+  </si>
+  <si>
+    <t>NOME DO BANCO</t>
+  </si>
+  <si>
+    <t>bankName</t>
+  </si>
+  <si>
+    <t>Data de Gravação</t>
+  </si>
+  <si>
+    <t>Data da Gravação do
+Arquivo</t>
+  </si>
+  <si>
+    <t>Data de Geração</t>
+  </si>
+  <si>
+    <t>DATA DE GERAÇÃO</t>
+  </si>
+  <si>
+    <t>Data da Gravação da Remessa: formato ddmmaa</t>
+  </si>
+  <si>
+    <t>generationDate</t>
+  </si>
+  <si>
+    <t>Sequencia da Remessa</t>
+  </si>
+  <si>
+    <t>Nº Seqüencial de Remessa</t>
+  </si>
+  <si>
+    <t>No Seqüencial - A Número Seqüencial do Arquivo Remessa</t>
+  </si>
+  <si>
+    <t>Seqüencial da Remessa: número seqüencial acrescido de 1 a cada remessa. Inicia com "0000001"</t>
+  </si>
+  <si>
+    <t>Número da versão da remessa opcional, se informada, será controlada pelo sistema</t>
+  </si>
+  <si>
+    <t>fileSequential</t>
+  </si>
+  <si>
+    <t>Sequencial do Registro "000001"</t>
+  </si>
+  <si>
+    <t>Nº Seqüencial do
+Registro de Um em Um</t>
+  </si>
+  <si>
+    <t>No Sequencial - B Número Sequencial do Registro no Arquivo</t>
+  </si>
+  <si>
+    <t>NÚMERO SEQÜENCIAL</t>
+  </si>
+  <si>
+    <t>Seqüencial do Registro:”000001”</t>
+  </si>
+  <si>
+    <t>Número sequencial do registro no arquivo</t>
+  </si>
+  <si>
+    <t>sequential</t>
+  </si>
+  <si>
+    <t>Detail (1)</t>
+  </si>
+  <si>
+    <t>Indentificação do Registro Detalhe: 7</t>
+  </si>
+  <si>
+    <t>Identificação do Registro Detalhe: 1 (um)</t>
+  </si>
+  <si>
+    <t>Tipo de Inscrição do Cedente</t>
+  </si>
+  <si>
+    <t>Tipo Inscrição</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de Inscrição do Beneficiário:
+"01" = CPF
+"02" = CNPJ  </t>
+  </si>
+  <si>
+    <t>Tipo de inscrição do cedente</t>
+  </si>
+  <si>
+    <t>companyDocumentType</t>
+  </si>
+  <si>
+    <t>Número do CPF/CNPJ do Cedente</t>
+  </si>
+  <si>
+    <t>Número Inscrição</t>
+  </si>
+  <si>
+    <t>Número do CPF/CNPJ do Beneficiário</t>
+  </si>
+  <si>
+    <t>CGC ou CPF do cedente</t>
+  </si>
+  <si>
+    <t>companyDocument</t>
+  </si>
+  <si>
+    <t>Prefix da Agência</t>
+  </si>
+  <si>
+    <t>Código da agência do cedente</t>
+  </si>
+  <si>
+    <t>Digito Verificador - D.V. do Numero da Agência</t>
+  </si>
+  <si>
+    <t>Número da Conta Corrente do Cedente</t>
+  </si>
+  <si>
+    <t>conta</t>
+  </si>
+  <si>
+    <t>Conta Corrente: vide planilha "Capa" deste arquivo</t>
+  </si>
+  <si>
+    <t>Dígito Verificador da Conta: vide planilha "Capa" deste arquivo</t>
+  </si>
+  <si>
+    <t>Numero do Convênio de Cobrança do Cedente</t>
+  </si>
+  <si>
+    <t>Identificação da Empresa
+Beneficiária no Banco</t>
+  </si>
+  <si>
+    <t>Número do Convênio de Cobrança do Beneficiário: "000000"</t>
+  </si>
+  <si>
+    <t>Conta cobrança cedente</t>
+  </si>
+  <si>
+    <t>Codigo de Controle da Empresa</t>
+  </si>
+  <si>
+    <t>Nº Controle do
+Participante</t>
+  </si>
+  <si>
+    <t>Uso empresa</t>
+  </si>
+  <si>
+    <t>seu numero</t>
+  </si>
+  <si>
+    <t>Número de Controle do Participante: Brancos</t>
+  </si>
+  <si>
+    <t>Número de controle do participante, para controle por parte do cedente</t>
+  </si>
+  <si>
+    <t>companyUse</t>
+  </si>
+  <si>
+    <t>Nosso-Número</t>
+  </si>
+  <si>
+    <t>Código do Banco a ser
+debitado na Câmara de
+Compensação</t>
+  </si>
+  <si>
+    <t>nosso numero</t>
+  </si>
+  <si>
+    <t>Nosso Número:
+- Para comando 01 com emissão a cargo do Sicoob (vide planilha "Capa" deste arquivo e lista de comandos seq. 23): Preencher com zeros
+- Para comando 01 com emissão a cargo do Beneficiário ou para os demais comandos (vide planilha "Capa" deste arquivo e lista de comandos seq. 23): 
+Preencher da seguinte forma:
+- Posição 063 a 073 – Número seqüencial a partir de "0000000001", não sendo admitida reutilização ou duplicidade.
+- Posição 074 a 074 – DV do Nosso-Número, calculado pelo módulo 11.</t>
+  </si>
+  <si>
+    <t>Nosso número</t>
+  </si>
+  <si>
+    <t>ourNumber</t>
+  </si>
+  <si>
+    <t>Número da prestação: "00"</t>
+  </si>
+  <si>
+    <t>Campo de Multa</t>
+  </si>
+  <si>
+    <t>ID Emissão</t>
+  </si>
+  <si>
+    <t>quanti moeda</t>
+  </si>
+  <si>
+    <t>Número da Parcela: "01" se parcela única</t>
+  </si>
+  <si>
+    <t>Data do segundo desconto</t>
+  </si>
+  <si>
+    <t>Grupo de Valor : "00"</t>
+  </si>
+  <si>
+    <t>Percentual de multa</t>
+  </si>
+  <si>
+    <t>ID Postagem</t>
+  </si>
+  <si>
+    <t>carteira</t>
+  </si>
+  <si>
+    <t>Grupo de Valor: "00"</t>
+  </si>
+  <si>
+    <t>Informação de multa</t>
+  </si>
+  <si>
+    <t>Indicativo de Mensagem do Sacador/Avalista</t>
+  </si>
+  <si>
+    <t>Identificação do Título
+no Banco</t>
+  </si>
+  <si>
+    <t>Taxa Permanência</t>
+  </si>
+  <si>
+    <t>uso banco</t>
+  </si>
+  <si>
+    <t>Indicativo de Mensagem ou Sacador/Avalista:
+Brancos: Poderá ser informada nas posições 352 a 391 (SEQ 50) qualquer mensagem para ser impressa no boleto;
+“A”: Deverá ser informado nas posições 352 a 391 (SEQ 50) o nome e CPF/CNPJ do sacador</t>
+  </si>
+  <si>
+    <t>Percentual multa por atraso</t>
+  </si>
+  <si>
+    <t>Variação da Carteira</t>
+  </si>
+  <si>
+    <t>Digito de Auto Conferencia do Número
+Bancário.</t>
+  </si>
+  <si>
+    <t>Nosso numero</t>
+  </si>
+  <si>
+    <t>cod carteira</t>
+  </si>
+  <si>
+    <t>Prefixo do Título: Brancos</t>
+  </si>
+  <si>
+    <t>Unidade de valor moeda corrente</t>
+  </si>
+  <si>
+    <t>Conta Caução: "0"</t>
+  </si>
+  <si>
+    <t>Desconto Bonificação por
+dia</t>
+  </si>
+  <si>
+    <t>Mensagem</t>
+  </si>
+  <si>
+    <t>cod ocorrencia</t>
+  </si>
+  <si>
+    <t>Variação da Carteira: "000"</t>
+  </si>
+  <si>
+    <t>Valor do título em outra unidade (consultar banco)</t>
+  </si>
+  <si>
+    <t>Número do Borderô: "000000"</t>
+  </si>
+  <si>
+    <t>Condição para Emissão da
+Papeleta de Cobrança</t>
+  </si>
+  <si>
+    <t>Carteira</t>
+  </si>
+  <si>
+    <t>num documento</t>
+  </si>
+  <si>
+    <t>Data para cobrança de multa</t>
+  </si>
+  <si>
+    <t>Tipo de Cobrança</t>
+  </si>
+  <si>
+    <t>Ident. se emite Boleto
+para Débito Automático</t>
+  </si>
+  <si>
+    <t>Ocorrencia</t>
+  </si>
+  <si>
+    <t>vencimento</t>
+  </si>
+  <si>
+    <t>Número do Contrato Garantia:                                                                                                                                                                                                                                                                     Para Carteira 1 preencher "00000";
+Para Carteira 3 preencher com o  número do contrato sem DV.</t>
+  </si>
+  <si>
+    <t>Código da carteira</t>
+  </si>
+  <si>
+    <t>Carteira de Cobrança</t>
+  </si>
+  <si>
+    <t>Identificação da
+Operação do Banco</t>
+  </si>
+  <si>
+    <t>Seu numero</t>
+  </si>
+  <si>
+    <t>valor titulo</t>
+  </si>
+  <si>
+    <t>DV do contrato:                                                                                                                                                                                                                                                                     Para Carteira 1 preencher "0";
+Para Carteira 3 preencher com o Dígito Verificador.</t>
+  </si>
+  <si>
+    <t>Código da ocorrência</t>
+  </si>
+  <si>
+    <t>Comando</t>
+  </si>
+  <si>
+    <t>Indicador Rateio Crédito
+(opcional)</t>
+  </si>
+  <si>
+    <t>Vencimento</t>
+  </si>
+  <si>
+    <t>codigo banco</t>
+  </si>
+  <si>
+    <t>Numero do borderô: preencher em caso de carteira 3</t>
+  </si>
+  <si>
+    <t>Seu número</t>
+  </si>
+  <si>
+    <t>Seu Número/Número do Titular Atribuido pelo Cedente</t>
+  </si>
+  <si>
+    <t>Endereçamento para Aviso
+do Débito Automático em
+Conta Corrente
+(opcional)</t>
+  </si>
+  <si>
+    <t>Valor titulo</t>
+  </si>
+  <si>
+    <t>agencia cobradora</t>
+  </si>
+  <si>
+    <t>Complemento do Registro: Brancos</t>
+  </si>
+  <si>
+    <t>Data de vencimento do título</t>
+  </si>
+  <si>
+    <t>Dava de Vencimento</t>
+  </si>
+  <si>
+    <t>Identificação da
+ocorrência</t>
+  </si>
+  <si>
+    <t>Agencia cobradora</t>
+  </si>
+  <si>
+    <t>especie</t>
+  </si>
+  <si>
+    <t>Tipo de Emissão:
+1 - Cooperativa
+2 - Cliente</t>
+  </si>
+  <si>
+    <t>Valor do título na moeda corrente</t>
+  </si>
+  <si>
+    <t>Valor do Titulo</t>
+  </si>
+  <si>
+    <t>Nº do Documento</t>
+  </si>
+  <si>
+    <t>Especie</t>
+  </si>
+  <si>
+    <t>aceite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carteira/Modalidade:
+01 = Simples Com Registro
+03 = Garantida Caucionada
+</t>
+  </si>
+  <si>
+    <t>Número do banco cobrador</t>
+  </si>
+  <si>
+    <t>Numero do Banco</t>
+  </si>
+  <si>
+    <t>Data do Vencimento do
+Título</t>
+  </si>
+  <si>
+    <t>Aceite</t>
+  </si>
+  <si>
+    <t>data emissao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comando/Movimento:
+01 = Registro de Títulos
+02 = Solicitação de Baixa
+04 = Concessão de Abatimento
+05 = Cancelamento de Abatimento
+06 = Alteração de Vencimento
+08 = Alteração de Seu Número
+09 = Instrução para Protestar
+10 = Instrução para Sustar Protesto
+11 = Instrução para Dispensar Juros
+12 = Alteração de Pagador
+31 = Alteração de Outros Dados
+34 = Baixa - Pagamento Direto ao Beneficiário
+</t>
+  </si>
+  <si>
+    <t>Código da agência cobradora do Banco Santander</t>
+  </si>
+  <si>
+    <t>Prefixo da Agência Cobradora</t>
+  </si>
+  <si>
+    <t>Valor do Título</t>
+  </si>
+  <si>
+    <t>Emissao data</t>
+  </si>
+  <si>
+    <t>inst 1</t>
+  </si>
+  <si>
+    <t>Seu Número/Número atribuído pela Empresa</t>
+  </si>
+  <si>
+    <t>Espécie do documento</t>
+  </si>
+  <si>
+    <t>Digito Verificador do Prefixo da Agência Cobradora: "Branco"</t>
+  </si>
+  <si>
+    <t>Banco Encarregado da
+Cobrança</t>
+  </si>
+  <si>
+    <t>inst1</t>
+  </si>
+  <si>
+    <t>inst 2</t>
+  </si>
+  <si>
+    <r>
+      <t>Data Vencimento: Formato DDMMAA
+Normal "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>DDMMAA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>"
+A vista = "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>888888</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>"
+Contra Apresentação = "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>999999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>Tipo de aceite</t>
+  </si>
+  <si>
+    <t>Espécie do Titulo</t>
+  </si>
+  <si>
+    <t>Agência Depositária</t>
+  </si>
+  <si>
+    <t>inst2</t>
+  </si>
+  <si>
+    <t>juros 1 dia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor do Titulo </t>
+  </si>
+  <si>
+    <t>Data da emissão do título</t>
+  </si>
+  <si>
+    <t>Aceite do Titulo</t>
+  </si>
+  <si>
+    <t>Espécie de Título</t>
+  </si>
+  <si>
+    <t>Juros mora</t>
+  </si>
+  <si>
+    <t>desconto ate</t>
+  </si>
+  <si>
+    <t>Número Banco: "756"</t>
+  </si>
+  <si>
+    <t>Primeira instrução cobrança</t>
+  </si>
+  <si>
+    <t>Data de Emissão</t>
+  </si>
+  <si>
+    <t>Identificação</t>
+  </si>
+  <si>
+    <t>Data desconto</t>
+  </si>
+  <si>
+    <t>valor desconto</t>
+  </si>
+  <si>
+    <t>Segunda instrução cobrança</t>
+  </si>
+  <si>
+    <t>Instrução Codificada</t>
+  </si>
+  <si>
+    <t>Data da emissão do
+Título</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor desconto </t>
+  </si>
+  <si>
+    <t>valor IOF</t>
+  </si>
+  <si>
+    <t>Valor de mora a ser cobrado por dia de atraso</t>
+  </si>
+  <si>
+    <t>1ª instrução</t>
+  </si>
+  <si>
+    <t>IOF</t>
+  </si>
+  <si>
+    <t>abatimento</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Espécie do Título :
+01 = Duplicata Mercantil
+02 = Nota Promissória
+03 = Nota de Seguro
+05 = Recibo
+06 = Duplicata Rural
+08 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>= Letra de Câmbio
+09 = Warrant
+10 = Cheque
+12 = Duplicata de Serviço
+13 = Nota de Débito
+14 = Triplicata Mercantil
+15 = Triplicata de Serviço
+18 = Fatura
+20 = Apólice de Seguro
+21 = Mensalidade Escolar
+22 = Parcela de Consórcio
+99 = Outros</t>
+    </r>
+  </si>
+  <si>
+    <t>Data limite para concessão de desconto</t>
+  </si>
+  <si>
+    <t>Juros de Mora por dia de Atrazo</t>
+  </si>
+  <si>
+    <t>2ª instrução</t>
+  </si>
+  <si>
+    <t>Abatimento</t>
+  </si>
+  <si>
+    <t>cod inscricao</t>
+  </si>
+  <si>
+    <t>Aceite do Título:
+"0" = Sem aceite
+"1" = Com aceite</t>
+  </si>
+  <si>
+    <t>Valor do IOF a ser recolhido pelo Banco para nota de seguro</t>
+  </si>
+  <si>
+    <t>Data Limite para Concessão de Desconto/Data de Operação do BBVendor/Juros de Mora</t>
+  </si>
+  <si>
+    <t>Valor a ser cobrado por
+Dia de Atraso</t>
+  </si>
+  <si>
+    <t>num inscricao</t>
+  </si>
+  <si>
+    <t>Data de Emissão do Título: formato ddmmaa</t>
+  </si>
+  <si>
+    <t>Valor do abatimento a ser concedido ou valor do segundo desconto. Ver posição 71</t>
+  </si>
+  <si>
+    <t>Valor do Desconto</t>
+  </si>
+  <si>
+    <t>Data Limite P/Concessão
+de Desconto</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>Primeira instrução codificada:
+Regras de impressão de mensagens nos boletos:
+* Primeira instrução (SEQ 34) = 00 e segunda (SEQ 35) = 00, não imprime nada.
+* Primeira instrução (SEQ 34) = 01 e segunda (SEQ 35) = 01, desconsidera-se as instruções CNAB e imprime as mensagens relatadas no trailler do arquivo.
+* Primeira e segunda instrução diferente das situações acima, imprimimos o conteúdo CNAB:
+  00 = AUSENCIA DE INSTRUCOES
+  01 = COBRAR JUROS
+  03 = PROTESTAR 3 DIAS UTEIS APOS VENCIMENTO
+  04 = PROTESTAR 4 DIAS UTEIS APOS VENCIMENTO
+  05 = PROTESTAR 5 DIAS UTEIS APOS VENCIMENTO
+  07 = NAO PROTESTAR
+  10 = PROTESTAR 10 DIAS UTEIS APOS VENCIMENTO
+  15 = PROTESTAR 15 DIAS UTEIS APOS VENCIMENTO
+  20 = PROTESTAR 20 DIAS UTEIS APOS VENCIMENTO
+  22 = CONCEDER DESCONTO SO ATE DATA ESTIPULADA
+  42 = DEVOLVER APOS 15 DIAS VENCIDO
+  43 = DEVOLVER APOS 30 DIAS VENCIDO</t>
+  </si>
+  <si>
+    <t>Tipo de inscrição do sacado</t>
+  </si>
+  <si>
+    <t>Valor do IOF/Qtd Unidade Variavel</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>logradouro</t>
+  </si>
+  <si>
+    <t>Segunda instrução: vide SEQ 33</t>
+  </si>
+  <si>
+    <t>CGC ou CPF do sacado</t>
+  </si>
+  <si>
+    <t>Valor do Abatimento</t>
+  </si>
+  <si>
+    <t>Valor do IOF</t>
+  </si>
+  <si>
+    <t>endereco</t>
+  </si>
+  <si>
+    <t>bairro</t>
+  </si>
+  <si>
+    <t>Taxa de mora mês 
+Ex: 022000 = 2,20%)</t>
+  </si>
+  <si>
+    <t>Nome do sacado</t>
+  </si>
+  <si>
+    <t>Tipo de Inscrição do Sacado</t>
+  </si>
+  <si>
+    <t>Valor do Abatimento a
+ser concedido ou
+cancelado</t>
+  </si>
+  <si>
+    <t>CEP</t>
+  </si>
+  <si>
+    <t>Taxa de multa
+Ex: 022000 = 2,20%)</t>
+  </si>
+  <si>
+    <t>Endereço do sacado</t>
+  </si>
+  <si>
+    <t>Número do CNPJ/CPF do Sacado</t>
+  </si>
+  <si>
+    <t>Identificação do Tipo de
+Inscrição do Pagador</t>
+  </si>
+  <si>
+    <t>cidade</t>
+  </si>
+  <si>
+    <t>Tipo Distribuição
+1 – Cooperativa
+2 - Cliente</t>
+  </si>
+  <si>
+    <t>Bairro do sacado (opcional)</t>
+  </si>
+  <si>
+    <t>Nome do Sacado</t>
+  </si>
+  <si>
+    <t>Nº Inscrição do Pagador</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>Data primeiro desconto:
+Informar a data limite a ser observada pelo cliente para o pagamento do título com Desconto no formato ddmmaa.
+Preencher com zeros quando não for concedido nenhum desconto.
+Obs: A data limite não poderá ser superior a data de vencimento do título.</t>
+  </si>
+  <si>
+    <t>CEP do sacado</t>
+  </si>
+  <si>
+    <t>Endereço do Sacado</t>
+  </si>
+  <si>
+    <t>Nome do Pagador</t>
+  </si>
+  <si>
+    <t>UF</t>
+  </si>
+  <si>
+    <t>Sacador avalista</t>
+  </si>
+  <si>
+    <t>Valor primeiro desconto:
+Informar o valor do desconto, com duas casa decimais.
+Preencher com zeros quando não for concedido nenhum desconto.</t>
+  </si>
+  <si>
+    <t>Complemento do CEP</t>
+  </si>
+  <si>
+    <t>Bairro do Sacado</t>
+  </si>
+  <si>
+    <t>Endereço Completo</t>
+  </si>
+  <si>
+    <t>Data multa</t>
+  </si>
+  <si>
+    <t>data de mora</t>
+  </si>
+  <si>
+    <t>193-193 – Código da moeda</t>
+  </si>
+  <si>
+    <t>Município do sacado</t>
+  </si>
+  <si>
+    <t>CEP do Endereço do Sacado</t>
+  </si>
+  <si>
+    <t>1ª Mensagem</t>
+  </si>
+  <si>
+    <t>Valor multa</t>
+  </si>
+  <si>
+    <t>prazo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">194-205 – Valor IOF / Quantidade Monetária: "000000000000"
+Se o código da moeda for REAL, o valor restante representa o IOF. Se o código da moeda for diferente de REAL, o valor restante será a quantidade monetária.    </t>
+  </si>
+  <si>
+    <t>UF do sacado</t>
+  </si>
+  <si>
+    <t>Cidade do Sacado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor Abatimento </t>
+  </si>
+  <si>
+    <t>Nome do sacador ou coobrigado</t>
+  </si>
+  <si>
+    <t>UF da Cidade do Sacado</t>
+  </si>
+  <si>
+    <t>Sufixo do CEP</t>
+  </si>
+  <si>
+    <t>inst3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de Inscrição do Pagador:
+"01" = CPF
+"02" = CNPJ </t>
+  </si>
+  <si>
+    <t>Identificador do Complemento</t>
+  </si>
+  <si>
+    <t>Observações/MEnsagem ou Sacador Avalista</t>
+  </si>
+  <si>
+    <t>Sacador/Avalista ou 2ª Mensagem</t>
+  </si>
+  <si>
+    <t>Número do CNPJ ou CPF do Pagador</t>
+  </si>
+  <si>
+    <t>Complemento</t>
+  </si>
+  <si>
+    <t>Numero de Dias Para Protesto</t>
+  </si>
+  <si>
+    <t>Codigo moeda</t>
+  </si>
+  <si>
+    <t>Número de dias para protesto</t>
+  </si>
+  <si>
+    <t>Endereço do Pagador</t>
+  </si>
+  <si>
+    <t>Bairro do Pagador</t>
+  </si>
+  <si>
+    <t>CEP do Pagador</t>
+  </si>
+  <si>
+    <t>Cidade do Pagador</t>
+  </si>
+  <si>
+    <t>Agência de Débito
+(opcional)</t>
+  </si>
+  <si>
+    <t>UF do Pagador</t>
+  </si>
+  <si>
+    <t>Dígito da Agência de
+Débito (opcional)</t>
+  </si>
+  <si>
+    <t>Observações/Mensagem ou Sacador/Avalista:
+Quando o SEQ 14 – Indicativo de Mensagem ou Sacador/Avalista - for preenchido com Brancos, as informações constantes desse campo serão impressas no campo “texto de responsabilidade da Empresa”, no Recibo do Sacado e na Ficha de Compensação do boleto de cobrança.
+Quando o SEQ 14 – Indicativo de Mensagem ou Sacador/Avalista - for preenchido com “A” , este campo deverá ser preenchido com o nome/razão social do Sacador/Avalista</t>
+  </si>
+  <si>
+    <t>Razão da Conta Corrente
+(opcional)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de Dias Para Protesto:
+Quantidade dias para envio protesto. Se = "0", utilizar dias protesto padrão do cliente cadastrado na cooperativa. </t>
+  </si>
+  <si>
+    <t>Conta Corrente</t>
+  </si>
+  <si>
+    <t>Dígito da Conta Corrente
+(opcional)</t>
+  </si>
+  <si>
+    <t>instrucao/alegacao</t>
+  </si>
+  <si>
+    <t>instruction</t>
+  </si>
+  <si>
+    <t>Sequencial de Registro</t>
+  </si>
+  <si>
+    <t>Nº Seqüencial do
+Registro</t>
+  </si>
+  <si>
+    <t>Trailer (9)</t>
+  </si>
+  <si>
+    <t>Identificação do registro Trailer</t>
+  </si>
+  <si>
+    <t>Identificação Registro</t>
+  </si>
+  <si>
+    <t>Identificação Registro Trailler: "9"</t>
+  </si>
+  <si>
+    <t>Quantidade de documentos no arquivo</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>Valor total dos títulos</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Mensagem responsabilidade Beneficiário:
+Quando o SEQ 34 = "01" e o SEQ 35 = "01", preencher com mensagens/intruções de responsabilidade do Beneficiário
+Quando o SEQ 34 e SEQ 35 forem preenchidos com valores diferentes destes, preencher com Brancos</t>
+  </si>
+  <si>
+    <t>Número Sequencial do Registro no Arquivo</t>
+  </si>
+  <si>
+    <t>Número Seqüencial de
+Registro</t>
+  </si>
+  <si>
+    <t>No Sequencial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seqüencial do Registro: Incrementado em 1 a cada registro </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21,10 +1332,33 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="2" tint="-0.75"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="2" tint="-0.75"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -173,13 +1507,56 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -479,154 +1856,187 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -680,6 +2090,15 @@
     <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
     <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
@@ -943,9 +2362,1753 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="A1:G100"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" customHeight="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="28.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A15" s="7"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A19" s="7"/>
+      <c r="B19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A20" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A21" s="7"/>
+      <c r="B21" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A23" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A24" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A25" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A26" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:7">
+      <c r="A27" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:7">
+      <c r="A28" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:7">
+      <c r="A29" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:7">
+      <c r="A30" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:7">
+      <c r="A31" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:7">
+      <c r="A32" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:7">
+      <c r="A33" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:6">
+      <c r="A34" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:7">
+      <c r="A35" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="D35" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:7">
+      <c r="A36" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:6">
+      <c r="A37" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:7">
+      <c r="A38" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:7">
+      <c r="A39" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:6">
+      <c r="A40" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:6">
+      <c r="A41" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:6">
+      <c r="A42" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:6">
+      <c r="A43" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:6">
+      <c r="A44" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:6">
+      <c r="A45" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:6">
+      <c r="A46" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:6">
+      <c r="A47" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:6">
+      <c r="A48" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:6">
+      <c r="A49" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:6">
+      <c r="A50" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:6">
+      <c r="A51" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:6">
+      <c r="A52" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:6">
+      <c r="A53" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:6">
+      <c r="A54" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:6">
+      <c r="A55" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:6">
+      <c r="A56" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:6">
+      <c r="A57" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:6">
+      <c r="A58" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:6">
+      <c r="A59" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:6">
+      <c r="A60" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:6">
+      <c r="A61" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:6">
+      <c r="A62" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:6">
+      <c r="A63" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:6">
+      <c r="A64" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:6">
+      <c r="A65" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:6">
+      <c r="A66" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:6">
+      <c r="A67" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:6">
+      <c r="A68" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:6">
+      <c r="A69" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:6">
+      <c r="A70" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:6">
+      <c r="A71" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:6">
+      <c r="A72" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="1:6">
+      <c r="A73" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:6">
+      <c r="A74" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:6">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F75" s="7"/>
+    </row>
+    <row r="76" customHeight="1" spans="1:6">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F76" s="7"/>
+    </row>
+    <row r="77" customHeight="1" spans="1:6">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F77" s="7"/>
+    </row>
+    <row r="78" customHeight="1" spans="1:6">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F78" s="7"/>
+    </row>
+    <row r="79" customHeight="1" spans="1:6">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F79" s="7"/>
+    </row>
+    <row r="80" customHeight="1" spans="1:6">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F80" s="7"/>
+    </row>
+    <row r="81" customHeight="1" spans="1:6">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F81" s="7"/>
+    </row>
+    <row r="82" customHeight="1" spans="1:6">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+    </row>
+    <row r="83" customHeight="1" spans="1:6">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+    </row>
+    <row r="84" customHeight="1" spans="1:6">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+    </row>
+    <row r="85" customHeight="1" spans="1:7">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="1:6">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+    </row>
+    <row r="87" customHeight="1" spans="1:6">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+    </row>
+    <row r="88" customHeight="1" spans="1:6">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+    </row>
+    <row r="89" customHeight="1" spans="1:6">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+    </row>
+    <row r="90" customHeight="1" spans="1:7">
+      <c r="A90" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="1:7">
+      <c r="A91" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+    </row>
+    <row r="92" customHeight="1" spans="1:7">
+      <c r="A92" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="1:7">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="1:7">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="1:7">
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F95" s="7"/>
+      <c r="G95" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="1:7">
+      <c r="A96" s="7"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F96" s="7"/>
+      <c r="G96" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="1:7">
+      <c r="A97" s="7"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F97" s="7"/>
+      <c r="G97" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="1:7">
+      <c r="A98" s="7"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F98" s="7"/>
+      <c r="G98" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="1:7">
+      <c r="A99" s="7"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F99" s="7"/>
+      <c r="G99" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="1:7">
+      <c r="A100" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C38:C90;D30:E90;F30:F35;B37:B90;A30:A90;B30:B35;C30:C34;A92:F100;F37:F90;A3:F28">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/docs/Normalization.xlsx
+++ b/docs/Normalization.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444">
   <si>
     <t>Banco do Brasil</t>
   </si>
@@ -415,6 +415,10 @@
     <t>Prefix da Agência</t>
   </si>
   <si>
+    <t>Cod agencia - Identificação da Empresa
+Beneficiária no Banco</t>
+  </si>
+  <si>
     <t>Código da agência do cedente</t>
   </si>
   <si>
@@ -424,6 +428,10 @@
     <t>Número da Conta Corrente do Cedente</t>
   </si>
   <si>
+    <t>Conta - Identificação da Empresa
+Beneficiária no Banco</t>
+  </si>
+  <si>
     <t>conta</t>
   </si>
   <si>
@@ -433,17 +441,16 @@
     <t>Dígito Verificador da Conta: vide planilha "Capa" deste arquivo</t>
   </si>
   <si>
+    <t>Conta cobrança cedente</t>
+  </si>
+  <si>
+    <t>billingAccount</t>
+  </si>
+  <si>
     <t>Numero do Convênio de Cobrança do Cedente</t>
   </si>
   <si>
-    <t>Identificação da Empresa
-Beneficiária no Banco</t>
-  </si>
-  <si>
     <t>Número do Convênio de Cobrança do Beneficiário: "000000"</t>
-  </si>
-  <si>
-    <t>Conta cobrança cedente</t>
   </si>
   <si>
     <t>Codigo de Controle da Empresa</t>
@@ -454,9 +461,6 @@
   </si>
   <si>
     <t>Uso empresa</t>
-  </si>
-  <si>
-    <t>seu numero</t>
   </si>
   <si>
     <t>Número de Controle do Participante: Brancos</t>
@@ -496,6 +500,10 @@
   </si>
   <si>
     <t>Carteira de Cobrança</t>
+  </si>
+  <si>
+    <t>Carteira - Identificação da Empresa
+Beneficiária no Banco</t>
   </si>
   <si>
     <t>Carteira</t>
@@ -572,17 +580,13 @@
     <t>occurrenceCode</t>
   </si>
   <si>
-    <t>Conta Caução: "0"</t>
-  </si>
-  <si>
-    <t>Digito de Auto Conferencia do Número
-Bancário.</t>
+    <t>Nº do Documento</t>
   </si>
   <si>
     <t>num documento</t>
   </si>
   <si>
-    <t>Informação de multa</t>
+    <t>documentNumber</t>
   </si>
   <si>
     <t>Dava de Vencimento</t>
@@ -1085,71 +1089,83 @@
     <t>pullerGuarantor</t>
   </si>
   <si>
+    <t>Data multa</t>
+  </si>
+  <si>
+    <t>data de mora</t>
+  </si>
+  <si>
+    <t>Data para cobrança de multa</t>
+  </si>
+  <si>
+    <t>lateInterestDate</t>
+  </si>
+  <si>
+    <t>Numero de Dias Para Protesto</t>
+  </si>
+  <si>
+    <t>prazo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de Dias Para Protesto:
+Quantidade dias para envio protesto. Se = "0", utilizar dias protesto padrão do cliente cadastrado na cooperativa. </t>
+  </si>
+  <si>
+    <t>Número de dias para protesto</t>
+  </si>
+  <si>
+    <t>deadline</t>
+  </si>
+  <si>
     <t>Desconto Bonificação por
 dia</t>
   </si>
   <si>
-    <t>data de mora</t>
-  </si>
-  <si>
-    <t>Número do Contrato Garantia:                                                                                                                                                                                                                                                                     Para Carteira 1 preencher "00000";
-Para Carteira 3 preencher com o  número do contrato sem DV.</t>
-  </si>
-  <si>
-    <t>lateInterestDate</t>
+    <t>dayDiscount</t>
+  </si>
+  <si>
+    <t>Conta Caução: "0"</t>
+  </si>
+  <si>
+    <t>escrowAccountFlag</t>
+  </si>
+  <si>
+    <t>Seu Número/Número do Titular Atribuido pelo Cedente</t>
+  </si>
+  <si>
+    <t>Seu numero</t>
+  </si>
+  <si>
+    <t>seu numero</t>
+  </si>
+  <si>
+    <t>Seu Número/Número atribuído pela Empresa</t>
+  </si>
+  <si>
+    <t>Seu número</t>
+  </si>
+  <si>
+    <t>yourNumber</t>
+  </si>
+  <si>
+    <t>Digito de Auto Conferencia do Número
+Bancário.</t>
+  </si>
+  <si>
+    <t>ourNumberDv</t>
+  </si>
+  <si>
+    <t>Tipo de Cobrança</t>
+  </si>
+  <si>
+    <t>billingType</t>
   </si>
   <si>
     <t>Condição para Emissão da
 Papeleta de Cobrança</t>
   </si>
   <si>
-    <t>prazo</t>
-  </si>
-  <si>
-    <t>DV do contrato:                                                                                                                                                                                                                                                                     Para Carteira 1 preencher "0";
-Para Carteira 3 preencher com o Dígito Verificador.</t>
-  </si>
-  <si>
-    <t>deadline</t>
-  </si>
-  <si>
-    <t>Ident. se emite Boleto
-para Débito Automático</t>
-  </si>
-  <si>
     <t>ID Emissão</t>
-  </si>
-  <si>
-    <t>Numero do borderô: preencher em caso de carteira 3</t>
-  </si>
-  <si>
-    <t>Percentual multa por atraso</t>
-  </si>
-  <si>
-    <t>Tipo de Cobrança</t>
-  </si>
-  <si>
-    <t>Identificação da
-Operação do Banco</t>
-  </si>
-  <si>
-    <t>ID Postagem</t>
-  </si>
-  <si>
-    <t>Complemento do Registro: Brancos</t>
-  </si>
-  <si>
-    <t>Unidade de valor moeda corrente</t>
-  </si>
-  <si>
-    <t>Seu Número/Número do Titular Atribuido pelo Cedente</t>
-  </si>
-  <si>
-    <t>Indicador Rateio Crédito
-(opcional)</t>
-  </si>
-  <si>
-    <t>Taxa Permanência</t>
   </si>
   <si>
     <t>Tipo de Emissão:
@@ -1157,10 +1173,107 @@
 2 - Cliente</t>
   </si>
   <si>
-    <t>Data para cobrança de multa</t>
-  </si>
-  <si>
-    <t>Número do Borderô: "000000"</t>
+    <t>emissionType</t>
+  </si>
+  <si>
+    <t>Número do Contrato Garantia:                                                                                                                                                                                                                                                                     Para Carteira 1 preencher "00000";
+Para Carteira 3 preencher com o  número do contrato sem DV.</t>
+  </si>
+  <si>
+    <t>guaranteeContract</t>
+  </si>
+  <si>
+    <t>DV do contrato:                                                                                                                                                                                                                                                                     Para Carteira 1 preencher "0";
+Para Carteira 3 preencher com o Dígito Verificador.</t>
+  </si>
+  <si>
+    <t>guaranteeContractDv</t>
+  </si>
+  <si>
+    <t>Identificador do Complemento</t>
+  </si>
+  <si>
+    <t>complementId</t>
+  </si>
+  <si>
+    <t>Complemento</t>
+  </si>
+  <si>
+    <t>complement</t>
+  </si>
+  <si>
+    <t>ID Postagem</t>
+  </si>
+  <si>
+    <t>Tipo Distribuição
+1 – Cooperativa
+2 - Cliente</t>
+  </si>
+  <si>
+    <t>postageType</t>
+  </si>
+  <si>
+    <t>Ident. se emite Boleto
+para Débito Automático</t>
+  </si>
+  <si>
+    <t>ddaEmission</t>
+  </si>
+  <si>
+    <t>Identificação da
+Operação do Banco</t>
+  </si>
+  <si>
+    <t>bankOperationId</t>
+  </si>
+  <si>
+    <t>Indicador Rateio Crédito
+(opcional)</t>
+  </si>
+  <si>
+    <t>apportionmentFlag</t>
+  </si>
+  <si>
+    <t>Agência de Débito
+(opcional)</t>
+  </si>
+  <si>
+    <t>ddaBranch</t>
+  </si>
+  <si>
+    <t>Dígito da Agência de
+Débito (opcional)</t>
+  </si>
+  <si>
+    <t>ddaBranchDv</t>
+  </si>
+  <si>
+    <t>Razão da Conta Corrente
+(opcional)</t>
+  </si>
+  <si>
+    <t>ddaAccountReason</t>
+  </si>
+  <si>
+    <t>Conta Corrente</t>
+  </si>
+  <si>
+    <t>ddaAccount</t>
+  </si>
+  <si>
+    <t>Dígito da Conta Corrente
+(opcional)</t>
+  </si>
+  <si>
+    <t>ddaAccountDv</t>
+  </si>
+  <si>
+    <t>Código do Banco a ser
+debitado na Câmara de
+Compensação</t>
+  </si>
+  <si>
+    <t>ddaBankCode</t>
   </si>
   <si>
     <t>Endereçamento para Aviso
@@ -1169,7 +1282,123 @@
 (opcional)</t>
   </si>
   <si>
+    <t>ddaNoticeAddressing</t>
+  </si>
+  <si>
+    <t>Identificação</t>
+  </si>
+  <si>
+    <t>identification</t>
+  </si>
+  <si>
+    <t>1ª Mensagem</t>
+  </si>
+  <si>
     <t>Mensagem</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>Codigo moeda</t>
+  </si>
+  <si>
+    <t>193-193 – Código da moeda</t>
+  </si>
+  <si>
+    <t>currencyCode</t>
+  </si>
+  <si>
+    <t>Unidade de valor moeda corrente</t>
+  </si>
+  <si>
+    <t>currentCurrencyValue</t>
+  </si>
+  <si>
+    <t>Data do segundo desconto</t>
+  </si>
+  <si>
+    <t>secondDiscountDate</t>
+  </si>
+  <si>
+    <t>quanti moeda</t>
+  </si>
+  <si>
+    <t>Valor do título em outra unidade (consultar banco)</t>
+  </si>
+  <si>
+    <t>currencyQuantity</t>
+  </si>
+  <si>
+    <t>instrucao/alegacao</t>
+  </si>
+  <si>
+    <t>instruction</t>
+  </si>
+  <si>
+    <t>Taxa Permanência</t>
+  </si>
+  <si>
+    <t>permanenceTax</t>
+  </si>
+  <si>
+    <t>inst3</t>
+  </si>
+  <si>
+    <t>instruction3</t>
+  </si>
+  <si>
+    <t>Campo de Multa</t>
+  </si>
+  <si>
+    <t>Informação de multa</t>
+  </si>
+  <si>
+    <t>lateInterestFlag</t>
+  </si>
+  <si>
+    <t>Taxa de mora mês 
+Ex: 022000 = 2,20%)</t>
+  </si>
+  <si>
+    <t>monthInterestPercentage</t>
+  </si>
+  <si>
+    <t>Percentual de multa</t>
+  </si>
+  <si>
+    <t>Taxa de multa
+Ex: 022000 = 2,20%)</t>
+  </si>
+  <si>
+    <t>Percentual multa por atraso</t>
+  </si>
+  <si>
+    <t>lateInterestPercentage</t>
+  </si>
+  <si>
+    <t>Valor multa</t>
+  </si>
+  <si>
+    <t>lateInterest</t>
+  </si>
+  <si>
+    <t>Prefixo do Título: Brancos</t>
+  </si>
+  <si>
+    <t>documentPrefix</t>
+  </si>
+  <si>
+    <t>Número do Borderô: "000000"</t>
+  </si>
+  <si>
+    <t>Numero do borderô: preencher em caso de carteira 3</t>
+  </si>
+  <si>
+    <t>bordero</t>
+  </si>
+  <si>
+    <t>Indicativo de Mensagem do Sacador/Avalista</t>
   </si>
   <si>
     <t>Indicativo de Mensagem ou Sacador/Avalista:
@@ -1177,142 +1406,29 @@
 “A”: Deverá ser informado nas posições 352 a 391 (SEQ 50) o nome e CPF/CNPJ do sacador</t>
   </si>
   <si>
-    <t>Seu número</t>
-  </si>
-  <si>
-    <t>Numero de Dias Para Protesto</t>
-  </si>
-  <si>
-    <t>Nº do Documento</t>
-  </si>
-  <si>
-    <t>Seu numero</t>
-  </si>
-  <si>
-    <t>Seu Número/Número atribuído pela Empresa</t>
-  </si>
-  <si>
-    <t>Indicativo de Mensagem do Sacador/Avalista</t>
-  </si>
-  <si>
-    <t>Identificação</t>
-  </si>
-  <si>
-    <t>Taxa de mora mês 
-Ex: 022000 = 2,20%)</t>
-  </si>
-  <si>
-    <t>1ª Mensagem</t>
-  </si>
-  <si>
-    <t>Data multa</t>
-  </si>
-  <si>
-    <t>Taxa de multa
-Ex: 022000 = 2,20%)</t>
-  </si>
-  <si>
-    <t>Identificador do Complemento</t>
-  </si>
-  <si>
-    <t>Código do Banco a ser
-debitado na Câmara de
-Compensação</t>
-  </si>
-  <si>
-    <t>Valor multa</t>
-  </si>
-  <si>
-    <t>Tipo Distribuição
-1 – Cooperativa
-2 - Cliente</t>
-  </si>
-  <si>
-    <t>Complemento</t>
-  </si>
-  <si>
-    <t>Campo de Multa</t>
-  </si>
-  <si>
-    <t>193-193 – Código da moeda</t>
-  </si>
-  <si>
-    <t>Número de dias para protesto</t>
-  </si>
-  <si>
-    <t>Percentual de multa</t>
-  </si>
-  <si>
-    <t>inst3</t>
-  </si>
-  <si>
-    <t>Data do segundo desconto</t>
-  </si>
-  <si>
-    <t>Agência de Débito
-(opcional)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Número de Dias Para Protesto:
-Quantidade dias para envio protesto. Se = "0", utilizar dias protesto padrão do cliente cadastrado na cooperativa. </t>
-  </si>
-  <si>
-    <t>Dígito da Agência de
-Débito (opcional)</t>
-  </si>
-  <si>
-    <t>Codigo moeda</t>
-  </si>
-  <si>
-    <t>quanti moeda</t>
-  </si>
-  <si>
-    <t>Prefixo do Título: Brancos</t>
-  </si>
-  <si>
-    <t>Valor do título em outra unidade (consultar banco)</t>
-  </si>
-  <si>
-    <t>currencyQuantity</t>
-  </si>
-  <si>
-    <t>Razão da Conta Corrente
-(opcional)</t>
-  </si>
-  <si>
-    <t>instrucao/alegacao</t>
-  </si>
-  <si>
-    <t>instruction</t>
-  </si>
-  <si>
-    <t>Conta Corrente</t>
-  </si>
-  <si>
-    <t>documentNumber</t>
+    <t>messageFlag</t>
   </si>
   <si>
     <t>Número da prestação: "00"</t>
   </si>
   <si>
-    <t>Dígito da Conta Corrente
-(opcional)</t>
-  </si>
-  <si>
     <t>Número da Parcela: "01" se parcela única</t>
   </si>
   <si>
+    <t>parcel</t>
+  </si>
+  <si>
     <t>Grupo de Valor : "00"</t>
+  </si>
+  <si>
+    <t>Grupo de Valor: "00"</t>
+  </si>
+  <si>
+    <t>Sequencial de Registro</t>
   </si>
   <si>
     <t>Nº Seqüencial do
 Registro</t>
-  </si>
-  <si>
-    <t>Grupo de Valor: "00"</t>
-  </si>
-  <si>
-    <t>Sequencial de Registro</t>
   </si>
   <si>
     <t>Trailer (9)</t>
@@ -1359,10 +1475,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1397,7 +1513,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1418,15 +1558,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1442,22 +1575,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1471,47 +1627,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1526,15 +1650,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1573,7 +1689,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1585,19 +1725,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1615,7 +1743,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1627,13 +1761,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1645,7 +1827,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1657,61 +1839,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1723,25 +1851,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1753,7 +1869,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1771,16 +1887,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1832,6 +1954,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1841,26 +1974,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1869,152 +1985,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2035,6 +2151,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2363,12 +2482,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
+      <selection pane="bottomLeft" activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" customHeight="1" outlineLevelCol="7"/>
@@ -2969,7 +3088,9 @@
       <c r="A33" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="6"/>
+      <c r="B33" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="C33" s="6" t="s">
         <v>42</v>
       </c>
@@ -2980,7 +3101,7 @@
         <v>44</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>46</v>
@@ -2989,9 +3110,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:6">
+    <row r="34" customHeight="1" spans="1:8">
       <c r="A34" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -3000,17 +3121,22 @@
         <v>48</v>
       </c>
       <c r="F34" s="6"/>
+      <c r="H34" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="35" customHeight="1" spans="1:8">
       <c r="A35" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B35" s="6"/>
+        <v>133</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>134</v>
+      </c>
       <c r="D35" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>51</v>
@@ -3024,13 +3150,13 @@
     </row>
     <row r="36" customHeight="1" spans="1:8">
       <c r="A36" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>55</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>55</v>
@@ -3039,42 +3165,30 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:6">
-      <c r="A37" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>137</v>
-      </c>
+    <row r="37" customHeight="1" spans="1:8">
+      <c r="A37" s="6"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="6"/>
+      <c r="F37" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="G37" s="2" t="s">
         <v>139</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:8">
       <c r="A38" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="D38" s="6"/>
+      <c r="E38" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>145</v>
-      </c>
       <c r="G38" s="2" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>118</v>
@@ -3082,25 +3196,22 @@
     </row>
     <row r="39" customHeight="1" spans="1:8">
       <c r="A39" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>118</v>
@@ -3108,22 +3219,25 @@
     </row>
     <row r="40" customHeight="1" spans="1:8">
       <c r="A40" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>118</v>
@@ -3131,20 +3245,35 @@
     </row>
     <row r="41" customHeight="1" spans="1:8">
       <c r="A41" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="G41" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="H41" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:8">
+      <c r="A42" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="4:8">
-      <c r="D42" s="6" t="s">
+      <c r="E42" s="6" t="s">
         <v>163</v>
       </c>
       <c r="G42" s="2" t="s">
@@ -3165,70 +3294,52 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:8">
-      <c r="A44" s="6" t="s">
+    <row r="44" customHeight="1" spans="4:8">
+      <c r="D44" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="G44" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="H44" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:8">
+      <c r="A45" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="B45" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="C45" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="D45" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="E45" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:6">
-      <c r="A45" s="6" t="s">
+      <c r="F45" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="G45" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="H45" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="2:8">
+      <c r="B46" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="E45" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F45" s="6" t="s">
+      <c r="D46" s="6" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="46" customHeight="1" spans="1:8">
-      <c r="A46" s="6" t="s">
+      <c r="G46" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>118</v>
@@ -3236,25 +3347,25 @@
     </row>
     <row r="47" customHeight="1" spans="1:8">
       <c r="A47" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>118</v>
@@ -3262,25 +3373,25 @@
     </row>
     <row r="48" customHeight="1" spans="1:8">
       <c r="A48" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>118</v>
@@ -3288,25 +3399,25 @@
     </row>
     <row r="49" customHeight="1" spans="1:8">
       <c r="A49" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>118</v>
@@ -3314,10 +3425,25 @@
     </row>
     <row r="50" customHeight="1" spans="1:8">
       <c r="A50" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>118</v>
@@ -3327,23 +3453,8 @@
       <c r="A51" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>209</v>
-      </c>
       <c r="E51" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>212</v>
+        <v>48</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>118</v>
@@ -3351,22 +3462,25 @@
     </row>
     <row r="52" customHeight="1" spans="1:8">
       <c r="A52" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>118</v>
@@ -3374,25 +3488,22 @@
     </row>
     <row r="53" customHeight="1" spans="1:8">
       <c r="A53" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>118</v>
@@ -3400,25 +3511,25 @@
     </row>
     <row r="54" customHeight="1" spans="1:8">
       <c r="A54" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>118</v>
@@ -3426,25 +3537,25 @@
     </row>
     <row r="55" customHeight="1" spans="1:8">
       <c r="A55" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B55" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>118</v>
@@ -3452,22 +3563,25 @@
     </row>
     <row r="56" customHeight="1" spans="1:8">
       <c r="A56" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>118</v>
@@ -3475,25 +3589,22 @@
     </row>
     <row r="57" customHeight="1" spans="1:8">
       <c r="A57" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>118</v>
@@ -3501,25 +3612,25 @@
     </row>
     <row r="58" customHeight="1" spans="1:8">
       <c r="A58" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>118</v>
@@ -3527,25 +3638,25 @@
     </row>
     <row r="59" customHeight="1" spans="1:8">
       <c r="A59" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>118</v>
@@ -3553,25 +3664,25 @@
     </row>
     <row r="60" customHeight="1" spans="1:8">
       <c r="A60" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>118</v>
@@ -3579,25 +3690,25 @@
     </row>
     <row r="61" customHeight="1" spans="1:8">
       <c r="A61" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>118</v>
@@ -3605,25 +3716,25 @@
     </row>
     <row r="62" customHeight="1" spans="1:8">
       <c r="A62" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>118</v>
@@ -3631,25 +3742,25 @@
     </row>
     <row r="63" customHeight="1" spans="1:8">
       <c r="A63" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>118</v>
@@ -3657,25 +3768,25 @@
     </row>
     <row r="64" customHeight="1" spans="1:8">
       <c r="A64" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>118</v>
@@ -3683,22 +3794,25 @@
     </row>
     <row r="65" customHeight="1" spans="1:8">
       <c r="A65" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>118</v>
@@ -3706,56 +3820,59 @@
     </row>
     <row r="66" customHeight="1" spans="1:8">
       <c r="A66" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="H66" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:8">
+      <c r="A67" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="C66" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="E66" s="6" t="s">
+      <c r="B67" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="C67" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="E67" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="F67" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="H66" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="67" customHeight="1" spans="2:6">
-      <c r="B67" s="6" t="s">
+      <c r="G67" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="H67" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="2:8">
+      <c r="B68" s="6" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="68" customHeight="1" spans="1:8">
-      <c r="A68" s="6" t="s">
+      <c r="F68" s="6" t="s">
         <v>309</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>313</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>118</v>
@@ -3763,22 +3880,22 @@
     </row>
     <row r="69" customHeight="1" spans="1:8">
       <c r="A69" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>319</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>118</v>
@@ -3786,483 +3903,840 @@
     </row>
     <row r="70" customHeight="1" spans="1:8">
       <c r="A70" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="H70" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:8">
+      <c r="A71" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="B71" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="D70" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E70" s="6" t="s">
+      <c r="C71" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="F70" s="6" t="s">
+      <c r="D71" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="E71" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="F71" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="H70" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="71" customHeight="1" spans="2:7">
-      <c r="B71" s="6" t="s">
+      <c r="G71" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="H71" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="3:8">
+      <c r="C72" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="D72" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="F72" s="6" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="72" customHeight="1" spans="2:7">
-      <c r="B72" s="6" t="s">
+      <c r="G72" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C72" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D72" s="6" t="s">
+      <c r="H72" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="1:8">
+      <c r="A73" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="C73" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="D73" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="E73" s="6" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="73" customHeight="1" spans="2:6">
-      <c r="B73" s="6" t="s">
+      <c r="F73" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="G73" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6" t="s">
+      <c r="H73" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="2:8">
+      <c r="B74" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="F73" s="6" t="s">
+      <c r="D74" s="6"/>
+      <c r="G74" s="2" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="74" customHeight="1" spans="1:6">
-      <c r="A74" s="6" t="s">
+      <c r="H74" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:8">
+      <c r="A75" s="6" t="s">
         <v>338</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="75" customHeight="1" spans="1:6">
-      <c r="A75" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>345</v>
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:8">
+      <c r="A76" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="2:8">
+      <c r="B77" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="F75" s="6" t="s">
+      <c r="D77" s="6"/>
+      <c r="G77" s="2" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="76" customHeight="1" spans="1:6">
-      <c r="A76" s="6" t="s">
+      <c r="H77" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="1:8">
+      <c r="A78" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="G78" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="H78" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="2:8">
+      <c r="B79" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6" t="s">
+      <c r="C79" s="6" t="s">
         <v>351</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="77" customHeight="1" spans="1:5">
-      <c r="A77" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="78" customHeight="1" spans="1:5">
-      <c r="A78" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="79" customHeight="1" spans="1:6">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>361</v>
       </c>
       <c r="D79" s="6"/>
       <c r="E79" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="80" customHeight="1" spans="1:6">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>365</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="4:8">
       <c r="D80" s="6"/>
       <c r="E80" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="81" customHeight="1" spans="1:6">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6" t="s">
-        <v>368</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="4:8">
       <c r="D81" s="6"/>
       <c r="E81" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="82" customHeight="1" spans="1:6">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>372</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="4:8">
       <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
       <c r="F82" s="6" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="83" customHeight="1" spans="1:6">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>331</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="4:8">
       <c r="D83" s="6"/>
-      <c r="E83" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="F83" s="6"/>
-    </row>
-    <row r="84" customHeight="1" spans="1:7">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6" t="s">
-        <v>376</v>
-      </c>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="3:8">
       <c r="C84" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>378</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="D84" s="6"/>
       <c r="E84" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="85" customHeight="1" spans="1:7">
-      <c r="A85" s="6"/>
+        <v>364</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="2:8">
       <c r="B85" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6" t="s">
-        <v>383</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="D85" s="6"/>
       <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
       <c r="G85" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="86" customHeight="1" spans="1:7">
-      <c r="A86" s="6"/>
+        <v>366</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="2:8">
       <c r="B86" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="C86" s="6"/>
+        <v>367</v>
+      </c>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
       <c r="G86" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="87" customHeight="1" spans="1:6">
-      <c r="A87" s="6" t="s">
-        <v>387</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="2:8">
       <c r="B87" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="C87" s="6"/>
+        <v>369</v>
+      </c>
       <c r="D87" s="6"/>
-      <c r="E87" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="F87" s="6"/>
-    </row>
-    <row r="88" customHeight="1" spans="1:6">
-      <c r="A88" s="6" t="s">
-        <v>390</v>
-      </c>
+      <c r="E87" s="6"/>
+      <c r="G87" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="2:8">
       <c r="B88" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="C88" s="6"/>
+        <v>371</v>
+      </c>
       <c r="D88" s="6"/>
-      <c r="E88" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="F88" s="6"/>
-    </row>
-    <row r="89" customHeight="1" spans="1:6">
-      <c r="A89" s="6"/>
-      <c r="C89" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="G88" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="2:8">
+      <c r="B89" s="6" t="s">
+        <v>373</v>
+      </c>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-    </row>
-    <row r="90" customHeight="1" spans="1:7">
-      <c r="A90" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>391</v>
-      </c>
+      <c r="G89" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="2:8">
+      <c r="B90" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="D90" s="6"/>
       <c r="G90" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="91" customHeight="1" spans="1:7">
-      <c r="A91" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-    </row>
-    <row r="92" customHeight="1" spans="1:7">
-      <c r="A92" s="6" t="s">
-        <v>395</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="2:8">
+      <c r="B91" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="D91" s="6"/>
+      <c r="G91" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="2:8">
       <c r="B92" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>13</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="D92" s="6"/>
       <c r="G92" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" customHeight="1" spans="1:7">
+        <v>380</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="1:8">
       <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
+      <c r="B93" s="6" t="s">
+        <v>381</v>
+      </c>
       <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6" t="s">
-        <v>398</v>
-      </c>
       <c r="G93" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="94" customHeight="1" spans="1:7">
+        <v>382</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="1:8">
       <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
+      <c r="B94" s="6" t="s">
+        <v>383</v>
+      </c>
       <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6" t="s">
-        <v>400</v>
-      </c>
       <c r="G94" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="95" customHeight="1" spans="1:7">
+        <v>384</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="1:8">
       <c r="A95" s="6"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
+      <c r="B95" s="6" t="s">
+        <v>385</v>
+      </c>
       <c r="D95" s="6"/>
-      <c r="E95" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="F95" s="6"/>
       <c r="G95" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="96" customHeight="1" spans="1:7">
+        <v>386</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="1:8">
       <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
+      <c r="B96" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>388</v>
+      </c>
       <c r="D96" s="6"/>
-      <c r="E96" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="F96" s="6"/>
       <c r="G96" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="97" customHeight="1" spans="1:7">
+        <v>389</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="1:8">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
+      <c r="C97" s="6" t="s">
+        <v>390</v>
+      </c>
       <c r="D97" s="6"/>
       <c r="E97" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="1:8">
+      <c r="A98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="F98" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="1:8">
+      <c r="A99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="F99" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="1:8">
+      <c r="A100" s="6"/>
+      <c r="D100" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="1:8">
+      <c r="A101" s="6"/>
+      <c r="D101" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="F101" s="6"/>
+      <c r="G101" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="F97" s="6"/>
-      <c r="G97" s="2" t="s">
+      <c r="H101" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="1:8">
+      <c r="A102" s="6"/>
+      <c r="C102" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="1:8">
+      <c r="A103" s="6"/>
+      <c r="C103" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="D103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="1:8">
+      <c r="A104" s="6"/>
+      <c r="C104" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="D104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="1:8">
+      <c r="A105" s="6"/>
+      <c r="B105" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="F105" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="1:8">
+      <c r="A106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="F106" s="6"/>
+      <c r="G106" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="1:8">
+      <c r="A107" s="6"/>
+      <c r="B107" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="1:8">
+      <c r="A108" s="6"/>
+      <c r="C108" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="D108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="1:8">
+      <c r="A109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="F109" s="6"/>
+      <c r="G109" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="1:8">
+      <c r="A110" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="F110" s="6"/>
+      <c r="G110" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="111" customHeight="1" spans="1:8">
+      <c r="A111" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="1:8">
+      <c r="A112" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F112" s="6"/>
+      <c r="G112" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="1:8">
+      <c r="A113" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="F113" s="6"/>
+      <c r="H113" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="114" customHeight="1" spans="1:8">
+      <c r="A114" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="115" customHeight="1" spans="1:7">
+      <c r="A115" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+    </row>
+    <row r="116" customHeight="1" spans="1:7">
+      <c r="A116" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" customHeight="1" spans="1:7">
+      <c r="A117" s="6"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="1:7">
+      <c r="A118" s="6"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="119" customHeight="1" spans="1:7">
+      <c r="A119" s="6"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="F119" s="6"/>
+      <c r="G119" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="120" customHeight="1" spans="1:7">
+      <c r="A120" s="6"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="F120" s="6"/>
+      <c r="G120" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="121" customHeight="1" spans="1:7">
+      <c r="A121" s="6"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="F121" s="6"/>
+      <c r="G121" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="98" customHeight="1" spans="1:7">
-      <c r="A98" s="6"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="F98" s="6"/>
-      <c r="G98" s="2" t="s">
+    <row r="122" customHeight="1" spans="1:7">
+      <c r="A122" s="6"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="F122" s="6"/>
+      <c r="G122" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="99" customHeight="1" spans="1:7">
-      <c r="A99" s="6"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="F99" s="6"/>
-      <c r="G99" s="2" t="s">
+    <row r="123" customHeight="1" spans="1:7">
+      <c r="A123" s="6"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="F123" s="6"/>
+      <c r="G123" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="100" customHeight="1" spans="1:7">
-      <c r="A100" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="F100" s="6" t="s">
+    <row r="124" customHeight="1" spans="1:7">
+      <c r="A124" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="F124" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G100" s="2" t="s">
+      <c r="G124" s="2" t="s">
         <v>114</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E68:E81;A74:A90;A68:A70;B70:B88;E41;C68:C70;C72:C77;E83:E90;C82:C90;F51:F70;F73:F76;F79:F90;B30:B35;F37:F39;B44:B49;B66:B67;D42:D49;E44:E55;D30:E39;D68:D90;E57:E66;C46:C49;C40:F40;A44:A66;A3:F28;B37:B39;C30:C34;A92:F100;F30:F35;B53:B64;A30:A41;F44:F49;C38:C39;C51:D66;C44;B51;C79:C80">
+  <conditionalFormatting sqref="F37;B41:F41;A47:A67;D38;F98:F110;A69:A71;D69:D75;D43:D50;A75:A76;D40;C69:C73;B74;E69:E71;A73;E38:E40;F39:F40;A30:A42;C102:C108;E47:E56;F47:F50;B54:B65;B47:C50;E42;E58:E67;B67:B68;E45:F45;B52;B105;E106:E107;E73:F73;B39:C40;A45:C45;C52:D67;B107;E109:E111;F52:F72;B46;F76;A93:A113;B71;B76:D76;A78;E75:E76;B85:B97;C96:C97;E97;C84;F82:F83;C79;F113:F114;B77:B79;A114:E114;A116:F124;C113:E113;C112:F112;D77:D110;E79:E89;B110:C110;D30:E37;C30:C34;B30:B35;F30:F35;A3:F28">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>

--- a/docs/Normalization.xlsx
+++ b/docs/Normalization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8250"/>
+    <workbookView windowWidth="19095" windowHeight="12810"/>
   </bookViews>
   <sheets>
     <sheet name="CNAB 400 - Remittance" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443">
   <si>
     <t>Banco do Brasil</t>
   </si>
@@ -166,6 +166,9 @@
     <t>Dígito Verificador do Prefixo: vide planilha "Capa" deste arquivo</t>
   </si>
   <si>
+    <t>branchDv</t>
+  </si>
+  <si>
     <t>Numero da Conta Corrente: Numero da Conta onde está cadastrado o Convênio Lider do Cedente</t>
   </si>
   <si>
@@ -184,7 +187,7 @@
     <t>DAC</t>
   </si>
   <si>
-    <t>dac</t>
+    <t>accountDv</t>
   </si>
   <si>
     <t>Mensagem 1</t>
@@ -257,6 +260,9 @@
   </si>
   <si>
     <t>Dígito Verificador do Código: vide planilha "Capa" deste arquivo</t>
+  </si>
+  <si>
+    <t>companyCodeDv</t>
   </si>
   <si>
     <t>Nome do Cedente</t>
@@ -375,9 +381,6 @@
   </si>
   <si>
     <t>Identificação do Registro Detalhe: 1 (um)</t>
-  </si>
-  <si>
-    <t>d</t>
   </si>
   <si>
     <t>Tipo de Inscrição do Cedente</t>
@@ -438,6 +441,9 @@
     <t>Conta Corrente: vide planilha "Capa" deste arquivo</t>
   </si>
   <si>
+    <t>dac</t>
+  </si>
+  <si>
     <t>Dígito Verificador da Conta: vide planilha "Capa" deste arquivo</t>
   </si>
   <si>
@@ -476,7 +482,7 @@
   </si>
   <si>
     <t>Identificação do Título
-no Banco</t>
+no Banco com DV</t>
   </si>
   <si>
     <t>Nosso numero</t>
@@ -580,15 +586,6 @@
     <t>occurrenceCode</t>
   </si>
   <si>
-    <t>Nº do Documento</t>
-  </si>
-  <si>
-    <t>num documento</t>
-  </si>
-  <si>
-    <t>documentNumber</t>
-  </si>
-  <si>
     <t>Dava de Vencimento</t>
   </si>
   <si>
@@ -676,6 +673,9 @@
   </si>
   <si>
     <t>Digito Verificador do Prefixo da Agência Cobradora: "Branco"</t>
+  </si>
+  <si>
+    <t>receiveBranchDv</t>
   </si>
   <si>
     <t>Espécie do Titulo</t>
@@ -1133,6 +1133,9 @@
     <t>Seu Número/Número do Titular Atribuido pelo Cedente</t>
   </si>
   <si>
+    <t>Nº do Documento</t>
+  </si>
+  <si>
     <t>Seu numero</t>
   </si>
   <si>
@@ -1146,13 +1149,6 @@
   </si>
   <si>
     <t>yourNumber</t>
-  </si>
-  <si>
-    <t>Digito de Auto Conferencia do Número
-Bancário.</t>
-  </si>
-  <si>
-    <t>ourNumberDv</t>
   </si>
   <si>
     <t>Tipo de Cobrança</t>
@@ -1217,7 +1213,7 @@
 para Débito Automático</t>
   </si>
   <si>
-    <t>ddaEmission</t>
+    <t>ddaEmissionFlag</t>
   </si>
   <si>
     <t>Identificação da
@@ -1282,7 +1278,7 @@
 (opcional)</t>
   </si>
   <si>
-    <t>ddaNoticeAddressing</t>
+    <t>ddaNoticeAddressingFlag</t>
   </si>
   <si>
     <t>Identificação</t>
@@ -1475,9 +1471,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -1527,14 +1523,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1544,7 +1532,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1574,8 +1570,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1597,29 +1602,26 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1634,23 +1636,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1689,43 +1685,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1743,31 +1739,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1779,55 +1835,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1839,37 +1853,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1892,17 +1888,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1954,6 +1944,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1962,159 +1976,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2123,7 +2119,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2482,15 +2478,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:G122"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G105" sqref="G105"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="28.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.375" style="1" customWidth="1"/>
@@ -2682,38 +2678,40 @@
         <v>48</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A10" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A11" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -2723,10 +2721,10 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -2736,10 +2734,10 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -2749,10 +2747,10 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -2762,10 +2760,10 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -2775,10 +2773,10 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -2788,10 +2786,10 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -2801,55 +2799,55 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A19" s="6"/>
       <c r="B19" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A20" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A21" s="6"/>
       <c r="B21" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -2858,150 +2856,152 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="23" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A23" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A24" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E24" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="G24" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A25" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="F25" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A26" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="G26" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:7">
       <c r="A27" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:7">
       <c r="A28" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:7">
       <c r="A29" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -3010,9 +3010,9 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" customHeight="1" spans="1:8">
+    <row r="30" customHeight="1" spans="1:7">
       <c r="A30" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>9</v>
@@ -3024,7 +3024,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>13</v>
@@ -3032,64 +3032,55 @@
       <c r="G30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:8">
+    </row>
+    <row r="31" customHeight="1" spans="1:7">
       <c r="A31" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:8">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:7">
       <c r="A32" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:7">
       <c r="A33" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>42</v>
@@ -3101,18 +3092,15 @@
         <v>44</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:8">
+    </row>
+    <row r="34" customHeight="1" spans="1:7">
       <c r="A34" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -3121,1504 +3109,1278 @@
         <v>48</v>
       </c>
       <c r="F34" s="6"/>
-      <c r="H34" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:8">
+      <c r="G34" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:7">
       <c r="A35" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:7">
+      <c r="A36" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:8">
-      <c r="A36" s="6" t="s">
-        <v>132</v>
-      </c>
       <c r="D36" s="6" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:7">
       <c r="A37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:7">
       <c r="A38" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:7">
       <c r="A39" s="6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="1:8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:7">
       <c r="A40" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:8">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:7">
       <c r="A41" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:7">
       <c r="A42" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="4:8">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="4:7">
       <c r="D43" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="4:8">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="4:7">
       <c r="D44" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:7">
       <c r="A45" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="2:8">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:7">
+      <c r="A46" s="6" t="s">
+        <v>178</v>
+      </c>
       <c r="B46" s="6" t="s">
-        <v>176</v>
+        <v>179</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>177</v>
+        <v>181</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>183</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="1:8">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:7">
       <c r="A47" s="6" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="1:8">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:7">
       <c r="A48" s="6" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="1:8">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:7">
       <c r="A49" s="6" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>197</v>
+        <v>44</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="1:8">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:7">
       <c r="A50" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>204</v>
+        <v>48</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="1:8">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:7">
       <c r="A51" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>210</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="1:8">
+        <v>211</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:7">
       <c r="A52" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="1:8">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:7">
       <c r="A53" s="6" t="s">
-        <v>214</v>
+        <v>220</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>221</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="1:8">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:7">
       <c r="A54" s="6" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" spans="1:8">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:7">
       <c r="A55" s="6" t="s">
         <v>227</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" spans="1:8">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:7">
       <c r="A56" s="6" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="57" customHeight="1" spans="1:8">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:7">
       <c r="A57" s="6" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>243</v>
+        <v>249</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="1:8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:7">
       <c r="A58" s="6" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="59" customHeight="1" spans="1:8">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:7">
       <c r="A59" s="6" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>256</v>
+        <v>262</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>263</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="60" customHeight="1" spans="1:8">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:7">
       <c r="A60" s="6" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>263</v>
+        <v>269</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>270</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="61" customHeight="1" spans="1:8">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:7">
       <c r="A61" s="6" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>268</v>
+        <v>121</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="62" customHeight="1" spans="1:8">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:7">
       <c r="A62" s="6" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="63" customHeight="1" spans="1:8">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:7">
       <c r="A63" s="6" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>125</v>
+        <v>287</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="64" customHeight="1" spans="1:8">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:7">
       <c r="A64" s="6" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="65" customHeight="1" spans="1:8">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:7">
       <c r="A65" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="66" customHeight="1" spans="1:8">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:7">
       <c r="A66" s="6" t="s">
-        <v>298</v>
+        <v>303</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>304</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="67" customHeight="1" spans="1:8">
-      <c r="A67" s="6" t="s">
-        <v>303</v>
-      </c>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="2:6">
       <c r="B67" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="68" customHeight="1" spans="2:8">
-      <c r="B68" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:7">
+      <c r="A68" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>312</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="69" customHeight="1" spans="1:8">
+        <v>313</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:7">
       <c r="A69" s="6" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="70" customHeight="1" spans="1:8">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:7">
       <c r="A70" s="6" t="s">
-        <v>315</v>
+        <v>321</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>322</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="71" customHeight="1" spans="1:8">
-      <c r="A71" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>322</v>
-      </c>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="3:7">
       <c r="C71" s="6" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="72" customHeight="1" spans="3:8">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:7">
+      <c r="A72" s="6" t="s">
+        <v>331</v>
+      </c>
       <c r="C72" s="6" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>328</v>
+        <v>332</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>333</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="73" customHeight="1" spans="1:8">
-      <c r="A73" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>334</v>
-      </c>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="2:7">
+      <c r="B73" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D73" s="6"/>
       <c r="G73" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="74" customHeight="1" spans="2:8">
-      <c r="B74" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:7">
+      <c r="A74" s="6" t="s">
+        <v>338</v>
       </c>
       <c r="D74" s="6"/>
+      <c r="E74" s="6" t="s">
+        <v>338</v>
+      </c>
       <c r="G74" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="75" customHeight="1" spans="1:8">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:7">
       <c r="A75" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="D75" s="6"/>
+        <v>340</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>343</v>
+      </c>
       <c r="E75" s="6" t="s">
-        <v>338</v>
+        <v>344</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>345</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="76" customHeight="1" spans="1:8">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:7">
       <c r="A76" s="6" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="B76" s="6"/>
-      <c r="C76" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>344</v>
-      </c>
+      <c r="D76" s="6"/>
       <c r="G76" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="77" customHeight="1" spans="2:8">
-      <c r="B77" s="6" t="s">
-        <v>346</v>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="2:7">
+      <c r="B77" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>350</v>
       </c>
       <c r="D77" s="6"/>
+      <c r="E77" s="6" t="s">
+        <v>351</v>
+      </c>
       <c r="G77" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="78" customHeight="1" spans="1:8">
-      <c r="A78" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="B78" s="6"/>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="4:7">
       <c r="D78" s="6"/>
+      <c r="E78" s="6" t="s">
+        <v>353</v>
+      </c>
       <c r="G78" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="79" customHeight="1" spans="2:8">
-      <c r="B79" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>351</v>
-      </c>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="4:7">
       <c r="D79" s="6"/>
       <c r="E79" s="6" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="80" customHeight="1" spans="4:8">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="4:7">
       <c r="D80" s="6"/>
-      <c r="E80" s="6" t="s">
-        <v>354</v>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6" t="s">
+        <v>357</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="81" customHeight="1" spans="4:8">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="4:7">
       <c r="D81" s="6"/>
-      <c r="E81" s="6" t="s">
-        <v>356</v>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6" t="s">
+        <v>359</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="82" customHeight="1" spans="4:8">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="3:7">
+      <c r="C82" s="6" t="s">
+        <v>361</v>
+      </c>
       <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6" t="s">
-        <v>358</v>
+      <c r="E82" s="6" t="s">
+        <v>362</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="83" customHeight="1" spans="4:8">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="2:7">
+      <c r="B83" s="6" t="s">
+        <v>364</v>
+      </c>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
-      <c r="F83" s="6" t="s">
-        <v>360</v>
-      </c>
       <c r="G83" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="84" customHeight="1" spans="3:8">
-      <c r="C84" s="6" t="s">
-        <v>362</v>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="2:7">
+      <c r="B84" s="6" t="s">
+        <v>366</v>
       </c>
       <c r="D84" s="6"/>
-      <c r="E84" s="6" t="s">
-        <v>363</v>
-      </c>
+      <c r="E84" s="6"/>
       <c r="G84" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="85" customHeight="1" spans="2:8">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="2:7">
       <c r="B85" s="6" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="G85" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="86" customHeight="1" spans="2:8">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="2:7">
       <c r="B86" s="6" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
       <c r="G86" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="87" customHeight="1" spans="2:8">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="2:7">
       <c r="B87" s="6" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
       <c r="G87" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="88" customHeight="1" spans="2:8">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="2:7">
       <c r="B88" s="6" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
       <c r="G88" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="89" customHeight="1" spans="2:8">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="2:7">
       <c r="B89" s="6" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
       <c r="G89" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="90" customHeight="1" spans="2:8">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="2:7">
       <c r="B90" s="6" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D90" s="6"/>
       <c r="G90" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="91" customHeight="1" spans="2:8">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="1:7">
+      <c r="A91" s="6"/>
       <c r="B91" s="6" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D91" s="6"/>
       <c r="G91" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="92" customHeight="1" spans="2:8">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="1:7">
+      <c r="A92" s="6"/>
       <c r="B92" s="6" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D92" s="6"/>
       <c r="G92" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="93" customHeight="1" spans="1:8">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="1:7">
       <c r="A93" s="6"/>
       <c r="B93" s="6" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D93" s="6"/>
       <c r="G93" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="94" customHeight="1" spans="1:8">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="1:7">
       <c r="A94" s="6"/>
       <c r="B94" s="6" t="s">
-        <v>383</v>
+        <v>386</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>387</v>
       </c>
       <c r="D94" s="6"/>
       <c r="G94" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="95" customHeight="1" spans="1:8">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="1:7">
       <c r="A95" s="6"/>
-      <c r="B95" s="6" t="s">
-        <v>385</v>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6" t="s">
+        <v>389</v>
       </c>
       <c r="D95" s="6"/>
+      <c r="E95" s="6" t="s">
+        <v>390</v>
+      </c>
       <c r="G95" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="96" customHeight="1" spans="1:8">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="1:7">
       <c r="A96" s="6"/>
-      <c r="B96" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>388</v>
-      </c>
       <c r="D96" s="6"/>
+      <c r="F96" s="6" t="s">
+        <v>392</v>
+      </c>
       <c r="G96" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="97" customHeight="1" spans="1:8">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="1:7">
       <c r="A97" s="6"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6" t="s">
-        <v>390</v>
-      </c>
       <c r="D97" s="6"/>
-      <c r="E97" s="6" t="s">
-        <v>391</v>
+      <c r="F97" s="6" t="s">
+        <v>394</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="98" customHeight="1" spans="1:8">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="1:7">
       <c r="A98" s="6"/>
-      <c r="D98" s="6"/>
+      <c r="D98" s="6" t="s">
+        <v>396</v>
+      </c>
       <c r="F98" s="6" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="99" customHeight="1" spans="1:8">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="1:7">
       <c r="A99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="F99" s="6" t="s">
-        <v>395</v>
-      </c>
+      <c r="D99" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="F99" s="6"/>
       <c r="G99" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="100" customHeight="1" spans="1:8">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="1:7">
       <c r="A100" s="6"/>
-      <c r="D100" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>398</v>
-      </c>
+      <c r="C100" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D100" s="6"/>
+      <c r="F100" s="6"/>
       <c r="G100" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="101" customHeight="1" spans="1:8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="1:7">
       <c r="A101" s="6"/>
-      <c r="D101" s="6" t="s">
-        <v>400</v>
-      </c>
+      <c r="C101" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="D101" s="6"/>
       <c r="F101" s="6"/>
       <c r="G101" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="102" customHeight="1" spans="1:8">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="1:7">
       <c r="A102" s="6"/>
       <c r="C102" s="6" t="s">
-        <v>76</v>
+        <v>403</v>
       </c>
       <c r="D102" s="6"/>
       <c r="F102" s="6"/>
       <c r="G102" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="103" customHeight="1" spans="1:8">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="1:7">
       <c r="A103" s="6"/>
-      <c r="C103" s="6" t="s">
-        <v>402</v>
-      </c>
+      <c r="B103" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C103" s="6"/>
       <c r="D103" s="6"/>
-      <c r="F103" s="6"/>
+      <c r="F103" s="6" t="s">
+        <v>406</v>
+      </c>
       <c r="G103" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="104" customHeight="1" spans="1:8">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="1:7">
       <c r="A104" s="6"/>
-      <c r="C104" s="6" t="s">
-        <v>404</v>
-      </c>
+      <c r="C104" s="6"/>
       <c r="D104" s="6"/>
+      <c r="E104" s="6" t="s">
+        <v>408</v>
+      </c>
       <c r="F104" s="6"/>
       <c r="G104" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="105" customHeight="1" spans="1:8">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="1:7">
       <c r="A105" s="6"/>
       <c r="B105" s="6" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
+      <c r="E105" s="6" t="s">
+        <v>411</v>
+      </c>
       <c r="F105" s="6" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="106" customHeight="1" spans="1:8">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="1:7">
       <c r="A106" s="6"/>
-      <c r="C106" s="6"/>
+      <c r="C106" s="6" t="s">
+        <v>414</v>
+      </c>
       <c r="D106" s="6"/>
-      <c r="E106" s="6" t="s">
-        <v>409</v>
-      </c>
       <c r="F106" s="6"/>
       <c r="G106" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="107" customHeight="1" spans="1:8">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="1:7">
       <c r="A107" s="6"/>
-      <c r="B107" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="C107" s="6"/>
       <c r="D107" s="6"/>
       <c r="E107" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="F107" s="6" t="s">
-        <v>413</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="F107" s="6"/>
       <c r="G107" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="108" customHeight="1" spans="1:8">
-      <c r="A108" s="6"/>
-      <c r="C108" s="6" t="s">
-        <v>415</v>
-      </c>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="1:7">
+      <c r="A108" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
       <c r="D108" s="6"/>
+      <c r="E108" s="6" t="s">
+        <v>419</v>
+      </c>
       <c r="F108" s="6"/>
       <c r="G108" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="109" customHeight="1" spans="1:8">
-      <c r="A109" s="6"/>
-      <c r="D109" s="6"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="1:7">
+      <c r="A109" s="6" t="s">
+        <v>421</v>
+      </c>
       <c r="E109" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="F109" s="6"/>
+        <v>422</v>
+      </c>
       <c r="G109" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="110" customHeight="1" spans="1:8">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="1:7">
       <c r="A110" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="B110" s="6"/>
+        <v>424</v>
+      </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
       <c r="E110" s="6" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="F110" s="6"/>
       <c r="G110" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="111" customHeight="1" spans="1:8">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="111" customHeight="1" spans="1:6">
       <c r="A111" s="6" t="s">
-        <v>422</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
       <c r="E111" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="112" customHeight="1" spans="1:8">
+        <v>428</v>
+      </c>
+      <c r="F111" s="6"/>
+    </row>
+    <row r="112" customHeight="1" spans="1:7">
       <c r="A112" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
+        <v>429</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>430</v>
+      </c>
       <c r="E112" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="F112" s="6"/>
+        <v>430</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>430</v>
+      </c>
       <c r="G112" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="113" customHeight="1" spans="1:8">
-      <c r="A113" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="F113" s="6"/>
-      <c r="H113" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="114" customHeight="1" spans="1:8">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="1:7">
+      <c r="A113" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+    </row>
+    <row r="114" customHeight="1" spans="1:7">
       <c r="A114" s="6" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>431</v>
+        <v>10</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>431</v>
+        <v>10</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>431</v>
+        <v>13</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="1:7">
-      <c r="A115" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="5"/>
+      <c r="A115" s="6"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="116" customHeight="1" spans="1:7">
-      <c r="A116" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>435</v>
-      </c>
+      <c r="A116" s="6"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
       <c r="F116" s="6" t="s">
-        <v>13</v>
+        <v>437</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>14</v>
+        <v>191</v>
       </c>
     </row>
     <row r="117" customHeight="1" spans="1:7">
@@ -4626,12 +4388,12 @@
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6" t="s">
-        <v>436</v>
-      </c>
+      <c r="E117" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="F117" s="6"/>
       <c r="G117" s="2" t="s">
-        <v>437</v>
+        <v>58</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="1:7">
@@ -4639,12 +4401,12 @@
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6" t="s">
+      <c r="E118" s="6" t="s">
         <v>438</v>
       </c>
+      <c r="F118" s="6"/>
       <c r="G118" s="2" t="s">
-        <v>192</v>
+        <v>60</v>
       </c>
     </row>
     <row r="119" customHeight="1" spans="1:7">
@@ -4653,11 +4415,11 @@
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
       <c r="E119" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F119" s="6"/>
       <c r="G119" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="120" customHeight="1" spans="1:7">
@@ -4666,11 +4428,11 @@
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
       <c r="E120" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F120" s="6"/>
       <c r="G120" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="121" customHeight="1" spans="1:7">
@@ -4679,64 +4441,38 @@
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
       <c r="E121" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F121" s="6"/>
       <c r="G121" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="122" customHeight="1" spans="1:7">
-      <c r="A122" s="6"/>
-      <c r="B122" s="6"/>
-      <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
+      <c r="A122" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>441</v>
+      </c>
       <c r="E122" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="F122" s="6"/>
+        <v>442</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="G122" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="123" customHeight="1" spans="1:7">
-      <c r="A123" s="6"/>
-      <c r="B123" s="6"/>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="F123" s="6"/>
-      <c r="G123" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="124" customHeight="1" spans="1:7">
-      <c r="A124" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="E124" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="F124" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F37;B41:F41;A47:A67;D38;F98:F110;A69:A71;D69:D75;D43:D50;A75:A76;D40;C69:C73;B74;E69:E71;A73;E38:E40;F39:F40;A30:A42;C102:C108;E47:E56;F47:F50;B54:B65;B47:C50;E42;E58:E67;B67:B68;E45:F45;B52;B105;E106:E107;E73:F73;B39:C40;A45:C45;C52:D67;B107;E109:E111;F52:F72;B46;F76;A93:A113;B71;B76:D76;A78;E75:E76;B85:B97;C96:C97;E97;C84;F82:F83;C79;F113:F114;B77:B79;A114:E114;A116:F124;C113:E113;C112:F112;D77:D110;E79:E89;B110:C110;D30:E37;C30:C34;B30:B35;F30:F35;A3:F28">
+  <conditionalFormatting sqref="B75:B77;C75:D75;F75;B70;F51:F71;E74:E75;F96:F108;C51:D66;C100:C106;B103;E72:F72;E104:E105;B105;B51;E107:E109;B66:B67;E57:E66;B108:C108;B46:D49;B53:B64;F46:F49;E46:E55;E77:E87;D76:D108;C110:F110;C111:E111;A72;E68:E70;B73;C68:C72;A114:F122;A112:E112;D68:D74;A68:A70;F111:F112;C77;A46:A66;F80:F81;C82;A74:A76;A91:A111;B83:B95;C94:C95;E95;D30:E37;A45:C45;B39:C40;C30:C34;B30:B35;E45:F45;E42;F30:F35;A30:A42;F39:F40;E38:E40;D40;D43:D45;A3:F28;D38;B41:F41;F37">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>

--- a/docs/Normalization.xlsx
+++ b/docs/Normalization.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441">
   <si>
     <t>Banco do Brasil</t>
   </si>
@@ -1412,12 +1412,6 @@
   </si>
   <si>
     <t>parcel</t>
-  </si>
-  <si>
-    <t>Grupo de Valor : "00"</t>
-  </si>
-  <si>
-    <t>Grupo de Valor: "00"</t>
   </si>
   <si>
     <t>Sequencial de Registro</t>
@@ -2478,12 +2472,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G122"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" customHeight="1" outlineLevelCol="6"/>
@@ -4289,72 +4283,74 @@
         <v>426</v>
       </c>
     </row>
-    <row r="111" customHeight="1" spans="1:6">
+    <row r="111" customHeight="1" spans="1:7">
       <c r="A111" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
+      <c r="B111" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>428</v>
+      </c>
       <c r="E111" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="F111" s="6"/>
+      <c r="F111" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="112" customHeight="1" spans="1:7">
-      <c r="A112" s="6" t="s">
+      <c r="A112" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+    </row>
+    <row r="113" customHeight="1" spans="1:7">
+      <c r="A113" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="C112" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="E112" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="F112" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="113" customHeight="1" spans="1:7">
-      <c r="A113" s="4" t="s">
+      <c r="B113" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
+      <c r="C113" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="114" customHeight="1" spans="1:7">
-      <c r="A114" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="B114" s="6" t="s">
+      <c r="A114" s="6"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="C114" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E114" s="6" t="s">
+      <c r="G114" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="F114" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="1:7">
@@ -4367,7 +4363,7 @@
         <v>435</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>436</v>
+        <v>191</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="1:7">
@@ -4375,12 +4371,12 @@
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6" t="s">
-        <v>437</v>
-      </c>
+      <c r="E116" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="F116" s="6"/>
       <c r="G116" s="2" t="s">
-        <v>191</v>
+        <v>58</v>
       </c>
     </row>
     <row r="117" customHeight="1" spans="1:7">
@@ -4389,11 +4385,11 @@
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
       <c r="E117" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F117" s="6"/>
       <c r="G117" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="1:7">
@@ -4402,11 +4398,11 @@
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
       <c r="E118" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F118" s="6"/>
       <c r="G118" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="119" customHeight="1" spans="1:7">
@@ -4415,11 +4411,11 @@
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
       <c r="E119" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F119" s="6"/>
       <c r="G119" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="120" customHeight="1" spans="1:7">
@@ -4428,51 +4424,38 @@
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
       <c r="E120" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F120" s="6"/>
       <c r="G120" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="121" customHeight="1" spans="1:7">
-      <c r="A121" s="6"/>
-      <c r="B121" s="6"/>
-      <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
+      <c r="A121" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>439</v>
+      </c>
       <c r="E121" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="F121" s="6"/>
+        <v>440</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="G121" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="122" customHeight="1" spans="1:7">
-      <c r="A122" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="F122" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G122" s="2" t="s">
         <v>116</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B75:B77;C75:D75;F75;B70;F51:F71;E74:E75;F96:F108;C51:D66;C100:C106;B103;E72:F72;E104:E105;B105;B51;E107:E109;B66:B67;E57:E66;B108:C108;B46:D49;B53:B64;F46:F49;E46:E55;E77:E87;D76:D108;C110:F110;C111:E111;A72;E68:E70;B73;C68:C72;A114:F122;A112:E112;D68:D74;A68:A70;F111:F112;C77;A46:A66;F80:F81;C82;A74:A76;A91:A111;B83:B95;C94:C95;E95;D30:E37;A45:C45;B39:C40;C30:C34;B30:B35;E45:F45;E42;F30:F35;A30:A42;F39:F40;E38:E40;D40;D43:D45;A3:F28;D38;B41:F41;F37">
+  <conditionalFormatting sqref="A113:F121;A111:F111;B75:B77;C75:D75;F75;B70;F51:F71;E74:E75;F96:F108;C51:D66;C100:C106;B103;E72:F72;E104:E105;B105;B51;E107:E109;B66:B67;E57:E66;B108:C108;B46:D49;B53:B64;F46:F49;E46:E55;E77:E87;D76:D108;C110:F110;F37;A72;E68:E70;B73;C68:C72;B41:F41;D38;D68:D74;A68:A70;A3:F28;D43:D45;C77;A46:A66;F80:F81;C82;A74:A76;A91:A110;D40;B83:B95;C94:C95;E95;D30:E37;A45:C45;B39:C40;C30:C34;B30:B35;E45:F45;E42;F30:F35;A30:A42;F39:F40;E38:E40">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>

--- a/docs/Normalization.xlsx
+++ b/docs/Normalization.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8250" activeTab="1"/>
+    <workbookView windowWidth="19095" windowHeight="12810" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CNAB 400 - Remittance" sheetId="1" r:id="rId1"/>
-    <sheet name="CNAB 400 - Return" sheetId="2" r:id="rId2"/>
+    <sheet name="CNAB 400 - Occurrence Codes" sheetId="2" r:id="rId2"/>
+    <sheet name="CNAB 400 - Return" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908">
   <si>
     <t>Banco do Brasil</t>
   </si>
@@ -1460,6 +1461,574 @@
     <t xml:space="preserve">Seqüencial do Registro: Incrementado em 1 a cada registro </t>
   </si>
   <si>
+    <t>Dependencies</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>01 - Registro de títulos</t>
+  </si>
+  <si>
+    <t>02 - Solicitação de baixa</t>
+  </si>
+  <si>
+    <t>03 - Pedido de débito em conta</t>
+  </si>
+  <si>
+    <t>04 - Concessão de abatimento</t>
+  </si>
+  <si>
+    <t>05 - Cancelamento de abatimento</t>
+  </si>
+  <si>
+    <t>06 - Alteração de vencimento de título</t>
+  </si>
+  <si>
+    <t>07 - Alteração do número de controle do participante</t>
+  </si>
+  <si>
+    <t>08 - Alteração do número do titulo dado pelo cedente</t>
+  </si>
+  <si>
+    <t>09 - Instrução para protestar (Nota 09)</t>
+  </si>
+  <si>
+    <t>Instrução codificada</t>
+  </si>
+  <si>
+    <t>c) Para Comando “09” – Instrução para Protestar (posição 109-110)
+- 00 - O Sistema de Cobrança do Banco assumirá o prazo de protesto de 5 (cinco) dias úteis
+- 03 - Protestar no 3o dia útil após vencido
+- 04 - Protestar no 4o dia útil após vencido
+- 05 - Protestar no 5o dia útil após vencido
+- 06 a 30 - Protestar no XX dia corridos após vencido
+- 10 - Protestar no 10o dia corrido após vencido
+- 15 - Protestar no 15o dia corrido após vencido
+- 20 - Protestar no 20o dia corrido após vencido
+- 25 - Protestar no 25o dia corrido após vencido
+- 30 - Protestar no 30o dia corrido após vencido
+- 35 - Protestar no 35o dia corrido após vencido
+- 40 - Protestar no 40o dia corrido após vencido
+- 45 - Protestar no 45o dia corrido após vencido</t>
+  </si>
+  <si>
+    <t>10 - Instrução para sustar protesto</t>
+  </si>
+  <si>
+    <t>11 - Instrução para dispensar juros</t>
+  </si>
+  <si>
+    <t>12 - Alteração de nome e endereço do Sacado</t>
+  </si>
+  <si>
+    <t>16 – Alterar Juros de Mora (Vide Observações)</t>
+  </si>
+  <si>
+    <t>174 a 174 Cod Juros, 175 a 180 zeros, 181 a 192 Vlr-Per-Juros</t>
+  </si>
+  <si>
+    <t>a) preencher as posições 174 a 192, conforme indicado na Nota 11:
+e) Quando o campo “Comando” (21.7) for igual “16” – Alterar Juros de Mora:
+Posição          Campo           Conteúdo
+174 a 174       Cod Juros       1 – Valor
+                                           2 – Percentual
+175 a 180       Zeros            Informar zeros.
+181 a 192       Vlr-Per-Juros   Para Cód. Juros "1", informar valor da multa.
+                                          Para Cód Juros "2”, informar percentual com dois inteiros e três decimais</t>
+  </si>
+  <si>
+    <t>31 - Conceder desconto</t>
+  </si>
+  <si>
+    <t>32 - Não conceder desconto</t>
+  </si>
+  <si>
+    <t>33 - Retificar dados da concessão de desconto</t>
+  </si>
+  <si>
+    <t>34 - Alterar data para concessão de desconto</t>
+  </si>
+  <si>
+    <t>35 - Cobrar multa (Nota 11)</t>
+  </si>
+  <si>
+    <t>174 a 174 Código da Multa, 175 a 180 Data de inicio para Cobrança da Multa, 181 a 192 Valor/Percentual de Multa</t>
+  </si>
+  <si>
+    <t>c) Quando o campo “Comando” (21. 7 ) for igual “35” – Cobrar Multa – ou “36” - Dispensar Multa:
+Posição         Conteúdo
+174 a 174       Código da Multa
+                     “1” = Valor
+                     “2” = Percentual
+                     “9” = Dispensar Multa
+175 a 180       Data de inicio para Cobrança da Multa
+                      Informar a data a ser observada pelo Banco para início da cobrança do valor/percentual de multa, no formato “DDMMAA”, quando o campo “Código da Multa” for igual a “1” ou “2” Preencher com zeros quando o campo “Código Multa” for igual a”9”.
+181 a 192       Valor/Percentual de Multa
+                      Informar o valor da multa, com duas casas decimais, quando o campo Código da Multa for igual “1”;
+                      Informar percentual, com duas casas decimais, quando o campo “Código da Multa” for igual a “2”;
+                      Preencher com zeros quando o campo “ Código da Multa” for igual a “9”.</t>
+  </si>
+  <si>
+    <t>36 - Dispensar multa (Nota 11)</t>
+  </si>
+  <si>
+    <t>37 - Dispensar indexador</t>
+  </si>
+  <si>
+    <t>38 - Dispensar prazo limite de recebimento (Nota 11)</t>
+  </si>
+  <si>
+    <t>174 a 176 Prazo Limite para Recebimento de Título Vencido, 177 a 192 Preencher com Zeros</t>
+  </si>
+  <si>
+    <t>d) Quando o campo “Comando” (21.7) for igual “38” ou “39”:
+Posição         Conteúdo
+174 a 176       Prazo Limite para Recebimento de Título Vencido
+                      - Código/Comando de Remessa for igual “38”, informar zeros;
+                      - Código/Comando de Remessa for igual “39”, informar a quantidade de dias após o vencimento do título a ser observado pelo Banco para recebimento dos boletos de cobrança vencidos. Após o período determinado, o boleto somente poderá ser liquidado junto a própria empresa.
+177 a 192       Preencher com Zeros</t>
+  </si>
+  <si>
+    <t>39 - Alterar prazo limite de recebimento (Nota 11)</t>
+  </si>
+  <si>
+    <t>40 – Alterar modalidade (Vide Observações)</t>
+  </si>
+  <si>
+    <t>Tipo de Cobrança - posição 102 a 106</t>
+  </si>
+  <si>
+    <t>a) válida para as Carteiras 11 e 17,para alterar o título da Cobrança Simples para
+Cobrança Descontada ou Vinculada ou da Cobrança Descontada ou Vinculada para
+Cobrança Simples;
+b) a modalidade de Cobrança para a qual se destina a alteração deve ser informada no
+campo "Tipo de Cobrança" - posição 102 a 106.
+c) a efetivação dessa instrução, após o seu processamento pelo Sistema do Banco, depende
+de liberação da agência de relacionamento com a empresa cedente.</t>
+  </si>
+  <si>
+    <t>01..Remessa</t>
+  </si>
+  <si>
+    <t>02..Pedido de baixa</t>
+  </si>
+  <si>
+    <t>03..Pedido de Protesto Falimentar</t>
+  </si>
+  <si>
+    <t>04..Concessão de abatimento</t>
+  </si>
+  <si>
+    <t>05..Cancelamento de abatimento concedido</t>
+  </si>
+  <si>
+    <t>06..Alteração de vencimento</t>
+  </si>
+  <si>
+    <t>07..Alteração do controle do participante</t>
+  </si>
+  <si>
+    <t>08..Alteração de seu número</t>
+  </si>
+  <si>
+    <t>09..Pedido de protesto</t>
+  </si>
+  <si>
+    <t>18..Sustar protesto e baixar Título</t>
+  </si>
+  <si>
+    <t>19..Sustar protesto e manter em carteira</t>
+  </si>
+  <si>
+    <t>22..Transferência Cessão crédito ID. Prod.10</t>
+  </si>
+  <si>
+    <t>23..Transferência entre Carteiras</t>
+  </si>
+  <si>
+    <t>24..Dev. Transferência entre Carteiras</t>
+  </si>
+  <si>
+    <t>31..Alteração de outros dados</t>
+  </si>
+  <si>
+    <t>157 a 160 = 9999 para cancelamento de protesto</t>
+  </si>
+  <si>
+    <t>68..Acerto nos dados do rateio de Crédito</t>
+  </si>
+  <si>
+    <t>69..Cancelamento do rateio de crédito.</t>
+  </si>
+  <si>
+    <t>01 Entrada de Título Obs. 1</t>
+  </si>
+  <si>
+    <t>1. Registros Tipo 0, 1 e 9, com todos os campos devidamente preenchidos, conforme suas definições.</t>
+  </si>
+  <si>
+    <t>02 Pedido de Baixa Obs. 2</t>
+  </si>
+  <si>
+    <t>Código do Registro, Código da Empresa, Nosso Número, Código da Carteira, Valor do Título</t>
+  </si>
+  <si>
+    <t>2. Registros Tipo 0 e 9, com todos os campos devidamente preenchidos, conforme suas definições.
+O registro Tipo 1, contem as seguintes informações:
+Código do Registro
+Código da Empresa
+Nosso Número
+Código da Carteira
+Valor do Título</t>
+  </si>
+  <si>
+    <t>03 Concessão de Abatimento Obs. 2 e 3</t>
+  </si>
+  <si>
+    <t>Código do Registro, Código da Empresa, Nosso Número, Código da Carteira, Valor do Título, Valor do Abatimento</t>
+  </si>
+  <si>
+    <t>SAME 02
+3. Registro Tipo 1, com campo Valor do Abatimento a conceder ou cancelar, diferente de zeros.</t>
+  </si>
+  <si>
+    <t>04 Cancelamento de Abatimento Obs. 2 e 3</t>
+  </si>
+  <si>
+    <t>SAME 03</t>
+  </si>
+  <si>
+    <t>05 Alteração de Vencimento Obs. 2 e 4</t>
+  </si>
+  <si>
+    <t>Código do Registro, Código da Empresa, Nosso Número, Código da Carteira, Valor do Título, Data de Vencimento</t>
+  </si>
+  <si>
+    <t>SAME 02
+4. Registro Tipo 1, com campo Data de Vencimento, válido.</t>
+  </si>
+  <si>
+    <t>06 Alteração do uso da Empresa Obs. 2 e 5</t>
+  </si>
+  <si>
+    <t>Código do Registro, Código da Empresa, Nosso Número, Código da Carteira, Valor do Título, Uso da Empresa</t>
+  </si>
+  <si>
+    <t>SAME 02
+5. Registro Tipo 1, com campo Uso da Empresa, diferente de brancos.</t>
+  </si>
+  <si>
+    <t>07 Alteração do Prazo de Protesto Obs. 2 e 6</t>
+  </si>
+  <si>
+    <t>Código do Registro, Código da Empresa, Nosso Número, Código da Carteira, Valor do Título, Prazo de Protesto, ou Devolução</t>
+  </si>
+  <si>
+    <t>SAME 02
+6. Registro Tipo 1, com campo Prazo de Protesto, ou Devolução, conforme o caso, válido.</t>
+  </si>
+  <si>
+    <t>08 Alteração do Prazo de Devolução Obs. 2 e 6</t>
+  </si>
+  <si>
+    <t>SAME 07</t>
+  </si>
+  <si>
+    <t>09 Alteração de outros dados Obs. 2 e 7</t>
+  </si>
+  <si>
+    <t>SAME 02
+a) Os seguintes campos do registro Tipo 1, são passíveis de alteração:
+- (N) Taxa de Permanência                   (X)= alfanumérico
+- (X) Uso da Empresa                        (N)= numérico
+- (X) Mensagem
+- (X) Seu Número
+- (N) Data de Vencimento
+- (N) Data de Emissão
+- (N) Instrução Nro. 2
+- (N) Juros de 1dia
+- (N) Data do Desconto
+- (N) Valor do Desconto
+- (N) Valor do I.O.F.
+- (N) Abatimento
+- (N) Inscrição do Pagador
+- (N) Número de Inscrição do Pagador
+- (X) Nome do Pagador
+- (X) Logradouro do Pagador
+- (X) Bairro do Pagador
+- (N) C.E.P do Pagador
+- (X) Cidade do Pagador
+- (X) Estado do Pagador
+- (N) Data da Multa
+- (N) Valor da Multa
+- (X) Nome do Avalista
+- (N) Instrução Nro. 3
+- (N) Prazo
+b) Quando não se quiser alterar um determinado campo, este será preenchido com brancos, não importando se o mesmo tem característica numérica ou alfanumérica.
+c) Quando se quiser anular (“zerar”) um campo numérico, este será preenchido com zeros. Quando se quiser anular (“branquear”) um campo alfanumérico (X), este será preenchido com pelo menos um caracter diferente de brancos (X ’ 00 ’ por exemplo).
+d) Quando o campo “Taxa de Permanência” for alterado para conter o código “00”, o campo “juros de 1 dia”, não poderá conter brancos.
+e) Quando se quiser alterar o campo “prazo”, será indicado na “Instrução Nr. 1”, se o prazo e de protesto ou de devolução. (Vide Nota 7)
+f) Qualquer outro campo que não estiver relacionado no item (a) será preenchido de acordo com a característica numérica ou alfanumérica do mesmo, isto é, campos numéricos com zeros e campos alfanuméricos com brancos.</t>
+  </si>
+  <si>
+    <t>10 Alt de dados c/ emissão / emissão de bloqueto Obs. 2 e 7 (emissão CAIXA)</t>
+  </si>
+  <si>
+    <t>SAME 09</t>
+  </si>
+  <si>
+    <t>11 Alteração da opção de Protesto para Devolução Obs. 2 e 6</t>
+  </si>
+  <si>
+    <t>12 Alteração da opção de Devolução para Protesto Obs. 2 e 6</t>
+  </si>
+  <si>
+    <t>01 REMESSA</t>
+  </si>
+  <si>
+    <t>TODOS OS CAMPOS</t>
+  </si>
+  <si>
+    <t>02 PEDIDO DE BAIXA</t>
+  </si>
+  <si>
+    <t>(A) São obrigatórios os seguintes campos, além dos indicados na tabela:
+ Tipo de Registro
+ Número da Carteira
+ Agência/Conta/Dac da Empresa
+ Código da Carteira
+ Nosso Número
+ Valor do Título
+Os demais campos devem ser preenchidos com zeros ou brancos, obedecendo a sua picture.</t>
+  </si>
+  <si>
+    <t>04 CONCESSÃO DE ABATIMENTO (INDICADOR 12.5)</t>
+  </si>
+  <si>
+    <t>VALOR DO ABATIMENTO</t>
+  </si>
+  <si>
+    <t>SAME 02
+(D) Somente são aceitas antes de iniciar o processo de negativação ou protesto. Se a negativação ou o
+protesto já estiver em andamento, deve-se primeiro excluir a entrada em negativação expressa ou
+sustar o protesto e em seguida comandar a instrução desejada (a exclusão, a sustação e a instrução
+podem constar no mesmo arquivo).
+A instrução de baixa envia a exclusão ou cancelamento da negativação expressa ou susta
+automaticamente o protesto e o título é baixado.</t>
+  </si>
+  <si>
+    <t>05 CANCELAMENTO DE ABATIMENTO</t>
+  </si>
+  <si>
+    <t>SAME 04</t>
+  </si>
+  <si>
+    <t>06 ALTERAÇÃO DO VENCIMENTO</t>
+  </si>
+  <si>
+    <t>VENCIMENTO</t>
+  </si>
+  <si>
+    <t>07 ALTERAÇÃO DO USO DA EMPRESA</t>
+  </si>
+  <si>
+    <t>USO DA EMPRESA</t>
+  </si>
+  <si>
+    <t>08 ALTERAÇÃO DO SEU NÚMERO</t>
+  </si>
+  <si>
+    <t>SEU NÚMERO</t>
+  </si>
+  <si>
+    <t>09 PROTESTAR</t>
+  </si>
+  <si>
+    <t>SAME 02
+(C) Utilizada para agendar uma negativação ou protesto futuro sendo que o prazo de início de protesto
+deverá ser indicado nas posições 392 à 393, a partir do vencimento. Caso seja informado '00' no
+campo prazo, o processo de protesto será acionado 02 dias (corridos) após o vencimento. No caso da
+ocorrência “11”, o beneficiário passa a ter prioridade no recebimento quando o pagador estiver com
+falência decretada.</t>
+  </si>
+  <si>
+    <t>10 NÃO PROTESTAR</t>
+  </si>
+  <si>
+    <t>11 PROTESTO PARA FINS FALIMENTARES</t>
+  </si>
+  <si>
+    <t>18 SUSTAR O PROTESTO</t>
+  </si>
+  <si>
+    <t>SAME 02
+(F) Deve ser utilizada também quando se deseja cancelar uma instrução de negativação expressa ou
+protesto comandada no registro de entrada, mesmo que o título ainda não tenha sido protestado.</t>
+  </si>
+  <si>
+    <t>30 EXCLUSÃO DE SACADOR AVALISTA</t>
+  </si>
+  <si>
+    <t>SAME 69
+(D) Somente são aceitas antes de iniciar o processo de negativação ou protesto. Se a negativação ou o
+protesto já estiver em andamento, deve-se primeiro excluir a entrada em negativação expressa ou
+sustar o protesto e em seguida comandar a instrução desejada (a exclusão, a sustação e a instrução
+podem constar no mesmo arquivo).</t>
+  </si>
+  <si>
+    <t>31 ALTERAÇÃO DE OUTROS DADOS</t>
+  </si>
+  <si>
+    <t>CAMPOS A ALTERAR</t>
+  </si>
+  <si>
+    <t>SAME 30</t>
+  </si>
+  <si>
+    <t>34 BAIXA POR TER SIDO PAGO DIRETAMENTE AO BENEFICIÁRIO</t>
+  </si>
+  <si>
+    <t>SAME 02</t>
+  </si>
+  <si>
+    <t>35 CANCELAMENTO DE INSTRUÇÃO</t>
+  </si>
+  <si>
+    <t>CÓDIGO DA INSTRUÇÃO</t>
+  </si>
+  <si>
+    <t>SAME 69
+(G) O código da instrução a ser cancelada (1156 – Não Protestar ou 2261 – Dispensar juros/comissão de
+permanência) deverá ser informado nas posições 34 a 37 do registro de transação.</t>
+  </si>
+  <si>
+    <t>37 ALTERAÇÃO DO VENCIMENTO E SUSTAR PROTESTO</t>
+  </si>
+  <si>
+    <t>38 BENEFICIÁRIO NÃO CONCORDA COM ALEGAÇÃO DO PAGADOR</t>
+  </si>
+  <si>
+    <t>CÓDIGO DA ALEGAÇÃO</t>
+  </si>
+  <si>
+    <t>SAME 02
+(E) O código da alegação do pagador deverá ser informado nas posições 34 a 37 do registro de transação
+conforme nota 20, tabela 6, campo CÓD.</t>
+  </si>
+  <si>
+    <t>47 BENEFICIÁRIO SOLICITA DISPENSA DE JUROS</t>
+  </si>
+  <si>
+    <t>49 ALTERAÇÃO DE DADOS EXTRAS (REGISTRO DE MULTA)</t>
+  </si>
+  <si>
+    <t>66 ENTRADA EM NEGATIVAÇÃO EXPRESSA</t>
+  </si>
+  <si>
+    <t>SAME 69
+(C) Utilizada para agendar uma negativação ou protesto futuro sendo que o prazo de início de protesto
+deverá ser indicado nas posições 392 à 393, a partir do vencimento. Caso seja informado '00' no
+campo prazo, o processo de protesto será acionado 02 dias (corridos) após o vencimento. No caso da
+ocorrência “11”, o beneficiário passa a ter prioridade no recebimento quando o pagador estiver com
+falência decretada.</t>
+  </si>
+  <si>
+    <t>67 NÃO NEGATIVAR (INIBE A ENTRADA EM NEGATIVAÇÃO EXPRESSA)</t>
+  </si>
+  <si>
+    <t>68 EXCLUIR NEGATIVAÇÃO EXPRESSA (ATÉ 15 DIAS CORRIDOS APÓS A ENTRADA EM NEGATIVAÇÃO EXPRESSA)</t>
+  </si>
+  <si>
+    <t>SAME 69
+(F) Deve ser utilizada também quando se deseja cancelar uma instrução de negativação expressa ou
+protesto comandada no registro de entrada, mesmo que o título ainda não tenha sido protestado.</t>
+  </si>
+  <si>
+    <t>69 CANCELAR NEGATIVAÇÃO EXPRESSA (APÓS TÍTULO TER SIDO NEGATIVADO)</t>
+  </si>
+  <si>
+    <t>(B) São obrigatórios os seguintes campos, além dos indicados na tabela:
+ Tipo de Registro
+ Número da Carteira
+ Agência/Conta/Dac da Empresa
+ Código da Carteira
+ Nosso Número
+Os campos sem alteração devem ser preenchidos com zeros ou brancos, obedecendo a sua
+picture. A alteração do valor do boleto deverá ser feita isoladamente, sem nenhuma outra
+alteração no mesmo registro.</t>
+  </si>
+  <si>
+    <t>93 DESCONTAR TÍTULOS ENCAMINHADOS NO DIA</t>
+  </si>
+  <si>
+    <t>(H) Utilizada para indicar títulos encaminhados no dia e que passarão pelo qualificador de crédito e que
+dependendo da qualificação, poderão ser descontados no próprio dia da remessa do arquivo.</t>
+  </si>
+  <si>
+    <t>01 = Registro de Títulos</t>
+  </si>
+  <si>
+    <t>02 = Solicitação de Baixa</t>
+  </si>
+  <si>
+    <t>04 = Concessão de Abatimento</t>
+  </si>
+  <si>
+    <t>05 = Cancelamento de Abatimento</t>
+  </si>
+  <si>
+    <t>06 = Alteração de Vencimento</t>
+  </si>
+  <si>
+    <t>08 = Alteração de Seu Número</t>
+  </si>
+  <si>
+    <t>09 = Instrução para Protestar</t>
+  </si>
+  <si>
+    <t>10 = Instrução para Sustar Protesto</t>
+  </si>
+  <si>
+    <t>11 = Instrução para Dispensar Juros</t>
+  </si>
+  <si>
+    <t>12 = Alteração de Pagador</t>
+  </si>
+  <si>
+    <t>31 = Alteração de Outros Dados</t>
+  </si>
+  <si>
+    <t>34 = Baixa - Pagamento Direto ao Beneficiário</t>
+  </si>
+  <si>
+    <t>01 = ENTRADA DE TÍTULO</t>
+  </si>
+  <si>
+    <t>02 = BAIXA DE TÍTULO</t>
+  </si>
+  <si>
+    <t>04 = CONCESSÃO DE ABATIMENTO</t>
+  </si>
+  <si>
+    <t>05 = CANCELAMENTO ABATIMENTO</t>
+  </si>
+  <si>
+    <t>06 = PRORROGAÇÃO DE VENCIMENTO</t>
+  </si>
+  <si>
+    <t>07 = ALT . NÚMERO CONT . CEDENTE</t>
+  </si>
+  <si>
+    <t>08 = ALTERAÇÃO DO SEU NÚMERO</t>
+  </si>
+  <si>
+    <t>09 = PROTESTAR</t>
+  </si>
+  <si>
+    <t>18 = SUSTAR PROTESTO</t>
+  </si>
+  <si>
     <t>regtype</t>
   </si>
   <si>
@@ -2496,12 +3065,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2533,27 +3102,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2566,22 +3155,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2603,13 +3209,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -2624,16 +3223,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2646,32 +3246,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2716,7 +3292,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2728,7 +3316,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2740,7 +3328,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2752,7 +3340,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2764,7 +3364,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2782,7 +3388,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2794,31 +3424,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2830,67 +3460,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2907,6 +3483,51 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2930,45 +3551,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2984,17 +3566,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3012,152 +3588,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3186,6 +3762,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3521,10 +4112,10 @@
   <sheetPr/>
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" customHeight="1" outlineLevelCol="6"/>
@@ -5512,9 +6103,842 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="A1:C103"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="47.25" style="10" customWidth="1"/>
+    <col min="2" max="2" width="47.75" customWidth="1"/>
+    <col min="3" max="3" width="49.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="10" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="10" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="10" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="10" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="10" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="10" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="10" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="10" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="10" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="10" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="10" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="10" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="10" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="10" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="10" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="C57" s="11"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="10" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="10" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="10" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="10" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="10" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="10" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="10" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="10" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="10" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="10" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="10" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="10" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="10" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="10" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="10" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="10" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="10" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="10" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="10" t="s">
+        <v>587</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C22:C23"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:XFD182"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5567,7 +6991,7 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A3" s="6" t="s">
-        <v>441</v>
+        <v>588</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>9</v>
@@ -5579,7 +7003,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>442</v>
+        <v>589</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>13</v>
@@ -5590,53 +7014,53 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A4" s="6" t="s">
-        <v>443</v>
+        <v>590</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>444</v>
+        <v>591</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>445</v>
+        <v>592</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>445</v>
+        <v>592</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>446</v>
+        <v>593</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>445</v>
+        <v>592</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A5" s="6" t="s">
-        <v>447</v>
+        <v>594</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>448</v>
+        <v>595</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>449</v>
+        <v>596</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>449</v>
+        <v>596</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>450</v>
+        <v>597</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>449</v>
+        <v>596</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A6" s="6" t="s">
-        <v>451</v>
+        <v>598</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>31</v>
@@ -5648,10 +7072,10 @@
         <v>34</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>452</v>
+        <v>599</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>453</v>
+        <v>600</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>34</v>
@@ -5659,7 +7083,7 @@
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A7" s="6" t="s">
-        <v>454</v>
+        <v>601</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>36</v>
@@ -5671,10 +7095,10 @@
         <v>40</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>455</v>
+        <v>602</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>456</v>
+        <v>603</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>40</v>
@@ -5702,11 +7126,11 @@
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A9" s="6" t="s">
-        <v>457</v>
+        <v>604</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>458</v>
+        <v>605</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>49</v>
@@ -5728,7 +7152,7 @@
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A11" s="6" t="s">
-        <v>459</v>
+        <v>606</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>138</v>
@@ -5766,7 +7190,7 @@
         <v>290</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>460</v>
+        <v>607</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>87</v>
@@ -5775,7 +7199,7 @@
         <v>87</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>461</v>
+        <v>608</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>86</v>
@@ -5786,10 +7210,10 @@
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>462</v>
+        <v>609</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>463</v>
+        <v>610</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>93</v>
@@ -5798,10 +7222,10 @@
         <v>93</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>464</v>
+        <v>611</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>465</v>
+        <v>612</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>93</v>
@@ -5809,7 +7233,7 @@
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A16" s="6" t="s">
-        <v>466</v>
+        <v>613</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>94</v>
@@ -5821,7 +7245,7 @@
         <v>97</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>464</v>
+        <v>611</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>95</v>
@@ -5832,7 +7256,7 @@
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A17" s="6" t="s">
-        <v>467</v>
+        <v>614</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>99</v>
@@ -5844,10 +7268,10 @@
         <v>103</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>468</v>
+        <v>615</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>469</v>
+        <v>616</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>103</v>
@@ -5855,51 +7279,51 @@
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B18" s="6" t="s">
-        <v>470</v>
+        <v>617</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>471</v>
+        <v>618</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>472</v>
+        <v>619</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>471</v>
+        <v>618</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" customHeight="1" spans="4:7">
       <c r="D19" s="6" t="s">
-        <v>473</v>
+        <v>620</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>473</v>
+        <v>620</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" customHeight="1" spans="6:7">
       <c r="F20" s="6" t="s">
-        <v>474</v>
+        <v>621</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>475</v>
+        <v>622</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B21" s="6" t="s">
-        <v>476</v>
+        <v>623</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>477</v>
+        <v>624</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B22" s="6" t="s">
-        <v>478</v>
+        <v>625</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>479</v>
+        <v>626</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>479</v>
+        <v>626</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" customHeight="1" spans="2:7">
@@ -5915,7 +7339,7 @@
     </row>
     <row r="24" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A24" s="6" t="s">
-        <v>480</v>
+        <v>627</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>74</v>
@@ -5939,7 +7363,7 @@
     </row>
     <row r="26" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A26" s="6" t="s">
-        <v>481</v>
+        <v>628</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>109</v>
@@ -5948,10 +7372,10 @@
         <v>109</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>482</v>
+        <v>629</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>483</v>
+        <v>630</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>109</v>
@@ -5959,10 +7383,10 @@
     </row>
     <row r="27" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A27" s="6" t="s">
-        <v>484</v>
+        <v>631</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>485</v>
+        <v>632</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>116</v>
@@ -5993,7 +7417,7 @@
     </row>
     <row r="29" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A29" s="6" t="s">
-        <v>441</v>
+        <v>588</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>9</v>
@@ -6017,7 +7441,7 @@
     <row r="30" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A30" s="6"/>
       <c r="B30" s="6" t="s">
-        <v>486</v>
+        <v>633</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>124</v>
@@ -6038,7 +7462,7 @@
     <row r="31" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
-        <v>487</v>
+        <v>634</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>129</v>
@@ -6081,7 +7505,7 @@
     </row>
     <row r="33" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A33" s="6" t="s">
-        <v>457</v>
+        <v>604</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6" t="s">
@@ -6113,7 +7537,7 @@
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A35" s="6" t="s">
-        <v>459</v>
+        <v>606</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>138</v>
@@ -6127,7 +7551,7 @@
     </row>
     <row r="36" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A36" s="6" t="s">
-        <v>480</v>
+        <v>627</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6" t="s">
@@ -6139,7 +7563,7 @@
     </row>
     <row r="37" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A37" s="6" t="s">
-        <v>488</v>
+        <v>635</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>145</v>
@@ -6154,7 +7578,7 @@
         <v>147</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>489</v>
+        <v>636</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>149</v>
@@ -6162,10 +7586,10 @@
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A38" s="6" t="s">
-        <v>490</v>
+        <v>637</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>491</v>
+        <v>638</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>156</v>
@@ -6174,7 +7598,7 @@
         <v>156</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>492</v>
+        <v>639</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>155</v>
@@ -6186,11 +7610,11 @@
     <row r="39" s="1" customFormat="1" customHeight="1" spans="4:8">
       <c r="D39" s="6"/>
       <c r="E39" s="6" t="s">
-        <v>493</v>
+        <v>640</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="1" t="s">
-        <v>494</v>
+        <v>641</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -6213,18 +7637,18 @@
         <v>162</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>495</v>
+        <v>642</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A41" s="6" t="s">
-        <v>496</v>
+        <v>643</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>165</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>497</v>
+        <v>644</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -6234,38 +7658,38 @@
       </c>
       <c r="E42" s="6"/>
       <c r="G42" s="2" t="s">
-        <v>498</v>
+        <v>645</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B43" s="6" t="s">
-        <v>499</v>
+        <v>646</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>500</v>
+        <v>647</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>155</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>500</v>
+        <v>647</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" customHeight="1" spans="4:8">
       <c r="D44" s="6" t="s">
-        <v>501</v>
+        <v>648</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="1" t="s">
-        <v>494</v>
+        <v>641</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" customHeight="1" spans="4:7">
       <c r="D45" s="6" t="s">
-        <v>502</v>
+        <v>649</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>502</v>
+        <v>649</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" customHeight="1" spans="2:7">
@@ -6274,14 +7698,14 @@
       </c>
       <c r="D46" s="6"/>
       <c r="G46" s="2" t="s">
-        <v>503</v>
+        <v>650</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B47" s="7"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6" t="s">
-        <v>504</v>
+        <v>651</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>417</v>
@@ -6289,7 +7713,7 @@
     </row>
     <row r="48" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A48" s="6" t="s">
-        <v>505</v>
+        <v>652</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>338</v>
@@ -6300,10 +7724,10 @@
     </row>
     <row r="49" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A49" s="6" t="s">
-        <v>506</v>
+        <v>653</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>507</v>
+        <v>654</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>177</v>
@@ -6312,10 +7736,10 @@
         <v>177</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>508</v>
+        <v>655</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>509</v>
+        <v>656</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>177</v>
@@ -6323,25 +7747,25 @@
     </row>
     <row r="50" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A50" s="6" t="s">
-        <v>510</v>
+        <v>657</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>511</v>
+        <v>658</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>512</v>
+        <v>659</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>512</v>
+        <v>659</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>513</v>
+        <v>660</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>514</v>
+        <v>661</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>512</v>
+        <v>659</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" customHeight="1" spans="2:7">
@@ -6349,7 +7773,7 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6" t="s">
-        <v>515</v>
+        <v>662</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>426</v>
@@ -6360,7 +7784,7 @@
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="F52" s="6" t="s">
-        <v>516</v>
+        <v>663</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>141</v>
@@ -6371,41 +7795,41 @@
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6" t="s">
-        <v>517</v>
+        <v>664</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="1" t="s">
-        <v>518</v>
+        <v>665</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A54" s="6" t="s">
-        <v>519</v>
+        <v>666</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6" t="s">
-        <v>520</v>
+        <v>667</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>521</v>
+        <v>668</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A55" s="6" t="s">
-        <v>522</v>
+        <v>669</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>523</v>
+        <v>670</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>524</v>
+        <v>671</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A56" s="6" t="s">
-        <v>525</v>
+        <v>672</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>348</v>
@@ -6413,104 +7837,104 @@
     </row>
     <row r="57" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A57" s="6" t="s">
-        <v>526</v>
+        <v>673</v>
       </c>
       <c r="E57" s="6"/>
       <c r="G57" s="2" t="s">
-        <v>527</v>
+        <v>674</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6" t="s">
-        <v>528</v>
+        <v>675</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>529</v>
+        <v>676</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6" t="s">
-        <v>530</v>
+        <v>677</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>531</v>
+        <v>678</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" customHeight="1" spans="6:7">
       <c r="F60" s="6" t="s">
-        <v>532</v>
+        <v>679</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>533</v>
+        <v>680</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" customHeight="1" spans="6:7">
       <c r="F61" s="6" t="s">
-        <v>534</v>
+        <v>681</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>535</v>
+        <v>682</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" customHeight="1" spans="5:7">
       <c r="E62" s="6" t="s">
-        <v>536</v>
+        <v>683</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="2" t="s">
-        <v>537</v>
+        <v>684</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" customHeight="1" spans="5:7">
       <c r="E63" s="6" t="s">
-        <v>538</v>
+        <v>685</v>
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="2" t="s">
-        <v>539</v>
+        <v>686</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A64" s="6" t="s">
-        <v>540</v>
+        <v>687</v>
       </c>
       <c r="E64" s="6"/>
       <c r="G64" s="2" t="s">
-        <v>541</v>
+        <v>688</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A65" s="6" t="s">
-        <v>542</v>
+        <v>689</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>543</v>
+        <v>690</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>544</v>
+        <v>691</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>545</v>
+        <v>692</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>546</v>
+        <v>693</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>547</v>
+        <v>694</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A66" s="6"/>
       <c r="B66" s="6" t="s">
-        <v>548</v>
+        <v>695</v>
       </c>
       <c r="E66" s="6"/>
       <c r="G66" s="9" t="s">
-        <v>549</v>
+        <v>696</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" customHeight="1" spans="2:7">
@@ -6525,7 +7949,7 @@
     <row r="68" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A68" s="6"/>
       <c r="B68" s="6" t="s">
-        <v>550</v>
+        <v>697</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>369</v>
@@ -6533,16 +7957,16 @@
     </row>
     <row r="69" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A69" s="6" t="s">
-        <v>551</v>
+        <v>698</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>552</v>
+        <v>699</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>553</v>
+        <v>700</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>553</v>
+        <v>700</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>344</v>
@@ -6559,7 +7983,7 @@
         <v>184</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>554</v>
+        <v>701</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>184</v>
@@ -6568,7 +7992,7 @@
         <v>184</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>555</v>
+        <v>702</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>183</v>
@@ -6591,10 +8015,10 @@
         <v>191</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>556</v>
+        <v>703</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>557</v>
+        <v>704</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>191</v>
@@ -6602,10 +8026,10 @@
     </row>
     <row r="72" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A72" s="6" t="s">
-        <v>462</v>
+        <v>609</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>558</v>
+        <v>705</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>198</v>
@@ -6614,10 +8038,10 @@
         <v>198</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>559</v>
+        <v>706</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>560</v>
+        <v>707</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>198</v>
@@ -6628,7 +8052,7 @@
         <v>46</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>561</v>
+        <v>708</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>204</v>
@@ -6637,10 +8061,10 @@
         <v>204</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>562</v>
+        <v>709</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>563</v>
+        <v>710</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>204</v>
@@ -6648,13 +8072,13 @@
     </row>
     <row r="74" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A74" s="6" t="s">
-        <v>457</v>
+        <v>604</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>564</v>
+        <v>711</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>565</v>
+        <v>712</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>206</v>
@@ -6665,7 +8089,7 @@
         <v>213</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>566</v>
+        <v>713</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>213</v>
@@ -6685,73 +8109,73 @@
     </row>
     <row r="76" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A76" s="6" t="s">
-        <v>567</v>
+        <v>714</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>478</v>
+        <v>625</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>479</v>
+        <v>626</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>479</v>
+        <v>626</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>568</v>
+        <v>715</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>569</v>
+        <v>716</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>479</v>
+        <v>626</v>
       </c>
     </row>
     <row r="77" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A77" s="6" t="s">
-        <v>570</v>
+        <v>717</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>571</v>
+        <v>718</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>572</v>
+        <v>719</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>572</v>
+        <v>719</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>573</v>
+        <v>720</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>574</v>
+        <v>721</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>572</v>
+        <v>719</v>
       </c>
     </row>
     <row r="78" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A78" s="6" t="s">
-        <v>575</v>
+        <v>722</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>576</v>
+        <v>723</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>577</v>
+        <v>724</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>578</v>
+        <v>725</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>579</v>
+        <v>726</v>
       </c>
     </row>
     <row r="79" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A79" s="6" t="s">
-        <v>580</v>
+        <v>727</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>581</v>
+        <v>728</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>265</v>
@@ -6760,10 +8184,10 @@
         <v>265</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>582</v>
+        <v>729</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>583</v>
+        <v>730</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>265</v>
@@ -6774,7 +8198,7 @@
         <v>272</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>584</v>
+        <v>731</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>272</v>
@@ -6783,10 +8207,10 @@
         <v>272</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>585</v>
+        <v>732</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>586</v>
+        <v>733</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>272</v>
@@ -6797,7 +8221,7 @@
         <v>258</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>587</v>
+        <v>734</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>258</v>
@@ -6806,10 +8230,10 @@
         <v>258</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>588</v>
+        <v>735</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>589</v>
+        <v>736</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>258</v>
@@ -6817,13 +8241,13 @@
     </row>
     <row r="82" customFormat="1" customHeight="1" spans="1:16384">
       <c r="A82" s="6" t="s">
-        <v>590</v>
+        <v>737</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>591</v>
+        <v>738</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>592</v>
+        <v>739</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -23205,54 +24629,54 @@
     </row>
     <row r="83" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A83" s="6" t="s">
-        <v>593</v>
+        <v>740</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>594</v>
+        <v>741</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>595</v>
+        <v>742</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>595</v>
+        <v>742</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>596</v>
+        <v>743</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>597</v>
+        <v>744</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>595</v>
+        <v>742</v>
       </c>
     </row>
     <row r="84" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A84" s="6" t="s">
-        <v>598</v>
+        <v>745</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>599</v>
+        <v>746</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>600</v>
+        <v>747</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>601</v>
+        <v>748</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>602</v>
+        <v>749</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>603</v>
+        <v>750</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>601</v>
+        <v>748</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A85" s="6"/>
       <c r="B85" s="6" t="s">
-        <v>604</v>
+        <v>751</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>415</v>
@@ -23260,7 +24684,7 @@
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6" t="s">
-        <v>605</v>
+        <v>752</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>415</v>
@@ -23268,80 +24692,80 @@
     </row>
     <row r="86" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A86" s="6" t="s">
-        <v>606</v>
+        <v>753</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>607</v>
+        <v>754</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>608</v>
+        <v>755</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>609</v>
+        <v>756</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>610</v>
+        <v>757</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>608</v>
+        <v>755</v>
       </c>
     </row>
     <row r="87" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A87" s="6" t="s">
-        <v>611</v>
+        <v>758</v>
       </c>
       <c r="B87" s="6"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6" t="s">
-        <v>612</v>
+        <v>759</v>
       </c>
       <c r="F87" s="6"/>
       <c r="G87" s="2" t="s">
-        <v>613</v>
+        <v>760</v>
       </c>
     </row>
     <row r="88" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A88" s="6" t="s">
-        <v>614</v>
+        <v>761</v>
       </c>
       <c r="B88" s="6"/>
       <c r="D88" s="6"/>
       <c r="E88" s="6" t="s">
-        <v>615</v>
+        <v>762</v>
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="2" t="s">
-        <v>616</v>
+        <v>763</v>
       </c>
     </row>
     <row r="89" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A89" s="6" t="s">
-        <v>617</v>
+        <v>764</v>
       </c>
       <c r="B89" s="6"/>
       <c r="D89" s="6"/>
       <c r="E89" s="6" t="s">
-        <v>618</v>
+        <v>765</v>
       </c>
       <c r="F89" s="6"/>
       <c r="G89" s="2" t="s">
-        <v>619</v>
+        <v>766</v>
       </c>
     </row>
     <row r="90" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A90" s="6" t="s">
-        <v>620</v>
+        <v>767</v>
       </c>
       <c r="B90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6" t="s">
-        <v>621</v>
+        <v>768</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>622</v>
+        <v>769</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>623</v>
+        <v>770</v>
       </c>
     </row>
     <row r="91" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -23350,15 +24774,15 @@
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6" t="s">
-        <v>624</v>
+        <v>771</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>622</v>
+        <v>769</v>
       </c>
     </row>
     <row r="92" s="1" customFormat="1" customHeight="1" spans="6:7">
       <c r="F92" s="6" t="s">
-        <v>625</v>
+        <v>772</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>219</v>
@@ -23377,28 +24801,28 @@
     </row>
     <row r="94" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A94" s="6" t="s">
-        <v>626</v>
+        <v>773</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>627</v>
+        <v>774</v>
       </c>
       <c r="F94" s="6"/>
       <c r="G94" s="2" t="s">
-        <v>628</v>
+        <v>775</v>
       </c>
     </row>
     <row r="95" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A95" s="6" t="s">
-        <v>629</v>
+        <v>776</v>
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="2" t="s">
-        <v>630</v>
+        <v>777</v>
       </c>
     </row>
     <row r="96" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B96" s="6" t="s">
-        <v>631</v>
+        <v>778</v>
       </c>
       <c r="F96" s="6"/>
       <c r="G96" s="2" t="s">
@@ -23407,61 +24831,61 @@
     </row>
     <row r="97" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B97" s="6" t="s">
-        <v>632</v>
+        <v>779</v>
       </c>
       <c r="F97" s="6"/>
       <c r="G97" s="2" t="s">
-        <v>633</v>
+        <v>780</v>
       </c>
     </row>
     <row r="98" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B98" s="6" t="s">
-        <v>634</v>
+        <v>781</v>
       </c>
       <c r="F98" s="6"/>
       <c r="G98" s="2" t="s">
-        <v>635</v>
+        <v>782</v>
       </c>
     </row>
     <row r="99" s="1" customFormat="1" customHeight="1" spans="3:7">
       <c r="C99" s="6" t="s">
-        <v>636</v>
+        <v>783</v>
       </c>
       <c r="F99" s="6"/>
       <c r="G99" s="2" t="s">
-        <v>636</v>
+        <v>783</v>
       </c>
     </row>
     <row r="100" s="1" customFormat="1" customHeight="1" spans="3:7">
       <c r="C100" s="6" t="s">
-        <v>637</v>
+        <v>784</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>637</v>
+        <v>784</v>
       </c>
     </row>
     <row r="101" s="1" customFormat="1" customHeight="1" spans="3:7">
       <c r="C101" s="6" t="s">
-        <v>638</v>
+        <v>785</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>638</v>
+        <v>785</v>
       </c>
     </row>
     <row r="102" s="1" customFormat="1" customHeight="1" spans="3:7">
       <c r="C102" s="6" t="s">
-        <v>639</v>
+        <v>786</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>639</v>
+        <v>786</v>
       </c>
     </row>
     <row r="103" s="1" customFormat="1" customHeight="1" spans="3:7">
       <c r="C103" s="6" t="s">
-        <v>640</v>
+        <v>787</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>640</v>
+        <v>787</v>
       </c>
     </row>
     <row r="104" s="1" customFormat="1" customHeight="1" spans="3:7">
@@ -23475,7 +24899,7 @@
     <row r="105" s="1" customFormat="1" customHeight="1" spans="3:7">
       <c r="C105" s="6"/>
       <c r="E105" s="6" t="s">
-        <v>641</v>
+        <v>788</v>
       </c>
       <c r="F105" s="6"/>
       <c r="G105" s="2" t="s">
@@ -23486,10 +24910,10 @@
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
       <c r="F106" s="6" t="s">
-        <v>642</v>
+        <v>789</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>643</v>
+        <v>790</v>
       </c>
     </row>
     <row r="107" s="1" customFormat="1" customHeight="1" spans="2:7">
@@ -23497,10 +24921,10 @@
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
       <c r="F107" s="6" t="s">
-        <v>644</v>
+        <v>791</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>645</v>
+        <v>792</v>
       </c>
     </row>
     <row r="108" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -23532,10 +24956,10 @@
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
       <c r="F110" s="6" t="s">
-        <v>474</v>
+        <v>621</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>475</v>
+        <v>622</v>
       </c>
     </row>
     <row r="111" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -23547,17 +24971,17 @@
         <v>392</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>646</v>
+        <v>793</v>
       </c>
     </row>
     <row r="112" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B112" s="6"/>
       <c r="D112" s="6" t="s">
-        <v>647</v>
+        <v>794</v>
       </c>
       <c r="E112" s="6"/>
       <c r="G112" s="2" t="s">
-        <v>648</v>
+        <v>795</v>
       </c>
     </row>
     <row r="113" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -23565,31 +24989,31 @@
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
       <c r="D113" s="6" t="s">
-        <v>649</v>
+        <v>796</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
       <c r="G113" s="2" t="s">
-        <v>650</v>
+        <v>797</v>
       </c>
     </row>
     <row r="114" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A114" s="6" t="s">
-        <v>651</v>
+        <v>798</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>652</v>
+        <v>799</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>651</v>
+        <v>798</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>653</v>
+        <v>800</v>
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
       <c r="G114" s="2" t="s">
-        <v>651</v>
+        <v>798</v>
       </c>
     </row>
     <row r="115" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -23599,18 +25023,18 @@
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
       <c r="F115" s="6" t="s">
-        <v>483</v>
+        <v>630</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>654</v>
+        <v>801</v>
       </c>
     </row>
     <row r="116" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A116" s="6" t="s">
-        <v>484</v>
+        <v>631</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>655</v>
+        <v>802</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>116</v>
@@ -23641,7 +25065,7 @@
     </row>
     <row r="118" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A118" s="6" t="s">
-        <v>441</v>
+        <v>588</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>9</v>
@@ -23653,7 +25077,7 @@
         <v>14</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>656</v>
+        <v>803</v>
       </c>
       <c r="F118" s="6" t="s">
         <v>13</v>
@@ -23664,33 +25088,33 @@
     </row>
     <row r="119" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A119" s="6" t="s">
-        <v>657</v>
+        <v>804</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>658</v>
+        <v>805</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>445</v>
+        <v>592</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>445</v>
+        <v>592</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>659</v>
+        <v>806</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>660</v>
+        <v>807</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>445</v>
+        <v>592</v>
       </c>
     </row>
     <row r="120" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A120" s="6" t="s">
-        <v>661</v>
+        <v>808</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>662</v>
+        <v>809</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>34</v>
@@ -23699,7 +25123,7 @@
         <v>34</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>453</v>
+        <v>600</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>34</v>
@@ -23707,7 +25131,7 @@
     </row>
     <row r="121" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A121" s="6" t="s">
-        <v>663</v>
+        <v>810</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>90</v>
@@ -23722,7 +25146,7 @@
         <v>196</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>465</v>
+        <v>612</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>93</v>
@@ -23734,7 +25158,7 @@
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
       <c r="E122" s="6" t="s">
-        <v>664</v>
+        <v>811</v>
       </c>
       <c r="F122" s="6"/>
       <c r="G122" s="2" t="s">
@@ -23743,16 +25167,16 @@
     </row>
     <row r="123" s="1" customFormat="1" customHeight="1" spans="5:7">
       <c r="E123" s="6" t="s">
-        <v>665</v>
+        <v>812</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>666</v>
+        <v>813</v>
       </c>
     </row>
     <row r="124" s="1" customFormat="1" customHeight="1" spans="3:7">
       <c r="C124" s="6"/>
       <c r="E124" s="6" t="s">
-        <v>667</v>
+        <v>814</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>297</v>
@@ -23761,7 +25185,7 @@
     <row r="125" s="1" customFormat="1" customHeight="1" spans="3:7">
       <c r="C125" s="6"/>
       <c r="E125" s="6" t="s">
-        <v>668</v>
+        <v>815</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>302</v>
@@ -23770,7 +25194,7 @@
     <row r="126" s="1" customFormat="1" customHeight="1" spans="3:7">
       <c r="C126" s="6"/>
       <c r="E126" s="6" t="s">
-        <v>669</v>
+        <v>816</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>307</v>
@@ -23779,7 +25203,7 @@
     <row r="127" customHeight="1" spans="3:7">
       <c r="C127" s="6"/>
       <c r="E127" s="6" t="s">
-        <v>670</v>
+        <v>817</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>314</v>
@@ -23788,7 +25212,7 @@
     <row r="128" customHeight="1" spans="3:7">
       <c r="C128" s="6"/>
       <c r="E128" s="6" t="s">
-        <v>671</v>
+        <v>818</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>320</v>
@@ -23797,22 +25221,22 @@
     <row r="129" customHeight="1" spans="3:7">
       <c r="C129" s="6"/>
       <c r="E129" s="6" t="s">
-        <v>672</v>
+        <v>819</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>673</v>
+        <v>820</v>
       </c>
     </row>
     <row r="130" customHeight="1" spans="2:7">
       <c r="B130" s="6" t="s">
-        <v>674</v>
+        <v>821</v>
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="6" t="s">
         <v>434</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>675</v>
+        <v>822</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>434</v>
@@ -23820,7 +25244,7 @@
     </row>
     <row r="131" customHeight="1" spans="2:7">
       <c r="B131" s="6" t="s">
-        <v>676</v>
+        <v>823</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6" t="s">
@@ -23833,464 +25257,464 @@
     </row>
     <row r="132" customHeight="1" spans="2:7">
       <c r="B132" s="6" t="s">
-        <v>677</v>
+        <v>824</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
       <c r="E132" s="6"/>
       <c r="G132" s="2" t="s">
-        <v>678</v>
+        <v>825</v>
       </c>
     </row>
     <row r="133" customHeight="1" spans="1:7">
       <c r="A133" s="6" t="s">
-        <v>679</v>
+        <v>826</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="6" t="s">
-        <v>680</v>
+        <v>827</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>681</v>
+        <v>828</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>680</v>
+        <v>827</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="1:7">
       <c r="A134" s="6" t="s">
-        <v>682</v>
+        <v>829</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="6" t="s">
-        <v>683</v>
+        <v>830</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>684</v>
+        <v>831</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>683</v>
+        <v>830</v>
       </c>
     </row>
     <row r="135" customHeight="1" spans="1:7">
       <c r="A135" s="6" t="s">
-        <v>685</v>
+        <v>832</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="6" t="s">
-        <v>686</v>
+        <v>833</v>
       </c>
       <c r="E135" s="6"/>
       <c r="F135" s="6" t="s">
-        <v>687</v>
+        <v>834</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>688</v>
+        <v>835</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="1:7">
       <c r="A136" s="6" t="s">
-        <v>689</v>
+        <v>836</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="6" t="s">
-        <v>690</v>
+        <v>837</v>
       </c>
       <c r="E136" s="6"/>
       <c r="G136" s="2" t="s">
-        <v>690</v>
+        <v>837</v>
       </c>
     </row>
     <row r="137" customHeight="1" spans="1:7">
       <c r="A137" s="6" t="s">
-        <v>691</v>
+        <v>838</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="6" t="s">
-        <v>692</v>
+        <v>839</v>
       </c>
       <c r="E137" s="6"/>
       <c r="G137" s="2" t="s">
-        <v>692</v>
+        <v>839</v>
       </c>
     </row>
     <row r="138" customHeight="1" spans="1:7">
       <c r="A138" s="6" t="s">
-        <v>693</v>
+        <v>840</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="6" t="s">
-        <v>694</v>
+        <v>841</v>
       </c>
       <c r="E138" s="6"/>
       <c r="G138" s="2" t="s">
-        <v>695</v>
+        <v>842</v>
       </c>
     </row>
     <row r="139" customHeight="1" spans="3:7">
       <c r="C139" s="6"/>
       <c r="D139" s="6" t="s">
-        <v>696</v>
+        <v>843</v>
       </c>
       <c r="E139" s="6"/>
       <c r="G139" s="2" t="s">
-        <v>696</v>
+        <v>843</v>
       </c>
     </row>
     <row r="140" customHeight="1" spans="3:7">
       <c r="C140" s="6"/>
       <c r="D140" s="6" t="s">
-        <v>697</v>
+        <v>844</v>
       </c>
       <c r="E140" s="6"/>
       <c r="G140" s="2" t="s">
-        <v>697</v>
+        <v>844</v>
       </c>
     </row>
     <row r="141" customHeight="1" spans="3:7">
       <c r="C141" s="6"/>
       <c r="D141" s="6" t="s">
-        <v>698</v>
+        <v>845</v>
       </c>
       <c r="E141" s="6"/>
       <c r="G141" s="2" t="s">
-        <v>699</v>
+        <v>846</v>
       </c>
     </row>
     <row r="142" customHeight="1" spans="1:7">
       <c r="A142" s="6" t="s">
-        <v>700</v>
+        <v>847</v>
       </c>
       <c r="C142" s="6"/>
       <c r="E142" s="6"/>
       <c r="F142" s="6" t="s">
-        <v>701</v>
+        <v>848</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>702</v>
+        <v>849</v>
       </c>
     </row>
     <row r="143" customHeight="1" spans="1:7">
       <c r="A143" s="6" t="s">
-        <v>703</v>
+        <v>850</v>
       </c>
       <c r="C143" s="6"/>
       <c r="E143" s="6"/>
       <c r="F143" s="6" t="s">
-        <v>704</v>
+        <v>851</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>705</v>
+        <v>852</v>
       </c>
     </row>
     <row r="144" customHeight="1" spans="1:7">
       <c r="A144" s="6" t="s">
-        <v>706</v>
+        <v>853</v>
       </c>
       <c r="C144" s="6"/>
       <c r="E144" s="6"/>
       <c r="F144" s="6" t="s">
-        <v>707</v>
+        <v>854</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>708</v>
+        <v>855</v>
       </c>
     </row>
     <row r="145" customHeight="1" spans="1:7">
       <c r="A145" s="6" t="s">
-        <v>709</v>
+        <v>856</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
       <c r="E145" s="6"/>
       <c r="F145" s="6" t="s">
-        <v>710</v>
+        <v>857</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>711</v>
+        <v>858</v>
       </c>
     </row>
     <row r="146" customHeight="1" spans="1:7">
       <c r="A146" s="6" t="s">
-        <v>712</v>
+        <v>859</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
       <c r="E146" s="6"/>
       <c r="F146" s="6" t="s">
-        <v>713</v>
+        <v>860</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>714</v>
+        <v>861</v>
       </c>
     </row>
     <row r="147" customHeight="1" spans="1:7">
       <c r="A147" s="6" t="s">
-        <v>715</v>
+        <v>862</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
       <c r="E147" s="6"/>
       <c r="F147" s="6" t="s">
-        <v>716</v>
+        <v>863</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>717</v>
+        <v>864</v>
       </c>
     </row>
     <row r="148" customHeight="1" spans="1:7">
       <c r="A148" s="6" t="s">
-        <v>718</v>
+        <v>865</v>
       </c>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
       <c r="G148" s="2" t="s">
-        <v>719</v>
+        <v>866</v>
       </c>
     </row>
     <row r="149" customHeight="1" spans="1:7">
       <c r="A149" s="6" t="s">
-        <v>720</v>
+        <v>867</v>
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
       <c r="G149" s="2" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="150" customHeight="1" spans="1:7">
       <c r="A150" s="6" t="s">
-        <v>722</v>
+        <v>869</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
       <c r="G150" s="2" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="151" customHeight="1" spans="1:7">
       <c r="A151" s="6"/>
       <c r="B151" s="6" t="s">
-        <v>724</v>
+        <v>871</v>
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
       <c r="G151" s="2" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="152" customHeight="1" spans="1:7">
       <c r="A152" s="6"/>
       <c r="B152" s="6" t="s">
-        <v>726</v>
+        <v>873</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
       <c r="G152" s="2" t="s">
-        <v>727</v>
+        <v>874</v>
       </c>
     </row>
     <row r="153" customHeight="1" spans="1:7">
       <c r="A153" s="6"/>
       <c r="B153" s="6" t="s">
-        <v>728</v>
+        <v>875</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
       <c r="G153" s="2" t="s">
-        <v>729</v>
+        <v>876</v>
       </c>
     </row>
     <row r="154" customHeight="1" spans="1:7">
       <c r="A154" s="6"/>
       <c r="B154" s="6" t="s">
-        <v>730</v>
+        <v>877</v>
       </c>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
       <c r="G154" s="2" t="s">
-        <v>731</v>
+        <v>878</v>
       </c>
     </row>
     <row r="155" customHeight="1" spans="1:7">
       <c r="A155" s="6"/>
       <c r="B155" s="6" t="s">
-        <v>732</v>
+        <v>879</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
       <c r="G155" s="2" t="s">
-        <v>733</v>
+        <v>880</v>
       </c>
     </row>
     <row r="156" customHeight="1" spans="1:7">
       <c r="A156" s="6"/>
       <c r="B156" s="6" t="s">
-        <v>734</v>
+        <v>881</v>
       </c>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
       <c r="G156" s="2" t="s">
-        <v>735</v>
+        <v>882</v>
       </c>
     </row>
     <row r="157" customHeight="1" spans="1:7">
       <c r="A157" s="6"/>
       <c r="B157" s="7" t="s">
-        <v>736</v>
+        <v>883</v>
       </c>
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
       <c r="G157" s="2" t="s">
-        <v>737</v>
+        <v>884</v>
       </c>
     </row>
     <row r="158" customHeight="1" spans="1:7">
       <c r="A158" s="6"/>
       <c r="B158" s="6" t="s">
-        <v>738</v>
+        <v>885</v>
       </c>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
       <c r="G158" s="2" t="s">
-        <v>739</v>
+        <v>886</v>
       </c>
     </row>
     <row r="159" customHeight="1" spans="1:7">
       <c r="A159" s="6"/>
       <c r="B159" s="6" t="s">
-        <v>740</v>
+        <v>887</v>
       </c>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
       <c r="G159" s="2" t="s">
-        <v>741</v>
+        <v>888</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="1:7">
       <c r="A160" s="6"/>
       <c r="B160" s="6" t="s">
-        <v>742</v>
+        <v>889</v>
       </c>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
       <c r="G160" s="2" t="s">
-        <v>743</v>
+        <v>890</v>
       </c>
     </row>
     <row r="161" customHeight="1" spans="1:7">
       <c r="A161" s="6"/>
       <c r="B161" s="6" t="s">
-        <v>744</v>
+        <v>891</v>
       </c>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
       <c r="G161" s="2" t="s">
-        <v>745</v>
+        <v>892</v>
       </c>
     </row>
     <row r="162" customHeight="1" spans="1:7">
       <c r="A162" s="6"/>
       <c r="B162" s="6" t="s">
-        <v>746</v>
+        <v>893</v>
       </c>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
       <c r="G162" s="2" t="s">
-        <v>747</v>
+        <v>894</v>
       </c>
     </row>
     <row r="163" customHeight="1" spans="1:7">
       <c r="A163" s="6"/>
       <c r="B163" s="6" t="s">
-        <v>748</v>
+        <v>895</v>
       </c>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
       <c r="G163" s="2" t="s">
-        <v>749</v>
+        <v>896</v>
       </c>
     </row>
     <row r="164" customHeight="1" spans="1:7">
       <c r="A164" s="6"/>
       <c r="B164" s="6" t="s">
-        <v>750</v>
+        <v>897</v>
       </c>
       <c r="C164" s="6"/>
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
       <c r="G164" s="2" t="s">
-        <v>751</v>
+        <v>898</v>
       </c>
     </row>
     <row r="165" customHeight="1" spans="1:7">
       <c r="A165" s="6"/>
       <c r="B165" s="6" t="s">
-        <v>752</v>
+        <v>899</v>
       </c>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
       <c r="G165" s="2" t="s">
-        <v>753</v>
+        <v>900</v>
       </c>
     </row>
     <row r="166" customHeight="1" spans="1:7">
       <c r="A166" s="6"/>
       <c r="B166" s="6" t="s">
-        <v>754</v>
+        <v>901</v>
       </c>
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
       <c r="G166" s="2" t="s">
-        <v>755</v>
+        <v>902</v>
       </c>
     </row>
     <row r="167" customHeight="1" spans="1:7">
       <c r="A167" s="6"/>
       <c r="B167" s="6" t="s">
-        <v>756</v>
+        <v>903</v>
       </c>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
       <c r="G167" s="2" t="s">
-        <v>757</v>
+        <v>904</v>
       </c>
     </row>
     <row r="168" customHeight="1" spans="1:7">
@@ -24299,11 +25723,11 @@
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
       <c r="E168" s="6" t="s">
-        <v>758</v>
+        <v>905</v>
       </c>
       <c r="F168" s="6"/>
       <c r="G168" s="2" t="s">
-        <v>759</v>
+        <v>906</v>
       </c>
     </row>
     <row r="169" customHeight="1" spans="1:7">
@@ -24314,7 +25738,7 @@
         <v>109</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>483</v>
+        <v>630</v>
       </c>
       <c r="G169" s="2" t="s">
         <v>109</v>
@@ -24322,10 +25746,10 @@
     </row>
     <row r="170" customHeight="1" spans="1:7">
       <c r="A170" s="6" t="s">
-        <v>484</v>
+        <v>631</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>760</v>
+        <v>907</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>116</v>
@@ -24440,7 +25864,7 @@
       <c r="F182" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A69:D69;A115:F116;A168:D182;D89:E91;D70:D77;B70:C73;A118:D122;F83:F98;B151:B167;F118:F122;B67:C67;B96:B98;E170:F182;C124:C164;A142:A167;F149:F157;A70:A88;E121:E132;E164:F168;D130:D141;E135:E157;F99;F169;D86:D88;E80:F80;F142:F147;D145:D157;B75:C75;C79:D81;F133:F135;E118:E119;D158:F163;C165:D167;B130:B132;A133:A138;F113:F114;F105:F111;F81;D111:E114;B107:B114;A108:A111;A113:A114;C113:C114;F69:F73;A94:A95;B86:B88;E94;A89:B91;D93;A68:B68;C76:C77;C109:C110;E69:E79;B83:D85;F75:F79;B76:B77;B78:B81;E105;D106:D110;C99:C107;E81:E88;A48:A50;E62:E64;E66;F25;E24:E25;F40;E49:F50;C26:F26;E12:E17;B65:B66;A54:A59;E3:E9;B21:B23;C3:C8;F43;A14;E57:E59;F29:F32;F20;A16:A17;B14:B18;B29:C32;E53:E55;B40:C40;C23;A8:A12;E51;D3:D12;E29:E42;A24:A26;D22:D23;A40:A42;B12:C12;D14:D19;F37;B46:B47;B37:C38;F14:F18;F3:F8;F38;A29:A38;D29:D40;A27:F27;F23;F58:F63;F52;B43;E47:E48;C65:E65;B34;A3:B7;C14:C17;D42:D47;F34;B25:D25;A64:A66;F10;B49:D54">
+  <conditionalFormatting sqref="A69:D69;A115:F116;A168:D182;D89:E91;D70:D77;B70:C73;A118:D122;F83:F99;B151:B167;F118:F122;B67:C67;B96:B98;E170:F182;C124:C164;A142:A167;F149:F157;A70:A88;E121:E132;E164:F168;D130:D141;E135:E157;F169;D86:D88;E80:F80;F142:F147;D145:D157;B75:C77;C79:D81;F133:F135;E118:E119;D158:F163;C165:D167;B130:B132;A133:A138;F113:F114;F105:F111;F81;D111:E114;B107:B114;A108:A111;A113:A114;C113:C114;F69:F73;A94:A95;B86:B88;E94;A89:B91;D93;A68:B68;C109:C110;E69:E79;B83:D85;F75:F79;B78:B81;E105;D106:D110;C99:C107;E81:E88;A48:A50;E62:E64;E66;F25;E24:E25;F40;E49:F50;C26:F26;E12:E17;B65:B66;A54:A59;E3:E9;B21:B23;C3:C8;F43;A14;E57:E59;F29:F32;F20;A16:A17;B14:B18;B29:C32;E53:E55;B40:C40;C23;A8:A12;E51;D3:D12;E29:E42;A24:A26;D22:D23;A40:A42;B12:C12;D14:D19;F37:F38;B46:B47;B37:C38;F14:F18;F3:F8;A29:A38;D29:D40;A27:F27;F23;F58:F63;F52;B43;E47:E48;C65:E65;B34;A3:B7;C14:C17;D42:D47;F34;B25:D25;A64:A66;F10;B49:D54">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>

--- a/docs/Normalization.xlsx
+++ b/docs/Normalization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="12810" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="19095" windowHeight="12810"/>
   </bookViews>
   <sheets>
     <sheet name="CNAB 400 - Remittance" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939">
   <si>
     <t>Banco do Brasil</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>Field</t>
+  </si>
+  <si>
+    <t>Model Flag</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>Todo</t>
   </si>
   <si>
     <t>Header (0)</t>
@@ -233,12 +242,21 @@
     <t>transmissionCode</t>
   </si>
   <si>
+    <t>SCCM</t>
+  </si>
+  <si>
+    <t>Rule</t>
+  </si>
+  <si>
     <t>Identificação do sistema</t>
   </si>
   <si>
     <t>systemId</t>
   </si>
   <si>
+    <t>Default</t>
+  </si>
+  <si>
     <t>Numero do Convenio Lider</t>
   </si>
   <si>
@@ -248,6 +266,9 @@
     <t>covenant</t>
   </si>
   <si>
+    <t>Covenant</t>
+  </si>
+  <si>
     <t>Código da Empresa</t>
   </si>
   <si>
@@ -260,10 +281,16 @@
     <t>companyCode</t>
   </si>
   <si>
+    <t>CompanyCode</t>
+  </si>
+  <si>
     <t>Dígito Verificador do Código: vide planilha "Capa" deste arquivo</t>
   </si>
   <si>
     <t>companyCodeDv</t>
+  </si>
+  <si>
+    <t>CompanyCodeDv</t>
   </si>
   <si>
     <t>Nome do Cedente</t>
@@ -351,6 +378,9 @@
   </si>
   <si>
     <t>fileSequential</t>
+  </si>
+  <si>
+    <t>File sequential when required</t>
   </si>
   <si>
     <t>Sequencial do Registro "000001"</t>
@@ -452,6 +482,9 @@
   </si>
   <si>
     <t>billingAccount</t>
+  </si>
+  <si>
+    <t>BillingAccount</t>
   </si>
   <si>
     <t>Numero do Convênio de Cobrança do Cedente</t>
@@ -538,6 +571,9 @@
   </si>
   <si>
     <t>portfolioVariation</t>
+  </si>
+  <si>
+    <t>PortfolioVariation</t>
   </si>
   <si>
     <t>uso banco</t>
@@ -585,6 +621,9 @@
   </si>
   <si>
     <t>occurrenceCode</t>
+  </si>
+  <si>
+    <t>Scoped</t>
   </si>
   <si>
     <t>Dava de Vencimento</t>
@@ -923,6 +962,9 @@
     <t>rebate</t>
   </si>
   <si>
+    <t>Rebate</t>
+  </si>
+  <si>
     <t>Tipo de Inscrição do Sacado</t>
   </si>
   <si>
@@ -1090,6 +1132,9 @@
     <t>pullerGuarantor</t>
   </si>
   <si>
+    <t>PullerGuarantor</t>
+  </si>
+  <si>
     <t>Data multa</t>
   </si>
   <si>
@@ -1118,6 +1163,9 @@
     <t>deadline</t>
   </si>
   <si>
+    <t>Deadline</t>
+  </si>
+  <si>
     <t>Desconto Bonificação por
 dia</t>
   </si>
@@ -1156,6 +1204,9 @@
   </si>
   <si>
     <t>billingType</t>
+  </si>
+  <si>
+    <t>BillingType</t>
   </si>
   <si>
     <t>Condição para Emissão da
@@ -1173,6 +1224,9 @@
     <t>emissionType</t>
   </si>
   <si>
+    <t>EmissionType</t>
+  </si>
+  <si>
     <t>Número do Contrato Garantia:                                                                                                                                                                                                                                                                     Para Carteira 1 preencher "00000";
 Para Carteira 3 preencher com o  número do contrato sem DV.</t>
   </si>
@@ -1180,11 +1234,17 @@
     <t>guaranteeContract</t>
   </si>
   <si>
+    <t>GuaranteeContract</t>
+  </si>
+  <si>
     <t>DV do contrato:                                                                                                                                                                                                                                                                     Para Carteira 1 preencher "0";
 Para Carteira 3 preencher com o Dígito Verificador.</t>
   </si>
   <si>
     <t>guaranteeContractDv</t>
+  </si>
+  <si>
+    <t>GuaranteeContractDv</t>
   </si>
   <si>
     <t>Identificador do Complemento</t>
@@ -1210,11 +1270,17 @@
     <t>postageType</t>
   </si>
   <si>
+    <t>PostageType</t>
+  </si>
+  <si>
     <t>Ident. se emite Boleto
 para Débito Automático</t>
   </si>
   <si>
     <t>ddaEmissionFlag</t>
+  </si>
+  <si>
+    <t>NotUsed</t>
   </si>
   <si>
     <t>Identificação da
@@ -1297,6 +1363,9 @@
     <t>message</t>
   </si>
   <si>
+    <t>Message</t>
+  </si>
+  <si>
     <t>Codigo moeda</t>
   </si>
   <si>
@@ -1333,6 +1402,9 @@
     <t>instruction</t>
   </si>
   <si>
+    <t>Review</t>
+  </si>
+  <si>
     <t>Taxa Permanência</t>
   </si>
   <si>
@@ -1343,6 +1415,9 @@
   </si>
   <si>
     <t>instruction3</t>
+  </si>
+  <si>
+    <t>Instruction3</t>
   </si>
   <si>
     <t>Campo de Multa</t>
@@ -1393,6 +1468,9 @@
   </si>
   <si>
     <t>bordero</t>
+  </si>
+  <si>
+    <t>Bordero</t>
   </si>
   <si>
     <t>Indicativo de Mensagem do Sacador/Avalista</t>
@@ -1446,6 +1524,21 @@
     <t>Mensagem responsabilidade Beneficiário:
 Quando o SEQ 34 = "01" e o SEQ 35 = "01", preencher com mensagens/intruções de responsabilidade do Beneficiário
 Quando o SEQ 34 e SEQ 35 forem preenchidos com valores diferentes destes, preencher com Brancos</t>
+  </si>
+  <si>
+    <t>Message1</t>
+  </si>
+  <si>
+    <t>Message2</t>
+  </si>
+  <si>
+    <t>Message3</t>
+  </si>
+  <si>
+    <t>Message4</t>
+  </si>
+  <si>
+    <t>Message5</t>
   </si>
   <si>
     <t>Número Sequencial do Registro no Arquivo</t>
@@ -3066,9 +3159,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -3109,9 +3202,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3124,23 +3224,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3154,16 +3271,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3172,6 +3289,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3193,47 +3317,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3247,7 +3333,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3292,7 +3385,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3304,7 +3541,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3316,127 +3553,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3448,31 +3565,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3483,71 +3576,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3570,7 +3598,63 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3583,150 +3667,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4110,22 +4203,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="20.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="6" width="20.625" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="17.75" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="20" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:7">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4147,10 +4242,19 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:7">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -4158,188 +4262,191 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A3" s="6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A4" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A5" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A6" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A7" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A8" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A9" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A10" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -4349,10 +4456,10 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -4362,10 +4469,10 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -4375,10 +4482,10 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -4388,10 +4495,10 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -4401,10 +4508,10 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -4414,222 +4521,244 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" customHeight="1" spans="1:7">
+        <v>73</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A19" s="6"/>
       <c r="B19" s="6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:7">
+        <v>77</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A20" s="6" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:7">
+        <v>81</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A21" s="6"/>
       <c r="B21" s="6" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:7">
+        <v>86</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A23" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A24" s="6" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A25" s="6" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A26" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:7">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:8">
       <c r="A27" s="6" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>109</v>
+        <v>118</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:7">
       <c r="A28" s="6" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:7">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:10">
       <c r="A29" s="4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -4637,1193 +4766,1320 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
     </row>
     <row r="30" customHeight="1" spans="1:7">
       <c r="A30" s="6" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:7">
       <c r="A31" s="6" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:7">
       <c r="A32" s="6" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:7">
       <c r="A33" s="6" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:7">
       <c r="A34" s="6" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:7">
       <c r="A35" s="6" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:7">
       <c r="A36" s="6" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:8">
       <c r="A37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:7">
+        <v>151</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:8">
       <c r="A38" s="6" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:7">
       <c r="A39" s="6" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:7">
       <c r="A40" s="6" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:7">
       <c r="A41" s="6" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:7">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:8">
       <c r="A42" s="6" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="4:7">
       <c r="D43" s="6" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="4:7">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="4:9">
       <c r="D44" s="6" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:7">
+        <v>182</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:9">
       <c r="A45" s="6" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>177</v>
+        <v>189</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:7">
       <c r="A46" s="6" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:7">
       <c r="A47" s="6" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:7">
       <c r="A48" s="6" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:7">
       <c r="A49" s="6" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:7">
       <c r="A50" s="6" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:9">
       <c r="A51" s="6" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="1:7">
+        <v>226</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:9">
       <c r="A52" s="6" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>219</v>
+        <v>232</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:7">
       <c r="A53" s="6" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="1:7">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:9">
       <c r="A54" s="6" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" spans="1:7">
+        <v>246</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:9">
       <c r="A55" s="6" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>239</v>
+        <v>252</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:7">
       <c r="A56" s="6" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:7">
       <c r="A57" s="6" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:7">
       <c r="A58" s="6" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:7">
       <c r="A59" s="6" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="60" customHeight="1" spans="1:7">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:8">
       <c r="A60" s="6" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>272</v>
+        <v>285</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:7">
       <c r="A61" s="6" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:7">
       <c r="A62" s="6" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:7">
       <c r="A63" s="6" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:7">
       <c r="A64" s="6" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:7">
       <c r="A65" s="6" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:7">
       <c r="A66" s="6" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="2:6">
       <c r="B67" s="6" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:7">
       <c r="A68" s="6" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:7">
       <c r="A69" s="6" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="70" customHeight="1" spans="1:7">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:8">
       <c r="A70" s="6" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>326</v>
+        <v>340</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="3:7">
       <c r="C71" s="6" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="72" customHeight="1" spans="1:7">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:8">
       <c r="A72" s="6" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>335</v>
+        <v>350</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="2:7">
       <c r="B73" s="6" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="D73" s="6"/>
       <c r="G73" s="2" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:7">
       <c r="A74" s="6" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="D74" s="6"/>
       <c r="E74" s="6" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:7">
       <c r="A75" s="6" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="76" customHeight="1" spans="1:7">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:9">
       <c r="A76" s="6" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="B76" s="6"/>
       <c r="D76" s="6"/>
       <c r="G76" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="77" customHeight="1" spans="2:7">
+        <v>364</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="2:9">
       <c r="B77" s="7" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="6" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="78" customHeight="1" spans="4:7">
+        <v>369</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="4:8">
       <c r="D78" s="6"/>
       <c r="E78" s="6" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="79" customHeight="1" spans="4:7">
+        <v>372</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="4:8">
       <c r="D79" s="6"/>
       <c r="E79" s="6" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="80" customHeight="1" spans="4:7">
+        <v>375</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="4:9">
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="81" customHeight="1" spans="4:7">
+        <v>378</v>
+      </c>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="4:9">
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="82" customHeight="1" spans="3:7">
+        <v>380</v>
+      </c>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="3:9">
       <c r="C82" s="6" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="D82" s="6"/>
       <c r="E82" s="6" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="83" customHeight="1" spans="2:7">
+        <v>383</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="2:9">
       <c r="B83" s="6" t="s">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="G83" s="2" t="s">
-        <v>365</v>
+        <v>386</v>
+      </c>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="2:7">
       <c r="B84" s="6" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="G84" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="85" customHeight="1" spans="2:7">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="2:9">
       <c r="B85" s="6" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="G85" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="86" customHeight="1" spans="2:7">
+        <v>391</v>
+      </c>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="2:9">
       <c r="B86" s="6" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
       <c r="G86" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="87" customHeight="1" spans="2:7">
+        <v>393</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="2:9">
       <c r="B87" s="6" t="s">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
       <c r="G87" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="88" customHeight="1" spans="2:7">
+        <v>395</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="2:9">
       <c r="B88" s="6" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="D88" s="6"/>
       <c r="G88" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="89" customHeight="1" spans="2:7">
+        <v>397</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="2:9">
       <c r="B89" s="6" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="D89" s="6"/>
       <c r="G89" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="90" customHeight="1" spans="2:7">
+        <v>399</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="2:9">
       <c r="B90" s="6" t="s">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="D90" s="6"/>
       <c r="G90" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="91" customHeight="1" spans="1:7">
+        <v>401</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="1:9">
       <c r="A91" s="6"/>
       <c r="B91" s="6" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="D91" s="6"/>
       <c r="G91" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="92" customHeight="1" spans="1:7">
+        <v>403</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="1:9">
       <c r="A92" s="6"/>
       <c r="B92" s="6" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="D92" s="6"/>
       <c r="G92" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="93" customHeight="1" spans="1:7">
+        <v>405</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="1:9">
       <c r="A93" s="6"/>
       <c r="B93" s="6" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="D93" s="6"/>
       <c r="G93" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="94" customHeight="1" spans="1:7">
+        <v>407</v>
+      </c>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="1:8">
       <c r="A94" s="6"/>
       <c r="B94" s="6" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="D94" s="6"/>
       <c r="G94" s="2" t="s">
-        <v>388</v>
+        <v>410</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="95" customHeight="1" spans="1:7">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6" t="s">
-        <v>389</v>
+        <v>412</v>
       </c>
       <c r="D95" s="6"/>
       <c r="E95" s="6" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>391</v>
+        <v>414</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="1:7">
       <c r="A96" s="6"/>
       <c r="D96" s="6"/>
       <c r="F96" s="6" t="s">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="1:7">
       <c r="A97" s="6"/>
       <c r="D97" s="6"/>
       <c r="F97" s="6" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:7">
       <c r="A98" s="6"/>
       <c r="D98" s="6" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="99" customHeight="1" spans="1:7">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="1:10">
       <c r="A99" s="6"/>
       <c r="D99" s="6" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="F99" s="6"/>
       <c r="G99" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="100" customHeight="1" spans="1:7">
+        <v>423</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="1:8">
       <c r="A100" s="6"/>
       <c r="C100" s="6" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D100" s="6"/>
       <c r="F100" s="6"/>
       <c r="G100" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="101" customHeight="1" spans="1:7">
+        <v>86</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="1:9">
       <c r="A101" s="6"/>
       <c r="C101" s="6" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="D101" s="6"/>
       <c r="F101" s="6"/>
       <c r="G101" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="102" customHeight="1" spans="1:7">
+        <v>426</v>
+      </c>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="1:9">
       <c r="A102" s="6"/>
       <c r="C102" s="6" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="D102" s="6"/>
       <c r="F102" s="6"/>
       <c r="G102" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="103" customHeight="1" spans="1:7">
+        <v>428</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="1:9">
       <c r="A103" s="6"/>
       <c r="B103" s="6" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
       <c r="F103" s="6" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>407</v>
+        <v>432</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="1:7">
@@ -5831,118 +6087,133 @@
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
       <c r="E104" s="6" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="F104" s="6"/>
       <c r="G104" s="2" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="1:7">
       <c r="A105" s="6"/>
       <c r="B105" s="6" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6" t="s">
-        <v>411</v>
+        <v>436</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>412</v>
+        <v>437</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
     </row>
     <row r="106" customHeight="1" spans="1:7">
       <c r="A106" s="6"/>
       <c r="C106" s="6" t="s">
-        <v>414</v>
+        <v>439</v>
       </c>
       <c r="D106" s="6"/>
       <c r="F106" s="6"/>
       <c r="G106" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="107" customHeight="1" spans="1:7">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="1:9">
       <c r="A107" s="6"/>
       <c r="D107" s="6"/>
       <c r="E107" s="6" t="s">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="F107" s="6"/>
       <c r="G107" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="108" customHeight="1" spans="1:7">
+        <v>442</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="1:9">
       <c r="A108" s="6" t="s">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
       <c r="E108" s="6" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="F108" s="6"/>
       <c r="G108" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="109" customHeight="1" spans="1:7">
+        <v>445</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="1:9">
       <c r="A109" s="6" t="s">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="110" customHeight="1" spans="1:7">
+        <v>449</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="1:9">
       <c r="A110" s="6" t="s">
-        <v>424</v>
+        <v>450</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
       <c r="E110" s="6" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="F110" s="6"/>
       <c r="G110" s="2" t="s">
-        <v>426</v>
+        <v>452</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="111" customHeight="1" spans="1:7">
       <c r="A111" s="6" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="112" customHeight="1" spans="1:7">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="1:10">
       <c r="A112" s="4" t="s">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -5950,28 +6221,31 @@
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
     </row>
     <row r="113" customHeight="1" spans="1:7">
       <c r="A113" s="6" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="1:7">
@@ -5981,10 +6255,10 @@
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
       <c r="F114" s="6" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>434</v>
+        <v>460</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="1:7">
@@ -5994,98 +6268,128 @@
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
       <c r="F115" s="6" t="s">
-        <v>435</v>
+        <v>461</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="116" customHeight="1" spans="1:7">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="116" customHeight="1" spans="1:9">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
       <c r="E116" s="6" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="F116" s="6"/>
       <c r="G116" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="117" customHeight="1" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="117" customHeight="1" spans="1:9">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
       <c r="E117" s="6" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="F117" s="6"/>
       <c r="G117" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="118" customHeight="1" spans="1:7">
+        <v>63</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="1:9">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
       <c r="E118" s="6" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="F118" s="6"/>
       <c r="G118" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="119" customHeight="1" spans="1:7">
+        <v>65</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="119" customHeight="1" spans="1:9">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
       <c r="E119" s="6" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="F119" s="6"/>
       <c r="G119" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="120" customHeight="1" spans="1:7">
+        <v>67</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="120" customHeight="1" spans="1:9">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
       <c r="E120" s="6" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="F120" s="6"/>
       <c r="G120" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="121" customHeight="1" spans="1:7">
       <c r="A121" s="6" t="s">
-        <v>437</v>
+        <v>468</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>438</v>
+        <v>469</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>439</v>
+        <v>470</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>439</v>
+        <v>470</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>440</v>
+        <v>471</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -6105,8 +6409,8 @@
   <sheetPr/>
   <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -6121,191 +6425,191 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>441</v>
+        <v>472</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>442</v>
+        <v>473</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>443</v>
+        <v>474</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="11" t="s">
-        <v>444</v>
+        <v>475</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="11" t="s">
-        <v>445</v>
+        <v>476</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="11" t="s">
-        <v>446</v>
+        <v>477</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="11" t="s">
-        <v>447</v>
+        <v>478</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="11" t="s">
-        <v>448</v>
+        <v>479</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="11" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="11" t="s">
-        <v>450</v>
+        <v>481</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="11" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>452</v>
+        <v>483</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="11" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="11" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="11" t="s">
-        <v>456</v>
+        <v>487</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="11" t="s">
-        <v>457</v>
+        <v>488</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>458</v>
+        <v>489</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>459</v>
+        <v>490</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="11" t="s">
-        <v>460</v>
+        <v>491</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="11" t="s">
-        <v>461</v>
+        <v>492</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="11" t="s">
-        <v>462</v>
+        <v>493</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="11" t="s">
-        <v>463</v>
+        <v>494</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="11" t="s">
-        <v>464</v>
+        <v>495</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>465</v>
+        <v>496</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>466</v>
+        <v>497</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="11" t="s">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="11" t="s">
-        <v>468</v>
+        <v>499</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="11" t="s">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>470</v>
+        <v>501</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>471</v>
+        <v>502</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="11" t="s">
-        <v>472</v>
+        <v>503</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="11" t="s">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>474</v>
+        <v>505</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>475</v>
+        <v>506</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6313,98 +6617,98 @@
         <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>441</v>
+        <v>472</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>442</v>
+        <v>473</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="10" t="s">
-        <v>476</v>
+        <v>507</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="10" t="s">
-        <v>477</v>
+        <v>508</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="10" t="s">
-        <v>478</v>
+        <v>509</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="10" t="s">
-        <v>479</v>
+        <v>510</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="10" t="s">
-        <v>480</v>
+        <v>511</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="10" t="s">
-        <v>481</v>
+        <v>512</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="10" t="s">
-        <v>482</v>
+        <v>513</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="10" t="s">
-        <v>483</v>
+        <v>514</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="10" t="s">
-        <v>484</v>
+        <v>515</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="10" t="s">
-        <v>485</v>
+        <v>516</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="10" t="s">
-        <v>486</v>
+        <v>517</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="10" t="s">
-        <v>487</v>
+        <v>518</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="10" t="s">
-        <v>488</v>
+        <v>519</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="10" t="s">
-        <v>489</v>
+        <v>520</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="10" t="s">
-        <v>490</v>
+        <v>521</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>491</v>
+        <v>522</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="10" t="s">
-        <v>492</v>
+        <v>523</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="10" t="s">
-        <v>493</v>
+        <v>524</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -6412,140 +6716,140 @@
         <v>2</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>441</v>
+        <v>472</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>442</v>
+        <v>473</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="10" t="s">
-        <v>494</v>
+        <v>525</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11" t="s">
-        <v>495</v>
+        <v>526</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="10" t="s">
-        <v>496</v>
+        <v>527</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>497</v>
+        <v>528</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>498</v>
+        <v>529</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="10" t="s">
-        <v>499</v>
+        <v>530</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>501</v>
+        <v>532</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="10" t="s">
-        <v>502</v>
+        <v>533</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>503</v>
+        <v>534</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="10" t="s">
-        <v>504</v>
+        <v>535</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>505</v>
+        <v>536</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>506</v>
+        <v>537</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="10" t="s">
-        <v>507</v>
+        <v>538</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>508</v>
+        <v>539</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>509</v>
+        <v>540</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="10" t="s">
-        <v>510</v>
+        <v>541</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>511</v>
+        <v>542</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>512</v>
+        <v>543</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="10" t="s">
-        <v>513</v>
+        <v>544</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>511</v>
+        <v>542</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>514</v>
+        <v>545</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="10" t="s">
-        <v>515</v>
+        <v>546</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>497</v>
+        <v>528</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>516</v>
+        <v>547</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="10" t="s">
-        <v>517</v>
+        <v>548</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>497</v>
+        <v>528</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>518</v>
+        <v>549</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="10" t="s">
-        <v>519</v>
+        <v>550</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>511</v>
+        <v>542</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>514</v>
+        <v>545</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="10" t="s">
-        <v>520</v>
+        <v>551</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>511</v>
+        <v>542</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>514</v>
+        <v>545</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -6553,244 +6857,244 @@
         <v>3</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>441</v>
+        <v>472</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>442</v>
+        <v>473</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="10" t="s">
-        <v>521</v>
+        <v>552</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>522</v>
+        <v>553</v>
       </c>
       <c r="C57" s="11"/>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="10" t="s">
-        <v>523</v>
+        <v>554</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="11" t="s">
-        <v>524</v>
+        <v>555</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="10" t="s">
-        <v>525</v>
+        <v>556</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>526</v>
+        <v>557</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>527</v>
+        <v>558</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="10" t="s">
-        <v>528</v>
+        <v>559</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>526</v>
+        <v>557</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>529</v>
+        <v>560</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="10" t="s">
-        <v>530</v>
+        <v>561</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>531</v>
+        <v>562</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>529</v>
+        <v>560</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="10" t="s">
-        <v>532</v>
+        <v>563</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>533</v>
+        <v>564</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>529</v>
+        <v>560</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="10" t="s">
-        <v>534</v>
+        <v>565</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>535</v>
+        <v>566</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>529</v>
+        <v>560</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="10" t="s">
-        <v>536</v>
+        <v>567</v>
       </c>
       <c r="B64" s="11"/>
       <c r="C64" s="11" t="s">
-        <v>537</v>
+        <v>568</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="10" t="s">
-        <v>538</v>
+        <v>569</v>
       </c>
       <c r="B65" s="11"/>
       <c r="C65" s="11" t="s">
-        <v>529</v>
+        <v>560</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="10" t="s">
-        <v>539</v>
+        <v>570</v>
       </c>
       <c r="B66" s="11"/>
       <c r="C66" s="11" t="s">
-        <v>518</v>
+        <v>549</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="10" t="s">
-        <v>540</v>
+        <v>571</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="11" t="s">
-        <v>541</v>
+        <v>572</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="10" t="s">
-        <v>542</v>
+        <v>573</v>
       </c>
       <c r="B68" s="11"/>
       <c r="C68" s="11" t="s">
-        <v>543</v>
+        <v>574</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="10" t="s">
-        <v>544</v>
+        <v>575</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>545</v>
+        <v>576</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>546</v>
+        <v>577</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="10" t="s">
-        <v>547</v>
+        <v>578</v>
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="11" t="s">
-        <v>548</v>
+        <v>579</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="10" t="s">
-        <v>549</v>
+        <v>580</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>550</v>
+        <v>581</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>551</v>
+        <v>582</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="10" t="s">
-        <v>552</v>
+        <v>583</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>531</v>
+        <v>562</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>548</v>
+        <v>579</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="10" t="s">
-        <v>553</v>
+        <v>584</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>554</v>
+        <v>585</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>555</v>
+        <v>586</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="10" t="s">
-        <v>556</v>
+        <v>587</v>
       </c>
       <c r="B74" s="11"/>
       <c r="C74" s="11" t="s">
-        <v>529</v>
+        <v>560</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="10" t="s">
-        <v>557</v>
+        <v>588</v>
       </c>
       <c r="B75" s="11"/>
       <c r="C75" s="11" t="s">
-        <v>546</v>
+        <v>577</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="10" t="s">
-        <v>558</v>
+        <v>589</v>
       </c>
       <c r="B76" s="11"/>
       <c r="C76" s="11" t="s">
-        <v>559</v>
+        <v>590</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="10" t="s">
-        <v>560</v>
+        <v>591</v>
       </c>
       <c r="B77" s="11"/>
       <c r="C77" s="11" t="s">
-        <v>546</v>
+        <v>577</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="10" t="s">
-        <v>561</v>
+        <v>592</v>
       </c>
       <c r="B78" s="11"/>
       <c r="C78" s="11" t="s">
-        <v>562</v>
+        <v>593</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="10" t="s">
-        <v>563</v>
+        <v>594</v>
       </c>
       <c r="B79" s="11"/>
       <c r="C79" s="11" t="s">
-        <v>564</v>
+        <v>595</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="10" t="s">
-        <v>565</v>
+        <v>596</v>
       </c>
       <c r="B80" s="11"/>
       <c r="C80" s="11" t="s">
-        <v>566</v>
+        <v>597</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -6798,70 +7102,70 @@
         <v>4</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>441</v>
+        <v>472</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>442</v>
+        <v>473</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="10" t="s">
-        <v>567</v>
+        <v>598</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="10" t="s">
-        <v>568</v>
+        <v>599</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="10" t="s">
-        <v>569</v>
+        <v>600</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="10" t="s">
-        <v>570</v>
+        <v>601</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="10" t="s">
-        <v>571</v>
+        <v>602</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="10" t="s">
-        <v>572</v>
+        <v>603</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="10" t="s">
-        <v>573</v>
+        <v>604</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="10" t="s">
-        <v>574</v>
+        <v>605</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="10" t="s">
-        <v>575</v>
+        <v>606</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="10" t="s">
-        <v>576</v>
+        <v>607</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="10" t="s">
-        <v>577</v>
+        <v>608</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="10" t="s">
-        <v>578</v>
+        <v>609</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -6869,55 +7173,55 @@
         <v>5</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>441</v>
+        <v>472</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>442</v>
+        <v>473</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="10" t="s">
-        <v>579</v>
+        <v>610</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="10" t="s">
-        <v>580</v>
+        <v>611</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="10" t="s">
-        <v>581</v>
+        <v>612</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="10" t="s">
-        <v>582</v>
+        <v>613</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="10" t="s">
-        <v>583</v>
+        <v>614</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="10" t="s">
-        <v>584</v>
+        <v>615</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="10" t="s">
-        <v>585</v>
+        <v>616</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="10" t="s">
-        <v>586</v>
+        <v>617</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="10" t="s">
-        <v>587</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -6980,7 +7284,7 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -6991,361 +7295,361 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A3" s="6" t="s">
-        <v>588</v>
+        <v>619</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>589</v>
+        <v>620</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A4" s="6" t="s">
-        <v>590</v>
+        <v>621</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>591</v>
+        <v>622</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>592</v>
+        <v>623</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>592</v>
+        <v>623</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>593</v>
+        <v>624</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>592</v>
+        <v>623</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A5" s="6" t="s">
-        <v>594</v>
+        <v>625</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>595</v>
+        <v>626</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>596</v>
+        <v>627</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>596</v>
+        <v>627</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>597</v>
+        <v>628</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>596</v>
+        <v>627</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A6" s="6" t="s">
-        <v>598</v>
+        <v>629</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>599</v>
+        <v>630</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>600</v>
+        <v>631</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A7" s="6" t="s">
-        <v>601</v>
+        <v>632</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>602</v>
+        <v>633</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>603</v>
+        <v>634</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A8" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A9" s="6" t="s">
-        <v>604</v>
+        <v>635</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>605</v>
+        <v>636</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A10" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A11" s="6" t="s">
-        <v>606</v>
+        <v>637</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="5:7">
       <c r="E13" s="6" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A14" s="6" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>607</v>
+        <v>638</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>608</v>
+        <v>639</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>609</v>
+        <v>640</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>610</v>
+        <v>641</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>611</v>
+        <v>642</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>612</v>
+        <v>643</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A16" s="6" t="s">
-        <v>613</v>
+        <v>644</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>611</v>
+        <v>642</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A17" s="6" t="s">
-        <v>614</v>
+        <v>645</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>615</v>
+        <v>646</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>616</v>
+        <v>647</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B18" s="6" t="s">
-        <v>617</v>
+        <v>648</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>618</v>
+        <v>649</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>619</v>
+        <v>650</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>618</v>
+        <v>649</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" customHeight="1" spans="4:7">
       <c r="D19" s="6" t="s">
-        <v>620</v>
+        <v>651</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>620</v>
+        <v>651</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" customHeight="1" spans="6:7">
       <c r="F20" s="6" t="s">
-        <v>621</v>
+        <v>652</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>622</v>
+        <v>653</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B21" s="6" t="s">
-        <v>623</v>
+        <v>654</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>624</v>
+        <v>655</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B22" s="6" t="s">
-        <v>625</v>
+        <v>656</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>626</v>
+        <v>657</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>626</v>
+        <v>657</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="D23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="8" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A24" s="6" t="s">
-        <v>627</v>
+        <v>658</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -7355,58 +7659,58 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A26" s="6" t="s">
-        <v>628</v>
+        <v>659</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>629</v>
+        <v>660</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>630</v>
+        <v>661</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A27" s="6" t="s">
-        <v>631</v>
+        <v>662</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>632</v>
+        <v>663</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A28" s="4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -7417,355 +7721,355 @@
     </row>
     <row r="29" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A29" s="6" t="s">
-        <v>588</v>
+        <v>619</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A30" s="6"/>
       <c r="B30" s="6" t="s">
-        <v>633</v>
+        <v>664</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
-        <v>634</v>
+        <v>665</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A32" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A33" s="6" t="s">
-        <v>604</v>
+        <v>635</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A34" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A35" s="6" t="s">
-        <v>606</v>
+        <v>637</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A36" s="6" t="s">
-        <v>627</v>
+        <v>658</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A37" s="6" t="s">
-        <v>635</v>
+        <v>666</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>636</v>
+        <v>667</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A38" s="6" t="s">
-        <v>637</v>
+        <v>668</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>638</v>
+        <v>669</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>639</v>
+        <v>670</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" customHeight="1" spans="4:8">
       <c r="D39" s="6"/>
       <c r="E39" s="6" t="s">
-        <v>640</v>
+        <v>671</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="1" t="s">
-        <v>641</v>
+        <v>672</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A40" s="6" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>642</v>
+        <v>673</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A41" s="6" t="s">
-        <v>643</v>
+        <v>674</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>644</v>
+        <v>675</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A42" s="6"/>
       <c r="D42" s="6" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="E42" s="6"/>
       <c r="G42" s="2" t="s">
-        <v>645</v>
+        <v>676</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B43" s="6" t="s">
-        <v>646</v>
+        <v>677</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>647</v>
+        <v>678</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>647</v>
+        <v>678</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" customHeight="1" spans="4:8">
       <c r="D44" s="6" t="s">
-        <v>648</v>
+        <v>679</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="1" t="s">
-        <v>641</v>
+        <v>672</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" customHeight="1" spans="4:7">
       <c r="D45" s="6" t="s">
-        <v>649</v>
+        <v>680</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>649</v>
+        <v>680</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B46" s="7" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="D46" s="6"/>
       <c r="G46" s="2" t="s">
-        <v>650</v>
+        <v>681</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B47" s="7"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6" t="s">
-        <v>651</v>
+        <v>682</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A48" s="6" t="s">
-        <v>652</v>
+        <v>683</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A49" s="6" t="s">
-        <v>653</v>
+        <v>684</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>654</v>
+        <v>685</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>655</v>
+        <v>686</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>656</v>
+        <v>687</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A50" s="6" t="s">
-        <v>657</v>
+        <v>688</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>658</v>
+        <v>689</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>659</v>
+        <v>690</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>659</v>
+        <v>690</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>660</v>
+        <v>691</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>661</v>
+        <v>692</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>659</v>
+        <v>690</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" customHeight="1" spans="2:7">
@@ -7773,10 +8077,10 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6" t="s">
-        <v>662</v>
+        <v>693</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" customHeight="1" spans="2:7">
@@ -7784,10 +8088,10 @@
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="F52" s="6" t="s">
-        <v>663</v>
+        <v>694</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" customHeight="1" spans="2:8">
@@ -7795,459 +8099,459 @@
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6" t="s">
-        <v>664</v>
+        <v>695</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="1" t="s">
-        <v>665</v>
+        <v>696</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A54" s="6" t="s">
-        <v>666</v>
+        <v>697</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6" t="s">
-        <v>667</v>
+        <v>698</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>668</v>
+        <v>699</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A55" s="6" t="s">
-        <v>669</v>
+        <v>700</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>670</v>
+        <v>701</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>671</v>
+        <v>702</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A56" s="6" t="s">
-        <v>672</v>
+        <v>703</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A57" s="6" t="s">
-        <v>673</v>
+        <v>704</v>
       </c>
       <c r="E57" s="6"/>
       <c r="G57" s="2" t="s">
-        <v>674</v>
+        <v>705</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6" t="s">
-        <v>675</v>
+        <v>706</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>676</v>
+        <v>707</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6" t="s">
-        <v>677</v>
+        <v>708</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>678</v>
+        <v>709</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" customHeight="1" spans="6:7">
       <c r="F60" s="6" t="s">
-        <v>679</v>
+        <v>710</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>680</v>
+        <v>711</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" customHeight="1" spans="6:7">
       <c r="F61" s="6" t="s">
-        <v>681</v>
+        <v>712</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>682</v>
+        <v>713</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" customHeight="1" spans="5:7">
       <c r="E62" s="6" t="s">
-        <v>683</v>
+        <v>714</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="2" t="s">
-        <v>684</v>
+        <v>715</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" customHeight="1" spans="5:7">
       <c r="E63" s="6" t="s">
-        <v>685</v>
+        <v>716</v>
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="2" t="s">
-        <v>686</v>
+        <v>717</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A64" s="6" t="s">
-        <v>687</v>
+        <v>718</v>
       </c>
       <c r="E64" s="6"/>
       <c r="G64" s="2" t="s">
-        <v>688</v>
+        <v>719</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A65" s="6" t="s">
-        <v>689</v>
+        <v>720</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>690</v>
+        <v>721</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>691</v>
+        <v>722</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>692</v>
+        <v>723</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>693</v>
+        <v>724</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>694</v>
+        <v>725</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A66" s="6"/>
       <c r="B66" s="6" t="s">
-        <v>695</v>
+        <v>726</v>
       </c>
       <c r="E66" s="6"/>
       <c r="G66" s="9" t="s">
-        <v>696</v>
+        <v>727</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B67" s="6"/>
       <c r="C67" s="6" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A68" s="6"/>
       <c r="B68" s="6" t="s">
-        <v>697</v>
+        <v>728</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A69" s="6" t="s">
-        <v>698</v>
+        <v>729</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>699</v>
+        <v>730</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>700</v>
+        <v>731</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>700</v>
+        <v>731</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
     </row>
     <row r="70" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A70" s="6" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>701</v>
+        <v>732</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>702</v>
+        <v>733</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A71" s="6" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>703</v>
+        <v>734</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>704</v>
+        <v>735</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A72" s="6" t="s">
-        <v>609</v>
+        <v>640</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>705</v>
+        <v>736</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>706</v>
+        <v>737</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>707</v>
+        <v>738</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
     </row>
     <row r="73" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A73" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>708</v>
+        <v>739</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>709</v>
+        <v>740</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>710</v>
+        <v>741</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A74" s="6" t="s">
-        <v>604</v>
+        <v>635</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>711</v>
+        <v>742</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>712</v>
+        <v>743</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A75" s="6" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>713</v>
+        <v>744</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="76" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A76" s="6" t="s">
-        <v>714</v>
+        <v>745</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>625</v>
+        <v>656</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>626</v>
+        <v>657</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>626</v>
+        <v>657</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>715</v>
+        <v>746</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>716</v>
+        <v>747</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>626</v>
+        <v>657</v>
       </c>
     </row>
     <row r="77" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A77" s="6" t="s">
-        <v>717</v>
+        <v>748</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>718</v>
+        <v>749</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>719</v>
+        <v>750</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>719</v>
+        <v>750</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>720</v>
+        <v>751</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>721</v>
+        <v>752</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>719</v>
+        <v>750</v>
       </c>
     </row>
     <row r="78" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A78" s="6" t="s">
-        <v>722</v>
+        <v>753</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>723</v>
+        <v>754</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>724</v>
+        <v>755</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>725</v>
+        <v>756</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>726</v>
+        <v>757</v>
       </c>
     </row>
     <row r="79" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A79" s="6" t="s">
-        <v>727</v>
+        <v>758</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>728</v>
+        <v>759</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>729</v>
+        <v>760</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>730</v>
+        <v>761</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
     </row>
     <row r="80" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A80" s="6" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>731</v>
+        <v>762</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>732</v>
+        <v>763</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>733</v>
+        <v>764</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="81" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A81" s="6" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>734</v>
+        <v>765</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>735</v>
+        <v>766</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>736</v>
+        <v>767</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
     </row>
     <row r="82" customFormat="1" customHeight="1" spans="1:16384">
       <c r="A82" s="6" t="s">
-        <v>737</v>
+        <v>768</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>738</v>
+        <v>769</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>739</v>
+        <v>770</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -24629,143 +24933,143 @@
     </row>
     <row r="83" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A83" s="6" t="s">
-        <v>740</v>
+        <v>771</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>741</v>
+        <v>772</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>742</v>
+        <v>773</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>742</v>
+        <v>773</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>743</v>
+        <v>774</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>744</v>
+        <v>775</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>742</v>
+        <v>773</v>
       </c>
     </row>
     <row r="84" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A84" s="6" t="s">
-        <v>745</v>
+        <v>776</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>746</v>
+        <v>777</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>747</v>
+        <v>778</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>748</v>
+        <v>779</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>749</v>
+        <v>780</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>750</v>
+        <v>781</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>748</v>
+        <v>779</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A85" s="6"/>
       <c r="B85" s="6" t="s">
-        <v>751</v>
+        <v>782</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6" t="s">
-        <v>752</v>
+        <v>783</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
     </row>
     <row r="86" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A86" s="6" t="s">
-        <v>753</v>
+        <v>784</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>754</v>
+        <v>785</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>755</v>
+        <v>786</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>756</v>
+        <v>787</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>757</v>
+        <v>788</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>755</v>
+        <v>786</v>
       </c>
     </row>
     <row r="87" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A87" s="6" t="s">
-        <v>758</v>
+        <v>789</v>
       </c>
       <c r="B87" s="6"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6" t="s">
-        <v>759</v>
+        <v>790</v>
       </c>
       <c r="F87" s="6"/>
       <c r="G87" s="2" t="s">
-        <v>760</v>
+        <v>791</v>
       </c>
     </row>
     <row r="88" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A88" s="6" t="s">
-        <v>761</v>
+        <v>792</v>
       </c>
       <c r="B88" s="6"/>
       <c r="D88" s="6"/>
       <c r="E88" s="6" t="s">
-        <v>762</v>
+        <v>793</v>
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="2" t="s">
-        <v>763</v>
+        <v>794</v>
       </c>
     </row>
     <row r="89" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A89" s="6" t="s">
-        <v>764</v>
+        <v>795</v>
       </c>
       <c r="B89" s="6"/>
       <c r="D89" s="6"/>
       <c r="E89" s="6" t="s">
-        <v>765</v>
+        <v>796</v>
       </c>
       <c r="F89" s="6"/>
       <c r="G89" s="2" t="s">
-        <v>766</v>
+        <v>797</v>
       </c>
     </row>
     <row r="90" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A90" s="6" t="s">
-        <v>767</v>
+        <v>798</v>
       </c>
       <c r="B90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6" t="s">
-        <v>768</v>
+        <v>799</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>769</v>
+        <v>800</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>770</v>
+        <v>801</v>
       </c>
     </row>
     <row r="91" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -24774,146 +25078,146 @@
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6" t="s">
-        <v>771</v>
+        <v>802</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>769</v>
+        <v>800</v>
       </c>
     </row>
     <row r="92" s="1" customFormat="1" customHeight="1" spans="6:7">
       <c r="F92" s="6" t="s">
-        <v>772</v>
+        <v>803</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
     </row>
     <row r="93" s="1" customFormat="1" customHeight="1" spans="4:7">
       <c r="D93" s="6" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
     </row>
     <row r="94" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A94" s="6" t="s">
-        <v>773</v>
+        <v>804</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>774</v>
+        <v>805</v>
       </c>
       <c r="F94" s="6"/>
       <c r="G94" s="2" t="s">
-        <v>775</v>
+        <v>806</v>
       </c>
     </row>
     <row r="95" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A95" s="6" t="s">
-        <v>776</v>
+        <v>807</v>
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="2" t="s">
-        <v>777</v>
+        <v>808</v>
       </c>
     </row>
     <row r="96" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B96" s="6" t="s">
-        <v>778</v>
+        <v>809</v>
       </c>
       <c r="F96" s="6"/>
       <c r="G96" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B97" s="6" t="s">
-        <v>779</v>
+        <v>810</v>
       </c>
       <c r="F97" s="6"/>
       <c r="G97" s="2" t="s">
-        <v>780</v>
+        <v>811</v>
       </c>
     </row>
     <row r="98" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B98" s="6" t="s">
-        <v>781</v>
+        <v>812</v>
       </c>
       <c r="F98" s="6"/>
       <c r="G98" s="2" t="s">
-        <v>782</v>
+        <v>813</v>
       </c>
     </row>
     <row r="99" s="1" customFormat="1" customHeight="1" spans="3:7">
       <c r="C99" s="6" t="s">
-        <v>783</v>
+        <v>814</v>
       </c>
       <c r="F99" s="6"/>
       <c r="G99" s="2" t="s">
-        <v>783</v>
+        <v>814</v>
       </c>
     </row>
     <row r="100" s="1" customFormat="1" customHeight="1" spans="3:7">
       <c r="C100" s="6" t="s">
-        <v>784</v>
+        <v>815</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>784</v>
+        <v>815</v>
       </c>
     </row>
     <row r="101" s="1" customFormat="1" customHeight="1" spans="3:7">
       <c r="C101" s="6" t="s">
-        <v>785</v>
+        <v>816</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>785</v>
+        <v>816</v>
       </c>
     </row>
     <row r="102" s="1" customFormat="1" customHeight="1" spans="3:7">
       <c r="C102" s="6" t="s">
-        <v>786</v>
+        <v>817</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>786</v>
+        <v>817</v>
       </c>
     </row>
     <row r="103" s="1" customFormat="1" customHeight="1" spans="3:7">
       <c r="C103" s="6" t="s">
-        <v>787</v>
+        <v>818</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>787</v>
+        <v>818</v>
       </c>
     </row>
     <row r="104" s="1" customFormat="1" customHeight="1" spans="3:7">
       <c r="C104" s="6" t="s">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>391</v>
+        <v>414</v>
       </c>
     </row>
     <row r="105" s="1" customFormat="1" customHeight="1" spans="3:7">
       <c r="C105" s="6"/>
       <c r="E105" s="6" t="s">
-        <v>788</v>
+        <v>819</v>
       </c>
       <c r="F105" s="6"/>
       <c r="G105" s="2" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
     </row>
     <row r="106" s="1" customFormat="1" customHeight="1" spans="3:7">
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
       <c r="F106" s="6" t="s">
-        <v>789</v>
+        <v>820</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>790</v>
+        <v>821</v>
       </c>
     </row>
     <row r="107" s="1" customFormat="1" customHeight="1" spans="2:7">
@@ -24921,10 +25225,10 @@
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
       <c r="F107" s="6" t="s">
-        <v>791</v>
+        <v>822</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>792</v>
+        <v>823</v>
       </c>
     </row>
     <row r="108" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -24932,10 +25236,10 @@
       <c r="B108" s="6"/>
       <c r="D108" s="6"/>
       <c r="F108" s="6" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="109" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -24944,10 +25248,10 @@
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
       <c r="F109" s="6" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
     </row>
     <row r="110" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -24956,10 +25260,10 @@
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
       <c r="F110" s="6" t="s">
-        <v>621</v>
+        <v>652</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>622</v>
+        <v>653</v>
       </c>
     </row>
     <row r="111" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -24968,20 +25272,20 @@
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
       <c r="F111" s="6" t="s">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>793</v>
+        <v>824</v>
       </c>
     </row>
     <row r="112" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B112" s="6"/>
       <c r="D112" s="6" t="s">
-        <v>794</v>
+        <v>825</v>
       </c>
       <c r="E112" s="6"/>
       <c r="G112" s="2" t="s">
-        <v>795</v>
+        <v>826</v>
       </c>
     </row>
     <row r="113" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -24989,31 +25293,31 @@
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
       <c r="D113" s="6" t="s">
-        <v>796</v>
+        <v>827</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
       <c r="G113" s="2" t="s">
-        <v>797</v>
+        <v>828</v>
       </c>
     </row>
     <row r="114" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A114" s="6" t="s">
-        <v>798</v>
+        <v>829</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>799</v>
+        <v>830</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>798</v>
+        <v>829</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>800</v>
+        <v>831</v>
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
       <c r="G114" s="2" t="s">
-        <v>798</v>
+        <v>829</v>
       </c>
     </row>
     <row r="115" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -25023,38 +25327,38 @@
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
       <c r="F115" s="6" t="s">
-        <v>630</v>
+        <v>661</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>801</v>
+        <v>832</v>
       </c>
     </row>
     <row r="116" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A116" s="6" t="s">
-        <v>631</v>
+        <v>662</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>802</v>
+        <v>833</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>440</v>
+        <v>471</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A117" s="4" t="s">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -25065,91 +25369,91 @@
     </row>
     <row r="118" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A118" s="6" t="s">
-        <v>588</v>
+        <v>619</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>803</v>
+        <v>834</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A119" s="6" t="s">
-        <v>804</v>
+        <v>835</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>805</v>
+        <v>836</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>592</v>
+        <v>623</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>592</v>
+        <v>623</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>806</v>
+        <v>837</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>807</v>
+        <v>838</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>592</v>
+        <v>623</v>
       </c>
     </row>
     <row r="120" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A120" s="6" t="s">
-        <v>808</v>
+        <v>839</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>809</v>
+        <v>840</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>600</v>
+        <v>631</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="121" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A121" s="6" t="s">
-        <v>810</v>
+        <v>841</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>612</v>
+        <v>643</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="122" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -25158,563 +25462,563 @@
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
       <c r="E122" s="6" t="s">
-        <v>811</v>
+        <v>842</v>
       </c>
       <c r="F122" s="6"/>
       <c r="G122" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="123" s="1" customFormat="1" customHeight="1" spans="5:7">
       <c r="E123" s="6" t="s">
-        <v>812</v>
+        <v>843</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>813</v>
+        <v>844</v>
       </c>
     </row>
     <row r="124" s="1" customFormat="1" customHeight="1" spans="3:7">
       <c r="C124" s="6"/>
       <c r="E124" s="6" t="s">
-        <v>814</v>
+        <v>845</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
     </row>
     <row r="125" s="1" customFormat="1" customHeight="1" spans="3:7">
       <c r="C125" s="6"/>
       <c r="E125" s="6" t="s">
-        <v>815</v>
+        <v>846</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="126" s="1" customFormat="1" customHeight="1" spans="3:7">
       <c r="C126" s="6"/>
       <c r="E126" s="6" t="s">
-        <v>816</v>
+        <v>847</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
     </row>
     <row r="127" customHeight="1" spans="3:7">
       <c r="C127" s="6"/>
       <c r="E127" s="6" t="s">
-        <v>817</v>
+        <v>848</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
     </row>
     <row r="128" customHeight="1" spans="3:7">
       <c r="C128" s="6"/>
       <c r="E128" s="6" t="s">
-        <v>818</v>
+        <v>849</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
     </row>
     <row r="129" customHeight="1" spans="3:7">
       <c r="C129" s="6"/>
       <c r="E129" s="6" t="s">
-        <v>819</v>
+        <v>850</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>820</v>
+        <v>851</v>
       </c>
     </row>
     <row r="130" customHeight="1" spans="2:7">
       <c r="B130" s="6" t="s">
-        <v>821</v>
+        <v>852</v>
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="6" t="s">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>822</v>
+        <v>853</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>434</v>
+        <v>460</v>
       </c>
     </row>
     <row r="131" customHeight="1" spans="2:7">
       <c r="B131" s="6" t="s">
-        <v>823</v>
+        <v>854</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="E131" s="6"/>
       <c r="G131" s="2" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="2:7">
       <c r="B132" s="6" t="s">
-        <v>824</v>
+        <v>855</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
       <c r="E132" s="6"/>
       <c r="G132" s="2" t="s">
-        <v>825</v>
+        <v>856</v>
       </c>
     </row>
     <row r="133" customHeight="1" spans="1:7">
       <c r="A133" s="6" t="s">
-        <v>826</v>
+        <v>857</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="6" t="s">
-        <v>827</v>
+        <v>858</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>828</v>
+        <v>859</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>827</v>
+        <v>858</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="1:7">
       <c r="A134" s="6" t="s">
-        <v>829</v>
+        <v>860</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="6" t="s">
-        <v>830</v>
+        <v>861</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>831</v>
+        <v>862</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>830</v>
+        <v>861</v>
       </c>
     </row>
     <row r="135" customHeight="1" spans="1:7">
       <c r="A135" s="6" t="s">
-        <v>832</v>
+        <v>863</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="6" t="s">
-        <v>833</v>
+        <v>864</v>
       </c>
       <c r="E135" s="6"/>
       <c r="F135" s="6" t="s">
-        <v>834</v>
+        <v>865</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>835</v>
+        <v>866</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="1:7">
       <c r="A136" s="6" t="s">
-        <v>836</v>
+        <v>867</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="6" t="s">
-        <v>837</v>
+        <v>868</v>
       </c>
       <c r="E136" s="6"/>
       <c r="G136" s="2" t="s">
-        <v>837</v>
+        <v>868</v>
       </c>
     </row>
     <row r="137" customHeight="1" spans="1:7">
       <c r="A137" s="6" t="s">
-        <v>838</v>
+        <v>869</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="6" t="s">
-        <v>839</v>
+        <v>870</v>
       </c>
       <c r="E137" s="6"/>
       <c r="G137" s="2" t="s">
-        <v>839</v>
+        <v>870</v>
       </c>
     </row>
     <row r="138" customHeight="1" spans="1:7">
       <c r="A138" s="6" t="s">
-        <v>840</v>
+        <v>871</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="6" t="s">
-        <v>841</v>
+        <v>872</v>
       </c>
       <c r="E138" s="6"/>
       <c r="G138" s="2" t="s">
-        <v>842</v>
+        <v>873</v>
       </c>
     </row>
     <row r="139" customHeight="1" spans="3:7">
       <c r="C139" s="6"/>
       <c r="D139" s="6" t="s">
-        <v>843</v>
+        <v>874</v>
       </c>
       <c r="E139" s="6"/>
       <c r="G139" s="2" t="s">
-        <v>843</v>
+        <v>874</v>
       </c>
     </row>
     <row r="140" customHeight="1" spans="3:7">
       <c r="C140" s="6"/>
       <c r="D140" s="6" t="s">
-        <v>844</v>
+        <v>875</v>
       </c>
       <c r="E140" s="6"/>
       <c r="G140" s="2" t="s">
-        <v>844</v>
+        <v>875</v>
       </c>
     </row>
     <row r="141" customHeight="1" spans="3:7">
       <c r="C141" s="6"/>
       <c r="D141" s="6" t="s">
-        <v>845</v>
+        <v>876</v>
       </c>
       <c r="E141" s="6"/>
       <c r="G141" s="2" t="s">
-        <v>846</v>
+        <v>877</v>
       </c>
     </row>
     <row r="142" customHeight="1" spans="1:7">
       <c r="A142" s="6" t="s">
-        <v>847</v>
+        <v>878</v>
       </c>
       <c r="C142" s="6"/>
       <c r="E142" s="6"/>
       <c r="F142" s="6" t="s">
-        <v>848</v>
+        <v>879</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>849</v>
+        <v>880</v>
       </c>
     </row>
     <row r="143" customHeight="1" spans="1:7">
       <c r="A143" s="6" t="s">
-        <v>850</v>
+        <v>881</v>
       </c>
       <c r="C143" s="6"/>
       <c r="E143" s="6"/>
       <c r="F143" s="6" t="s">
-        <v>851</v>
+        <v>882</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>852</v>
+        <v>883</v>
       </c>
     </row>
     <row r="144" customHeight="1" spans="1:7">
       <c r="A144" s="6" t="s">
-        <v>853</v>
+        <v>884</v>
       </c>
       <c r="C144" s="6"/>
       <c r="E144" s="6"/>
       <c r="F144" s="6" t="s">
-        <v>854</v>
+        <v>885</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>855</v>
+        <v>886</v>
       </c>
     </row>
     <row r="145" customHeight="1" spans="1:7">
       <c r="A145" s="6" t="s">
-        <v>856</v>
+        <v>887</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
       <c r="E145" s="6"/>
       <c r="F145" s="6" t="s">
-        <v>857</v>
+        <v>888</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>858</v>
+        <v>889</v>
       </c>
     </row>
     <row r="146" customHeight="1" spans="1:7">
       <c r="A146" s="6" t="s">
-        <v>859</v>
+        <v>890</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
       <c r="E146" s="6"/>
       <c r="F146" s="6" t="s">
-        <v>860</v>
+        <v>891</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>861</v>
+        <v>892</v>
       </c>
     </row>
     <row r="147" customHeight="1" spans="1:7">
       <c r="A147" s="6" t="s">
-        <v>862</v>
+        <v>893</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
       <c r="E147" s="6"/>
       <c r="F147" s="6" t="s">
-        <v>863</v>
+        <v>894</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>864</v>
+        <v>895</v>
       </c>
     </row>
     <row r="148" customHeight="1" spans="1:7">
       <c r="A148" s="6" t="s">
-        <v>865</v>
+        <v>896</v>
       </c>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
       <c r="G148" s="2" t="s">
-        <v>866</v>
+        <v>897</v>
       </c>
     </row>
     <row r="149" customHeight="1" spans="1:7">
       <c r="A149" s="6" t="s">
-        <v>867</v>
+        <v>898</v>
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
       <c r="G149" s="2" t="s">
-        <v>868</v>
+        <v>899</v>
       </c>
     </row>
     <row r="150" customHeight="1" spans="1:7">
       <c r="A150" s="6" t="s">
-        <v>869</v>
+        <v>900</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
       <c r="G150" s="2" t="s">
-        <v>870</v>
+        <v>901</v>
       </c>
     </row>
     <row r="151" customHeight="1" spans="1:7">
       <c r="A151" s="6"/>
       <c r="B151" s="6" t="s">
-        <v>871</v>
+        <v>902</v>
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
       <c r="G151" s="2" t="s">
-        <v>872</v>
+        <v>903</v>
       </c>
     </row>
     <row r="152" customHeight="1" spans="1:7">
       <c r="A152" s="6"/>
       <c r="B152" s="6" t="s">
-        <v>873</v>
+        <v>904</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
       <c r="G152" s="2" t="s">
-        <v>874</v>
+        <v>905</v>
       </c>
     </row>
     <row r="153" customHeight="1" spans="1:7">
       <c r="A153" s="6"/>
       <c r="B153" s="6" t="s">
-        <v>875</v>
+        <v>906</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
       <c r="G153" s="2" t="s">
-        <v>876</v>
+        <v>907</v>
       </c>
     </row>
     <row r="154" customHeight="1" spans="1:7">
       <c r="A154" s="6"/>
       <c r="B154" s="6" t="s">
-        <v>877</v>
+        <v>908</v>
       </c>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
       <c r="G154" s="2" t="s">
-        <v>878</v>
+        <v>909</v>
       </c>
     </row>
     <row r="155" customHeight="1" spans="1:7">
       <c r="A155" s="6"/>
       <c r="B155" s="6" t="s">
-        <v>879</v>
+        <v>910</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
       <c r="G155" s="2" t="s">
-        <v>880</v>
+        <v>911</v>
       </c>
     </row>
     <row r="156" customHeight="1" spans="1:7">
       <c r="A156" s="6"/>
       <c r="B156" s="6" t="s">
-        <v>881</v>
+        <v>912</v>
       </c>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
       <c r="G156" s="2" t="s">
-        <v>882</v>
+        <v>913</v>
       </c>
     </row>
     <row r="157" customHeight="1" spans="1:7">
       <c r="A157" s="6"/>
       <c r="B157" s="7" t="s">
-        <v>883</v>
+        <v>914</v>
       </c>
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
       <c r="G157" s="2" t="s">
-        <v>884</v>
+        <v>915</v>
       </c>
     </row>
     <row r="158" customHeight="1" spans="1:7">
       <c r="A158" s="6"/>
       <c r="B158" s="6" t="s">
-        <v>885</v>
+        <v>916</v>
       </c>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
       <c r="G158" s="2" t="s">
-        <v>886</v>
+        <v>917</v>
       </c>
     </row>
     <row r="159" customHeight="1" spans="1:7">
       <c r="A159" s="6"/>
       <c r="B159" s="6" t="s">
-        <v>887</v>
+        <v>918</v>
       </c>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
       <c r="G159" s="2" t="s">
-        <v>888</v>
+        <v>919</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="1:7">
       <c r="A160" s="6"/>
       <c r="B160" s="6" t="s">
-        <v>889</v>
+        <v>920</v>
       </c>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
       <c r="G160" s="2" t="s">
-        <v>890</v>
+        <v>921</v>
       </c>
     </row>
     <row r="161" customHeight="1" spans="1:7">
       <c r="A161" s="6"/>
       <c r="B161" s="6" t="s">
-        <v>891</v>
+        <v>922</v>
       </c>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
       <c r="G161" s="2" t="s">
-        <v>892</v>
+        <v>923</v>
       </c>
     </row>
     <row r="162" customHeight="1" spans="1:7">
       <c r="A162" s="6"/>
       <c r="B162" s="6" t="s">
-        <v>893</v>
+        <v>924</v>
       </c>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
       <c r="G162" s="2" t="s">
-        <v>894</v>
+        <v>925</v>
       </c>
     </row>
     <row r="163" customHeight="1" spans="1:7">
       <c r="A163" s="6"/>
       <c r="B163" s="6" t="s">
-        <v>895</v>
+        <v>926</v>
       </c>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
       <c r="G163" s="2" t="s">
-        <v>896</v>
+        <v>927</v>
       </c>
     </row>
     <row r="164" customHeight="1" spans="1:7">
       <c r="A164" s="6"/>
       <c r="B164" s="6" t="s">
-        <v>897</v>
+        <v>928</v>
       </c>
       <c r="C164" s="6"/>
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
       <c r="G164" s="2" t="s">
-        <v>898</v>
+        <v>929</v>
       </c>
     </row>
     <row r="165" customHeight="1" spans="1:7">
       <c r="A165" s="6"/>
       <c r="B165" s="6" t="s">
-        <v>899</v>
+        <v>930</v>
       </c>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
       <c r="G165" s="2" t="s">
-        <v>900</v>
+        <v>931</v>
       </c>
     </row>
     <row r="166" customHeight="1" spans="1:7">
       <c r="A166" s="6"/>
       <c r="B166" s="6" t="s">
-        <v>901</v>
+        <v>932</v>
       </c>
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
       <c r="G166" s="2" t="s">
-        <v>902</v>
+        <v>933</v>
       </c>
     </row>
     <row r="167" customHeight="1" spans="1:7">
       <c r="A167" s="6"/>
       <c r="B167" s="6" t="s">
-        <v>903</v>
+        <v>934</v>
       </c>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
       <c r="G167" s="2" t="s">
-        <v>904</v>
+        <v>935</v>
       </c>
     </row>
     <row r="168" customHeight="1" spans="1:7">
@@ -25723,11 +26027,11 @@
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
       <c r="E168" s="6" t="s">
-        <v>905</v>
+        <v>936</v>
       </c>
       <c r="F168" s="6"/>
       <c r="G168" s="2" t="s">
-        <v>906</v>
+        <v>937</v>
       </c>
     </row>
     <row r="169" customHeight="1" spans="1:7">
@@ -25735,36 +26039,36 @@
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
       <c r="D169" s="6" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>630</v>
+        <v>661</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="170" customHeight="1" spans="1:7">
       <c r="A170" s="6" t="s">
-        <v>631</v>
+        <v>662</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>907</v>
+        <v>938</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>440</v>
+        <v>471</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="171" customHeight="1" spans="1:6">

--- a/docs/Normalization.xlsx
+++ b/docs/Normalization.xlsx
@@ -1166,6 +1166,9 @@
     <t>Deadline</t>
   </si>
   <si>
+    <t>Review</t>
+  </si>
+  <si>
     <t>Desconto Bonificação por
 dia</t>
   </si>
@@ -1400,9 +1403,6 @@
   </si>
   <si>
     <t>instruction</t>
-  </si>
-  <si>
-    <t>Review</t>
   </si>
   <si>
     <t>Taxa Permanência</t>
@@ -3158,10 +3158,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -3211,7 +3211,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3224,16 +3285,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3255,7 +3315,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -3263,24 +3322,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3288,14 +3332,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3306,43 +3343,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3391,7 +3391,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3403,157 +3553,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3598,7 +3598,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3662,8 +3662,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3671,8 +3671,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3681,139 +3681,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4205,16 +4205,15 @@
   <sheetPr/>
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
+      <selection pane="bottomLeft" activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="6" width="20.625" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="6" width="20.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.75" style="2" customWidth="1"/>
     <col min="8" max="8" width="20" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
@@ -4558,7 +4557,6 @@
       <c r="G19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
         <v>78</v>
       </c>
@@ -5034,7 +5032,6 @@
       <c r="G44" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="H44" s="1"/>
       <c r="I44" s="1" t="s">
         <v>75</v>
       </c>
@@ -5630,7 +5627,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="72" customHeight="1" spans="1:8">
+    <row r="72" customHeight="1" spans="1:10">
       <c r="A72" s="6" t="s">
         <v>346</v>
       </c>
@@ -5652,62 +5649,65 @@
       <c r="H72" s="1" t="s">
         <v>351</v>
       </c>
+      <c r="J72" s="1" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="73" customHeight="1" spans="2:7">
       <c r="B73" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D73" s="6"/>
       <c r="G73" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:7">
       <c r="A74" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D74" s="6"/>
       <c r="E74" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:7">
       <c r="A75" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:9">
       <c r="A76" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B76" s="6"/>
       <c r="D76" s="6"/>
       <c r="G76" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>190</v>
@@ -5715,20 +5715,20 @@
     </row>
     <row r="77" customHeight="1" spans="2:9">
       <c r="B77" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>190</v>
@@ -5737,37 +5737,36 @@
     <row r="78" customHeight="1" spans="4:8">
       <c r="D78" s="6"/>
       <c r="E78" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="4:8">
       <c r="D79" s="6"/>
       <c r="E79" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="4:9">
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="H80" s="1"/>
+        <v>379</v>
+      </c>
       <c r="I80" s="1" t="s">
         <v>75</v>
       </c>
@@ -5776,29 +5775,28 @@
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="H81" s="1"/>
+        <v>381</v>
+      </c>
       <c r="I81" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="3:9">
       <c r="C82" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D82" s="6"/>
       <c r="E82" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>190</v>
@@ -5806,217 +5804,217 @@
     </row>
     <row r="83" customHeight="1" spans="2:9">
       <c r="B83" s="6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="G83" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="H83" s="1"/>
+        <v>387</v>
+      </c>
       <c r="I83" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="2:7">
       <c r="B84" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="G84" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="2:9">
       <c r="B85" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="G85" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="H85" s="1"/>
+        <v>392</v>
+      </c>
       <c r="I85" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="2:9">
       <c r="B86" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
       <c r="G86" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="2:9">
       <c r="B87" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
       <c r="G87" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="2:9">
       <c r="B88" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D88" s="6"/>
       <c r="G88" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="2:9">
       <c r="B89" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D89" s="6"/>
       <c r="G89" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="2:9">
       <c r="B90" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D90" s="6"/>
       <c r="G90" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:9">
       <c r="A91" s="6"/>
       <c r="B91" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D91" s="6"/>
       <c r="G91" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:9">
       <c r="A92" s="6"/>
       <c r="B92" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D92" s="6"/>
       <c r="G92" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:9">
       <c r="A93" s="6"/>
       <c r="B93" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D93" s="6"/>
       <c r="G93" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="H93" s="1"/>
+        <v>408</v>
+      </c>
       <c r="I93" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="94" customHeight="1" spans="1:8">
+    <row r="94" customHeight="1" spans="1:10">
       <c r="A94" s="6"/>
       <c r="B94" s="6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D94" s="6"/>
       <c r="G94" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="95" customHeight="1" spans="1:7">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D95" s="6"/>
       <c r="E95" s="6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="1:7">
       <c r="A96" s="6"/>
       <c r="D96" s="6"/>
       <c r="F96" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="1:7">
       <c r="A97" s="6"/>
       <c r="D97" s="6"/>
       <c r="F97" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:7">
       <c r="A98" s="6"/>
       <c r="D98" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:10">
       <c r="A99" s="6"/>
       <c r="D99" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F99" s="6"/>
       <c r="G99" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>424</v>
+        <v>352</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="1:8">
@@ -6043,12 +6041,11 @@
       <c r="G101" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="H101" s="1"/>
       <c r="I101" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="102" customHeight="1" spans="1:9">
+    <row r="102" customHeight="1" spans="1:10">
       <c r="A102" s="6"/>
       <c r="C102" s="6" t="s">
         <v>427</v>
@@ -6063,6 +6060,9 @@
       </c>
       <c r="I102" s="1" t="s">
         <v>190</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="1:9">
@@ -6274,7 +6274,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="116" customHeight="1" spans="1:9">
+    <row r="116" customHeight="1" spans="1:10">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
@@ -6292,8 +6292,11 @@
       <c r="I116" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="117" customHeight="1" spans="1:9">
+      <c r="J116" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="117" customHeight="1" spans="1:10">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
@@ -6311,8 +6314,11 @@
       <c r="I117" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="118" customHeight="1" spans="1:9">
+      <c r="J117" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="1:10">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
@@ -6330,8 +6336,11 @@
       <c r="I118" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="119" customHeight="1" spans="1:9">
+      <c r="J118" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="119" customHeight="1" spans="1:10">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
@@ -6349,8 +6358,11 @@
       <c r="I119" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="120" customHeight="1" spans="1:9">
+      <c r="J119" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="120" customHeight="1" spans="1:10">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
@@ -6367,6 +6379,9 @@
       </c>
       <c r="I120" s="1" t="s">
         <v>75</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="121" customHeight="1" spans="1:7">
@@ -7633,12 +7648,12 @@
     <row r="23" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -8020,10 +8035,10 @@
         <v>683</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -8136,7 +8151,7 @@
         <v>703</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -8256,7 +8271,7 @@
         <v>728</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -8273,13 +8288,13 @@
         <v>731</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="70" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -25194,10 +25209,10 @@
     </row>
     <row r="104" s="1" customFormat="1" customHeight="1" spans="3:7">
       <c r="C104" s="6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="105" s="1" customFormat="1" customHeight="1" spans="3:7">
@@ -25236,10 +25251,10 @@
       <c r="B108" s="6"/>
       <c r="D108" s="6"/>
       <c r="F108" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="109" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -25248,10 +25263,10 @@
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
       <c r="F109" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="110" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -25272,7 +25287,7 @@
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
       <c r="F111" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>824</v>

--- a/docs/Normalization.xlsx
+++ b/docs/Normalization.xlsx
@@ -3146,9 +3146,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -3184,26 +3184,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3213,7 +3206,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -3227,6 +3220,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -3234,16 +3234,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3258,37 +3273,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3310,7 +3303,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3325,18 +3333,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3379,127 +3379,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3517,7 +3403,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3529,37 +3529,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3583,6 +3583,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -3593,21 +3608,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3638,15 +3638,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3665,6 +3656,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -3675,138 +3675,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8838,7 +8838,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -9671,7 +9671,7 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C22:C23"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -9679,13 +9679,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:AMJ182"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
+      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9722,7 +9722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="2" ht="13" customHeight="1" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -9733,7 +9733,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="3" ht="13" customHeight="1" spans="1:7">
       <c r="A3" s="6" t="s">
         <v>618</v>
       </c>
@@ -9756,7 +9756,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="4" ht="13" customHeight="1" spans="1:7">
       <c r="A4" s="6" t="s">
         <v>620</v>
       </c>
@@ -9779,7 +9779,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="5" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="5" ht="13" customHeight="1" spans="1:7">
       <c r="A5" s="6" t="s">
         <v>624</v>
       </c>
@@ -9802,7 +9802,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="6" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="6" ht="13" customHeight="1" spans="1:7">
       <c r="A6" s="6" t="s">
         <v>628</v>
       </c>
@@ -9825,7 +9825,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="7" ht="13" customHeight="1" spans="1:7">
       <c r="A7" s="6" t="s">
         <v>631</v>
       </c>
@@ -9848,7 +9848,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="8" ht="13" customHeight="1" spans="1:7">
       <c r="A8" s="6" t="s">
         <v>49</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="9" ht="13" customHeight="1" spans="1:7">
       <c r="A9" s="6" t="s">
         <v>634</v>
       </c>
@@ -9884,7 +9884,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="10" ht="13" customHeight="1" spans="1:7">
       <c r="A10" s="6" t="s">
         <v>56</v>
       </c>
@@ -9901,7 +9901,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="11" ht="13" customHeight="1" spans="1:7">
       <c r="A11" s="6" t="s">
         <v>636</v>
       </c>
@@ -9916,7 +9916,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="12" ht="13" customHeight="1" spans="1:7">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
         <v>83</v>
@@ -9933,7 +9933,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="13" ht="13" customHeight="1" spans="1:7">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -9946,7 +9946,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="14" ht="13" customHeight="1" spans="1:7">
       <c r="A14" s="6" t="s">
         <v>303</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="15" ht="13" customHeight="1" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>639</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="16" ht="13" customHeight="1" spans="1:7">
       <c r="A16" s="6" t="s">
         <v>643</v>
       </c>
@@ -10015,7 +10015,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="17" ht="13" customHeight="1" spans="1:7">
       <c r="A17" s="6" t="s">
         <v>644</v>
       </c>
@@ -10038,7 +10038,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="18" ht="13" customHeight="1" spans="1:7">
       <c r="A18"/>
       <c r="B18" s="6" t="s">
         <v>647</v>
@@ -10055,7 +10055,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="19" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="19" ht="13" customHeight="1" spans="1:7">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -10068,7 +10068,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="20" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="20" ht="13" customHeight="1" spans="1:7">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -10081,7 +10081,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="21" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="21" ht="13" customHeight="1" spans="1:7">
       <c r="A21"/>
       <c r="B21" s="6" t="s">
         <v>653</v>
@@ -10094,7 +10094,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="22" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="22" ht="13" customHeight="1" spans="1:7">
       <c r="A22"/>
       <c r="B22" s="6" t="s">
         <v>655</v>
@@ -10122,7 +10122,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="24" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="24" ht="13" customHeight="1" spans="1:7">
       <c r="A24" s="6" t="s">
         <v>657</v>
       </c>
@@ -10137,7 +10137,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="25" ht="13" customHeight="1" spans="1:7">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -10150,7 +10150,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="26" ht="13" customHeight="1" spans="1:7">
       <c r="A26" s="6" t="s">
         <v>658</v>
       </c>
@@ -10171,7 +10171,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="27" ht="13" customHeight="1" spans="1:7">
       <c r="A27" s="6" t="s">
         <v>661</v>
       </c>
@@ -10194,7 +10194,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="28" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="28" ht="13" customHeight="1" spans="1:7">
       <c r="A28" s="4" t="s">
         <v>127</v>
       </c>
@@ -10205,7 +10205,7 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="29" ht="13" customHeight="1" spans="1:7">
       <c r="A29" s="6" t="s">
         <v>618</v>
       </c>
@@ -10228,7 +10228,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="30" ht="13" customHeight="1" spans="1:7">
       <c r="A30" s="6"/>
       <c r="B30" s="7" t="s">
         <v>663</v>
@@ -10249,7 +10249,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="31" ht="13" customHeight="1" spans="1:7">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
         <v>664</v>
@@ -10270,7 +10270,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="32" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="32" ht="13" customHeight="1" spans="1:7">
       <c r="A32" s="6" t="s">
         <v>49</v>
       </c>
@@ -10293,7 +10293,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="33" ht="13" customHeight="1" spans="1:7">
       <c r="A33" s="6" t="s">
         <v>634</v>
       </c>
@@ -10308,7 +10308,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="34" ht="13" customHeight="1" spans="1:7">
       <c r="A34" s="6" t="s">
         <v>56</v>
       </c>
@@ -10329,7 +10329,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="35" ht="13" customHeight="1" spans="1:7">
       <c r="A35" s="6" t="s">
         <v>636</v>
       </c>
@@ -10346,7 +10346,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="36" ht="13" customHeight="1" spans="1:7">
       <c r="A36" s="6" t="s">
         <v>657</v>
       </c>
@@ -10361,7 +10361,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="37" ht="13" customHeight="1" spans="1:7">
       <c r="A37" s="6" t="s">
         <v>665</v>
       </c>
@@ -10384,7 +10384,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="38" ht="13" customHeight="1" spans="1:7">
       <c r="A38" s="6" t="s">
         <v>667</v>
       </c>
@@ -10407,7 +10407,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="39" ht="13" hidden="1" customHeight="1" spans="1:8">
+    <row r="39" ht="13" customHeight="1" spans="1:8">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -10420,7 +10420,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="40" ht="13" hidden="1" customHeight="1" spans="1:8">
+    <row r="40" ht="13" customHeight="1" spans="1:8">
       <c r="A40" s="6" t="s">
         <v>174</v>
       </c>
@@ -10444,7 +10444,7 @@
       </c>
       <c r="H40"/>
     </row>
-    <row r="41" ht="13" hidden="1" customHeight="1" spans="1:8">
+    <row r="41" ht="13" customHeight="1" spans="1:8">
       <c r="A41" s="6" t="s">
         <v>672</v>
       </c>
@@ -10460,7 +10460,7 @@
       </c>
       <c r="H41"/>
     </row>
-    <row r="42" ht="13" hidden="1" customHeight="1" spans="1:8">
+    <row r="42" ht="13" customHeight="1" spans="1:8">
       <c r="A42" s="6"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -10474,7 +10474,7 @@
       </c>
       <c r="H42"/>
     </row>
-    <row r="43" ht="13" hidden="1" customHeight="1" spans="1:8">
+    <row r="43" ht="13" customHeight="1" spans="1:8">
       <c r="A43"/>
       <c r="B43" s="7" t="s">
         <v>673</v>
@@ -10492,7 +10492,7 @@
       </c>
       <c r="H43"/>
     </row>
-    <row r="44" ht="13" hidden="1" customHeight="1" spans="1:8">
+    <row r="44" ht="13" customHeight="1" spans="1:8">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -10505,7 +10505,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="45" ht="13" hidden="1" customHeight="1" spans="1:8">
+    <row r="45" ht="13" customHeight="1" spans="1:8">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -10519,7 +10519,7 @@
       </c>
       <c r="H45"/>
     </row>
-    <row r="46" ht="13" hidden="1" customHeight="1" spans="1:8">
+    <row r="46" ht="13" customHeight="1" spans="1:8">
       <c r="A46"/>
       <c r="B46" s="7" t="s">
         <v>169</v>
@@ -10533,7 +10533,7 @@
       </c>
       <c r="H46"/>
     </row>
-    <row r="47" ht="13" hidden="1" customHeight="1" spans="1:8">
+    <row r="47" ht="13" customHeight="1" spans="1:8">
       <c r="A47"/>
       <c r="B47" s="7"/>
       <c r="C47"/>
@@ -10547,7 +10547,7 @@
       </c>
       <c r="H47"/>
     </row>
-    <row r="48" ht="13" hidden="1" customHeight="1" spans="1:8">
+    <row r="48" ht="13" customHeight="1" spans="1:8">
       <c r="A48" s="6" t="s">
         <v>679</v>
       </c>
@@ -10563,7 +10563,7 @@
       </c>
       <c r="H48"/>
     </row>
-    <row r="49" ht="13" hidden="1" customHeight="1" spans="1:8">
+    <row r="49" ht="13" customHeight="1" spans="1:8">
       <c r="A49" s="6" t="s">
         <v>680</v>
       </c>
@@ -10587,7 +10587,7 @@
       </c>
       <c r="H49"/>
     </row>
-    <row r="50" ht="13" hidden="1" customHeight="1" spans="1:8">
+    <row r="50" ht="13" customHeight="1" spans="1:8">
       <c r="A50" s="6" t="s">
         <v>684</v>
       </c>
@@ -10611,7 +10611,7 @@
       </c>
       <c r="H50"/>
     </row>
-    <row r="51" ht="13" hidden="1" customHeight="1" spans="1:8">
+    <row r="51" ht="13" customHeight="1" spans="1:8">
       <c r="A51"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -10625,7 +10625,7 @@
       </c>
       <c r="H51"/>
     </row>
-    <row r="52" ht="13" hidden="1" customHeight="1" spans="1:8">
+    <row r="52" ht="13" customHeight="1" spans="1:8">
       <c r="A52"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -10639,7 +10639,7 @@
       </c>
       <c r="H52"/>
     </row>
-    <row r="53" ht="13" hidden="1" customHeight="1" spans="1:8">
+    <row r="53" ht="13" customHeight="1" spans="1:8">
       <c r="A53"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -10652,7 +10652,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="54" ht="13" hidden="1" customHeight="1" spans="1:8">
+    <row r="54" ht="13" customHeight="1" spans="1:8">
       <c r="A54" s="6" t="s">
         <v>693</v>
       </c>
@@ -10668,7 +10668,7 @@
       </c>
       <c r="H54"/>
     </row>
-    <row r="55" ht="13" hidden="1" customHeight="1" spans="1:8">
+    <row r="55" ht="13" customHeight="1" spans="1:8">
       <c r="A55" s="6" t="s">
         <v>696</v>
       </c>
@@ -10684,7 +10684,7 @@
       </c>
       <c r="H55"/>
     </row>
-    <row r="56" ht="13" hidden="1" customHeight="1" spans="1:8">
+    <row r="56" ht="13" customHeight="1" spans="1:8">
       <c r="A56" s="6" t="s">
         <v>699</v>
       </c>
@@ -10698,7 +10698,7 @@
       </c>
       <c r="H56"/>
     </row>
-    <row r="57" ht="13" hidden="1" customHeight="1" spans="1:8">
+    <row r="57" ht="13" customHeight="1" spans="1:8">
       <c r="A57" s="6" t="s">
         <v>700</v>
       </c>
@@ -10712,7 +10712,7 @@
       </c>
       <c r="H57"/>
     </row>
-    <row r="58" ht="13" hidden="1" customHeight="1" spans="1:8">
+    <row r="58" ht="13" customHeight="1" spans="1:8">
       <c r="A58" s="6"/>
       <c r="B58"/>
       <c r="C58"/>
@@ -10726,7 +10726,7 @@
       </c>
       <c r="H58"/>
     </row>
-    <row r="59" ht="13" hidden="1" customHeight="1" spans="1:8">
+    <row r="59" ht="13" customHeight="1" spans="1:8">
       <c r="A59" s="6"/>
       <c r="B59"/>
       <c r="C59"/>
@@ -10740,7 +10740,7 @@
       </c>
       <c r="H59"/>
     </row>
-    <row r="60" ht="13" hidden="1" customHeight="1" spans="1:8">
+    <row r="60" ht="13" customHeight="1" spans="1:8">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -10754,7 +10754,7 @@
       </c>
       <c r="H60"/>
     </row>
-    <row r="61" ht="13" hidden="1" customHeight="1" spans="1:8">
+    <row r="61" ht="13" customHeight="1" spans="1:8">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
@@ -10768,7 +10768,7 @@
       </c>
       <c r="H61"/>
     </row>
-    <row r="62" ht="13" hidden="1" customHeight="1" spans="1:8">
+    <row r="62" ht="13" customHeight="1" spans="1:8">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
@@ -10782,7 +10782,7 @@
       </c>
       <c r="H62"/>
     </row>
-    <row r="63" ht="13" hidden="1" customHeight="1" spans="1:8">
+    <row r="63" ht="13" customHeight="1" spans="1:8">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
@@ -10796,7 +10796,7 @@
       </c>
       <c r="H63"/>
     </row>
-    <row r="64" ht="13" hidden="1" customHeight="1" spans="1:8">
+    <row r="64" ht="13" customHeight="1" spans="1:8">
       <c r="A64" s="6" t="s">
         <v>714</v>
       </c>
@@ -10832,7 +10832,7 @@
       </c>
       <c r="H65"/>
     </row>
-    <row r="66" ht="13" hidden="1" customHeight="1" spans="1:8">
+    <row r="66" ht="13" customHeight="1" spans="1:8">
       <c r="A66" s="6"/>
       <c r="B66" s="7" t="s">
         <v>722</v>
@@ -10846,7 +10846,7 @@
       </c>
       <c r="H66"/>
     </row>
-    <row r="67" ht="13" hidden="1" customHeight="1" spans="1:1024">
+    <row r="67" ht="13" customHeight="1" spans="1:1024">
       <c r="A67"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6" t="s">
@@ -11876,7 +11876,7 @@
       <c r="AMI67"/>
       <c r="AMJ67"/>
     </row>
-    <row r="68" ht="13" hidden="1" customHeight="1" spans="1:1024">
+    <row r="68" ht="13" customHeight="1" spans="1:1024">
       <c r="A68" s="6"/>
       <c r="B68" s="7" t="s">
         <v>724</v>
@@ -12906,7 +12906,7 @@
       <c r="AMI68"/>
       <c r="AMJ68"/>
     </row>
-    <row r="69" ht="13" hidden="1" customHeight="1" spans="1:1024">
+    <row r="69" ht="13" customHeight="1" spans="1:1024">
       <c r="A69" s="6" t="s">
         <v>725</v>
       </c>
@@ -13946,7 +13946,7 @@
       <c r="AMI69"/>
       <c r="AMJ69"/>
     </row>
-    <row r="70" ht="13" hidden="1" customHeight="1" spans="1:1024">
+    <row r="70" ht="13" customHeight="1" spans="1:1024">
       <c r="A70" s="6" t="s">
         <v>197</v>
       </c>
@@ -14986,7 +14986,7 @@
       <c r="AMI70"/>
       <c r="AMJ70"/>
     </row>
-    <row r="71" ht="13" hidden="1" customHeight="1" spans="1:1024">
+    <row r="71" ht="13" customHeight="1" spans="1:1024">
       <c r="A71" s="6" t="s">
         <v>203</v>
       </c>
@@ -16026,7 +16026,7 @@
       <c r="AMI71"/>
       <c r="AMJ71"/>
     </row>
-    <row r="72" ht="13" hidden="1" customHeight="1" spans="1:1024">
+    <row r="72" ht="13" customHeight="1" spans="1:1024">
       <c r="A72" s="6" t="s">
         <v>639</v>
       </c>
@@ -17066,7 +17066,7 @@
       <c r="AMI72"/>
       <c r="AMJ72"/>
     </row>
-    <row r="73" ht="13" hidden="1" customHeight="1" spans="1:1024">
+    <row r="73" ht="13" customHeight="1" spans="1:1024">
       <c r="A73" s="6" t="s">
         <v>49</v>
       </c>
@@ -18106,7 +18106,7 @@
       <c r="AMI73"/>
       <c r="AMJ73"/>
     </row>
-    <row r="74" ht="13" hidden="1" customHeight="1" spans="1:1024">
+    <row r="74" ht="13" customHeight="1" spans="1:1024">
       <c r="A74" s="6" t="s">
         <v>634</v>
       </c>
@@ -19140,7 +19140,7 @@
       <c r="AMI74"/>
       <c r="AMJ74"/>
     </row>
-    <row r="75" ht="13" hidden="1" customHeight="1" spans="1:1024">
+    <row r="75" ht="13" customHeight="1" spans="1:1024">
       <c r="A75" s="6" t="s">
         <v>225</v>
       </c>
@@ -20180,7 +20180,7 @@
       <c r="AMI75"/>
       <c r="AMJ75"/>
     </row>
-    <row r="76" ht="13" hidden="1" customHeight="1" spans="1:1024">
+    <row r="76" ht="13" customHeight="1" spans="1:1024">
       <c r="A76" s="6" t="s">
         <v>741</v>
       </c>
@@ -21220,7 +21220,7 @@
       <c r="AMI76"/>
       <c r="AMJ76"/>
     </row>
-    <row r="77" ht="13" hidden="1" customHeight="1" spans="1:1024">
+    <row r="77" ht="13" customHeight="1" spans="1:1024">
       <c r="A77" s="6" t="s">
         <v>744</v>
       </c>
@@ -22260,7 +22260,7 @@
       <c r="AMI77"/>
       <c r="AMJ77"/>
     </row>
-    <row r="78" ht="13" hidden="1" customHeight="1" spans="1:1024">
+    <row r="78" ht="13" customHeight="1" spans="1:1024">
       <c r="A78" s="6" t="s">
         <v>749</v>
       </c>
@@ -23296,7 +23296,7 @@
       <c r="AMI78"/>
       <c r="AMJ78"/>
     </row>
-    <row r="79" ht="13" hidden="1" customHeight="1" spans="1:1024">
+    <row r="79" ht="13" customHeight="1" spans="1:1024">
       <c r="A79" s="6" t="s">
         <v>754</v>
       </c>
@@ -24336,7 +24336,7 @@
       <c r="AMI79"/>
       <c r="AMJ79"/>
     </row>
-    <row r="80" ht="13" hidden="1" customHeight="1" spans="1:1024">
+    <row r="80" ht="13" customHeight="1" spans="1:1024">
       <c r="A80" s="6" t="s">
         <v>284</v>
       </c>
@@ -25376,7 +25376,7 @@
       <c r="AMI80"/>
       <c r="AMJ80"/>
     </row>
-    <row r="81" ht="13" hidden="1" customHeight="1" spans="1:1024">
+    <row r="81" ht="13" customHeight="1" spans="1:1024">
       <c r="A81" s="6" t="s">
         <v>270</v>
       </c>
@@ -26416,7 +26416,7 @@
       <c r="AMI81"/>
       <c r="AMJ81"/>
     </row>
-    <row r="82" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="82" ht="13" customHeight="1" spans="1:7">
       <c r="A82" s="6" t="s">
         <v>764</v>
       </c>
@@ -26431,7 +26431,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="83" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="83" ht="13" customHeight="1" spans="1:7">
       <c r="A83" s="6" t="s">
         <v>767</v>
       </c>
@@ -26454,7 +26454,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="84" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="84" ht="13" customHeight="1" spans="1:7">
       <c r="A84" s="6" t="s">
         <v>772</v>
       </c>
@@ -26477,7 +26477,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="85" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="85" ht="13" customHeight="1" spans="1:7">
       <c r="A85" s="6"/>
       <c r="B85" s="7" t="s">
         <v>777</v>
@@ -26494,7 +26494,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="86" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="86" ht="13" customHeight="1" spans="1:7">
       <c r="A86" s="6" t="s">
         <v>779</v>
       </c>
@@ -26515,7 +26515,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="87" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="87" ht="13" customHeight="1" spans="1:7">
       <c r="A87" s="6" t="s">
         <v>784</v>
       </c>
@@ -26530,7 +26530,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="88" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="88" ht="13" customHeight="1" spans="1:7">
       <c r="A88" s="6" t="s">
         <v>787</v>
       </c>
@@ -26545,7 +26545,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="89" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="89" ht="13" customHeight="1" spans="1:7">
       <c r="A89" s="6" t="s">
         <v>790</v>
       </c>
@@ -26560,7 +26560,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="90" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="90" ht="13" customHeight="1" spans="1:7">
       <c r="A90" s="6" t="s">
         <v>793</v>
       </c>
@@ -26577,7 +26577,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="91" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="91" ht="13" customHeight="1" spans="1:7">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91"/>
@@ -26590,7 +26590,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="92" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="92" ht="13" customHeight="1" spans="1:7">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -26603,7 +26603,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="93" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="93" ht="13" customHeight="1" spans="1:7">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -26618,7 +26618,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="94" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="94" ht="13" customHeight="1" spans="1:7">
       <c r="A94" s="6" t="s">
         <v>799</v>
       </c>
@@ -26633,7 +26633,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="95" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="95" ht="13" customHeight="1" spans="1:7">
       <c r="A95" s="6" t="s">
         <v>802</v>
       </c>
@@ -26646,7 +26646,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="96" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="96" ht="13" customHeight="1" spans="1:7">
       <c r="A96"/>
       <c r="B96" s="7" t="s">
         <v>804</v>
@@ -26659,7 +26659,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="97" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="97" ht="13" customHeight="1" spans="1:7">
       <c r="A97"/>
       <c r="B97" s="6" t="s">
         <v>805</v>
@@ -26672,7 +26672,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="98" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="98" ht="13" customHeight="1" spans="1:7">
       <c r="A98"/>
       <c r="B98" s="6" t="s">
         <v>807</v>
@@ -26685,7 +26685,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="99" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="99" ht="13" customHeight="1" spans="1:7">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99" s="6" t="s">
@@ -26698,7 +26698,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="100" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="100" ht="13" customHeight="1" spans="1:7">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100" s="6" t="s">
@@ -26711,7 +26711,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="101" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="101" ht="13" customHeight="1" spans="1:7">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101" s="6" t="s">
@@ -26724,7 +26724,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="102" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="102" ht="13" customHeight="1" spans="1:7">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102" s="6" t="s">
@@ -26737,7 +26737,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="103" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="103" ht="13" customHeight="1" spans="1:7">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103" s="6" t="s">
@@ -26750,7 +26750,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="104" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="104" ht="13" customHeight="1" spans="1:7">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104" s="6" t="s">
@@ -26763,7 +26763,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="105" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="105" ht="13" customHeight="1" spans="1:7">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105" s="6"/>
@@ -26776,7 +26776,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="106" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="106" ht="13" customHeight="1" spans="1:7">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106" s="6"/>
@@ -26789,7 +26789,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="107" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="107" ht="13" customHeight="1" spans="1:7">
       <c r="A107"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -26802,7 +26802,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="108" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="108" ht="13" customHeight="1" spans="1:7">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108"/>
@@ -26815,7 +26815,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="109" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="109" ht="13" customHeight="1" spans="1:7">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -26828,7 +26828,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="110" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="110" ht="13" customHeight="1" spans="1:7">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
@@ -26841,7 +26841,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="111" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="111" ht="13" customHeight="1" spans="1:7">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111"/>
@@ -26854,7 +26854,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="112" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="112" ht="13" customHeight="1" spans="1:7">
       <c r="A112"/>
       <c r="B112" s="6"/>
       <c r="C112"/>
@@ -26867,7 +26867,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="113" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="113" ht="13" customHeight="1" spans="1:7">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
@@ -26880,7 +26880,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="114" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="114" ht="13" customHeight="1" spans="1:7">
       <c r="A114" s="6" t="s">
         <v>824</v>
       </c>
@@ -26899,7 +26899,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="115" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="115" ht="13" customHeight="1" spans="1:7">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
@@ -26912,7 +26912,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="116" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="116" ht="13" customHeight="1" spans="1:7">
       <c r="A116" s="6" t="s">
         <v>661</v>
       </c>
@@ -26935,7 +26935,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="117" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="117" ht="13" customHeight="1" spans="1:7">
       <c r="A117" s="4" t="s">
         <v>454</v>
       </c>
@@ -26946,7 +26946,7 @@
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
     </row>
-    <row r="118" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="118" ht="13" customHeight="1" spans="1:7">
       <c r="A118" s="6" t="s">
         <v>618</v>
       </c>
@@ -26969,7 +26969,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="119" ht="13" customHeight="1" spans="1:7">
       <c r="A119" s="6" t="s">
         <v>830</v>
       </c>
@@ -26992,7 +26992,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="120" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="120" ht="13" customHeight="1" spans="1:7">
       <c r="A120" s="6" t="s">
         <v>834</v>
       </c>
@@ -27013,7 +27013,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="121" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="121" ht="13" customHeight="1" spans="1:7">
       <c r="A121" s="6" t="s">
         <v>836</v>
       </c>
@@ -27036,7 +27036,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="122" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="122" ht="13" customHeight="1" spans="1:7">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
@@ -27049,7 +27049,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="123" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="123" ht="13" customHeight="1" spans="1:7">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -27062,7 +27062,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="124" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="124" ht="13" customHeight="1" spans="1:7">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124" s="6"/>
@@ -27075,7 +27075,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="125" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="125" ht="13" customHeight="1" spans="1:7">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125" s="6"/>
@@ -27088,7 +27088,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="126" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="126" ht="13" customHeight="1" spans="1:7">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126" s="6"/>
@@ -27101,7 +27101,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="127" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="127" ht="13" customHeight="1" spans="1:7">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127" s="6"/>
@@ -27114,7 +27114,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="128" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="128" ht="13" customHeight="1" spans="1:7">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128" s="6"/>
@@ -27127,7 +27127,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="129" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="129" ht="13" customHeight="1" spans="1:7">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129" s="6"/>
@@ -27140,7 +27140,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="130" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="130" ht="13" customHeight="1" spans="1:7">
       <c r="A130"/>
       <c r="B130" s="7" t="s">
         <v>847</v>
@@ -27157,7 +27157,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="131" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="131" ht="13" customHeight="1" spans="1:7">
       <c r="A131"/>
       <c r="B131" s="6" t="s">
         <v>849</v>
@@ -27172,7 +27172,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="132" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="132" ht="13" customHeight="1" spans="1:7">
       <c r="A132"/>
       <c r="B132" s="6" t="s">
         <v>850</v>
@@ -27185,7 +27185,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="133" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="133" ht="13" customHeight="1" spans="1:7">
       <c r="A133" s="6" t="s">
         <v>852</v>
       </c>
@@ -27202,7 +27202,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="134" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="134" ht="13" customHeight="1" spans="1:7">
       <c r="A134" s="6" t="s">
         <v>855</v>
       </c>
@@ -27219,7 +27219,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="135" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="135" ht="13" customHeight="1" spans="1:7">
       <c r="A135" s="6" t="s">
         <v>858</v>
       </c>
@@ -27236,7 +27236,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="136" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="136" ht="13" customHeight="1" spans="1:7">
       <c r="A136" s="6" t="s">
         <v>862</v>
       </c>
@@ -27251,7 +27251,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="137" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="137" ht="13" customHeight="1" spans="1:7">
       <c r="A137" s="6" t="s">
         <v>864</v>
       </c>
@@ -27266,7 +27266,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="138" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="138" ht="13" customHeight="1" spans="1:7">
       <c r="A138" s="6" t="s">
         <v>866</v>
       </c>
@@ -27281,7 +27281,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="139" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="139" ht="13" customHeight="1" spans="1:7">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139" s="6"/>
@@ -27294,7 +27294,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="140" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="140" ht="13" customHeight="1" spans="1:7">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140" s="6"/>
@@ -27307,7 +27307,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="141" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="141" ht="13" customHeight="1" spans="1:7">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141" s="6"/>
@@ -27320,7 +27320,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="142" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="142" ht="13" customHeight="1" spans="1:7">
       <c r="A142" s="6" t="s">
         <v>873</v>
       </c>
@@ -27335,7 +27335,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="143" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="143" ht="13" customHeight="1" spans="1:7">
       <c r="A143" s="6" t="s">
         <v>876</v>
       </c>
@@ -27350,7 +27350,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="144" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="144" ht="13" customHeight="1" spans="1:7">
       <c r="A144" s="6" t="s">
         <v>879</v>
       </c>
@@ -27365,7 +27365,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="145" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="145" ht="13" customHeight="1" spans="1:7">
       <c r="A145" s="6" t="s">
         <v>882</v>
       </c>
@@ -27380,7 +27380,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="146" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="146" ht="13" customHeight="1" spans="1:7">
       <c r="A146" s="6" t="s">
         <v>885</v>
       </c>
@@ -27395,7 +27395,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="147" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="147" ht="13" customHeight="1" spans="1:7">
       <c r="A147" s="6" t="s">
         <v>888</v>
       </c>
@@ -27410,7 +27410,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="148" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="148" ht="13" customHeight="1" spans="1:7">
       <c r="A148" s="6" t="s">
         <v>891</v>
       </c>
@@ -27423,7 +27423,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="149" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="149" ht="13" customHeight="1" spans="1:7">
       <c r="A149" s="6" t="s">
         <v>893</v>
       </c>
@@ -27436,7 +27436,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="150" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="150" ht="13" customHeight="1" spans="1:7">
       <c r="A150" s="6" t="s">
         <v>895</v>
       </c>
@@ -27449,7 +27449,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="151" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="151" ht="13" customHeight="1" spans="1:7">
       <c r="A151" s="6"/>
       <c r="B151" s="6" t="s">
         <v>897</v>
@@ -27462,7 +27462,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="152" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="152" ht="13" customHeight="1" spans="1:7">
       <c r="A152" s="6"/>
       <c r="B152" s="7" t="s">
         <v>899</v>
@@ -27475,7 +27475,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="153" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="153" ht="13" customHeight="1" spans="1:7">
       <c r="A153" s="6"/>
       <c r="B153" s="7" t="s">
         <v>901</v>
@@ -27488,7 +27488,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="154" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="154" ht="13" customHeight="1" spans="1:7">
       <c r="A154" s="6"/>
       <c r="B154" s="7" t="s">
         <v>903</v>
@@ -27501,7 +27501,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="155" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="155" ht="13" customHeight="1" spans="1:7">
       <c r="A155" s="6"/>
       <c r="B155" s="6" t="s">
         <v>905</v>
@@ -27514,7 +27514,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="156" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="156" ht="13" customHeight="1" spans="1:7">
       <c r="A156" s="6"/>
       <c r="B156" s="7" t="s">
         <v>907</v>
@@ -27527,7 +27527,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="157" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="157" ht="13" customHeight="1" spans="1:7">
       <c r="A157" s="6"/>
       <c r="B157" s="7" t="s">
         <v>909</v>
@@ -27540,7 +27540,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="158" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="158" ht="13" customHeight="1" spans="1:7">
       <c r="A158" s="6"/>
       <c r="B158" s="7" t="s">
         <v>911</v>
@@ -27553,7 +27553,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="159" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="159" ht="13" customHeight="1" spans="1:7">
       <c r="A159" s="6"/>
       <c r="B159" s="7" t="s">
         <v>913</v>
@@ -27566,7 +27566,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="160" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="160" ht="13" customHeight="1" spans="1:7">
       <c r="A160" s="6"/>
       <c r="B160" s="7" t="s">
         <v>915</v>
@@ -27579,7 +27579,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="161" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="161" ht="13" customHeight="1" spans="1:7">
       <c r="A161" s="6"/>
       <c r="B161" s="7" t="s">
         <v>917</v>
@@ -27592,7 +27592,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="162" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="162" ht="13" customHeight="1" spans="1:7">
       <c r="A162" s="6"/>
       <c r="B162" s="6" t="s">
         <v>919</v>
@@ -27605,7 +27605,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="163" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="163" ht="13" customHeight="1" spans="1:7">
       <c r="A163" s="6"/>
       <c r="B163" s="6" t="s">
         <v>921</v>
@@ -27618,7 +27618,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="164" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="164" ht="13" customHeight="1" spans="1:7">
       <c r="A164" s="6"/>
       <c r="B164" s="6" t="s">
         <v>923</v>
@@ -27631,7 +27631,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="165" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="165" ht="13" customHeight="1" spans="1:7">
       <c r="A165" s="6"/>
       <c r="B165" s="7" t="s">
         <v>925</v>
@@ -27644,7 +27644,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="166" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="166" ht="13" customHeight="1" spans="1:7">
       <c r="A166" s="6"/>
       <c r="B166" s="6" t="s">
         <v>927</v>
@@ -27657,7 +27657,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="167" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="167" ht="13" customHeight="1" spans="1:7">
       <c r="A167" s="6"/>
       <c r="B167" s="6" t="s">
         <v>929</v>
@@ -27670,7 +27670,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="168" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="168" ht="13" customHeight="1" spans="1:7">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
@@ -27683,7 +27683,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="169" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="169" ht="13" customHeight="1" spans="1:7">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
@@ -27698,7 +27698,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="170" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="170" ht="13" customHeight="1" spans="1:7">
       <c r="A170" s="6" t="s">
         <v>661</v>
       </c>
@@ -27818,15 +27818,8 @@
       <c r="F182" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G170">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="equal" val="message"/>
-        <customFilter operator="equal" val="motive"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <autoFilter ref="A1:G170"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>

--- a/docs/Normalization.xlsx
+++ b/docs/Normalization.xlsx
@@ -13,14 +13,14 @@
     <sheet name="CNAB 400 - Return" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'CNAB 400 - Return'!$A$1:$G$170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'CNAB 400 - Return'!$A$1:$G$172</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938">
   <si>
     <t>Banco do Brasil</t>
   </si>
@@ -2298,7 +2298,13 @@
     <t>ourNumber2</t>
   </si>
   <si>
+    <t>generatedOurNumber</t>
+  </si>
+  <si>
     <t>ourNumber2Dac</t>
+  </si>
+  <si>
+    <t>generatedOurNumberDv</t>
   </si>
   <si>
     <t>ourNumberConference</t>
@@ -2778,7 +2784,13 @@
     <t>instCancel</t>
   </si>
   <si>
-    <t>canceledInstruction</t>
+    <t>otherMotive</t>
+  </si>
+  <si>
+    <t>payerClaimDate</t>
+  </si>
+  <si>
+    <t>payerClaimValue</t>
   </si>
   <si>
     <t>channel</t>
@@ -3145,10 +3157,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -3184,68 +3196,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3256,72 +3211,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -3339,8 +3231,128 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3379,7 +3391,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor rgb="FFE2F0D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3391,7 +3409,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3403,127 +3517,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3547,19 +3553,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3583,6 +3601,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -3598,16 +3631,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3619,21 +3652,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3656,8 +3674,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3665,8 +3683,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3675,142 +3693,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3839,6 +3857,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -8855,7 +8876,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="47.2583333333333" style="10"/>
+    <col min="1" max="1" width="47.2583333333333" style="11"/>
     <col min="2" max="2" width="47.7416666666667"/>
     <col min="3" max="3" width="49.2583333333333"/>
   </cols>
@@ -8872,183 +8893,183 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>475</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>476</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
     </row>
     <row r="10" ht="146.25" spans="1:3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>481</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>482</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="12" t="s">
         <v>484</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
     </row>
     <row r="14" ht="97.5" spans="1:3">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="12" t="s">
         <v>492</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
     </row>
     <row r="19" ht="12.75" customHeight="1" spans="1:3">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="12" t="s">
         <v>494</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="14" t="s">
         <v>495</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="15" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="12" t="s">
         <v>498</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
     </row>
     <row r="22" ht="12.75" customHeight="1" spans="1:3">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="12" t="s">
         <v>499</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="14" t="s">
         <v>500</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="15" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
     </row>
     <row r="24" ht="107.25" spans="1:3">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="12" t="s">
         <v>503</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="13" t="s">
         <v>505</v>
       </c>
     </row>
@@ -9064,90 +9085,90 @@
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="11" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="11" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="11" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="11" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="11" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="11" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="11" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="11" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="11" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="11" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="11" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="11" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="11" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="11" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="11" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="11" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="11" t="s">
         <v>523</v>
       </c>
     </row>
@@ -9155,140 +9176,140 @@
       <c r="A43" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="16" t="s">
         <v>471</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="16" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11" t="s">
+      <c r="B44" s="12"/>
+      <c r="C44" s="12" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="45" ht="78" spans="1:3">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="13" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="46" ht="29.25" spans="1:3">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="11" t="s">
         <v>529</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="12" t="s">
         <v>530</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="13" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="11" t="s">
         <v>532</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="12" t="s">
         <v>530</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="12" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="48" ht="19.5" spans="1:3">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="13" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="49" ht="19.5" spans="1:3">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="11" t="s">
         <v>537</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="13" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="50" ht="29.25" spans="1:3">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="13" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="12" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="52" ht="409.5" spans="1:3">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="11" t="s">
         <v>545</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="13" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="11" t="s">
         <v>547</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="12" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="11" t="s">
         <v>549</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="12" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="11" t="s">
         <v>550</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="12" t="s">
         <v>544</v>
       </c>
     </row>
@@ -9304,236 +9325,236 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="11" t="s">
         <v>551</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="12" t="s">
         <v>552</v>
       </c>
-      <c r="C57" s="11"/>
+      <c r="C57" s="12"/>
     </row>
     <row r="58" ht="87.75" spans="1:3">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="11" t="s">
         <v>553</v>
       </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="12" t="s">
+      <c r="B58" s="12"/>
+      <c r="C58" s="13" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="59" ht="107.25" spans="1:3">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="11" t="s">
         <v>555</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="12" t="s">
         <v>556</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="13" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="12" t="s">
         <v>556</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="12" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="12" t="s">
         <v>561</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="12" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="12" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="11" t="s">
         <v>564</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="12" t="s">
         <v>565</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="12" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="64" ht="97.5" spans="1:3">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="12" t="s">
+      <c r="B64" s="12"/>
+      <c r="C64" s="13" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11" t="s">
+      <c r="B65" s="12"/>
+      <c r="C65" s="12" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="11" t="s">
         <v>569</v>
       </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11" t="s">
+      <c r="B66" s="12"/>
+      <c r="C66" s="12" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="67" ht="48.75" spans="1:3">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="11" t="s">
         <v>570</v>
       </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="12" t="s">
+      <c r="B67" s="12"/>
+      <c r="C67" s="13" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="68" ht="78" spans="1:3">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="12" t="s">
+      <c r="B68" s="12"/>
+      <c r="C68" s="13" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="12" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11" t="s">
+      <c r="B70" s="12"/>
+      <c r="C70" s="12" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="71" ht="48.75" spans="1:3">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="12" t="s">
         <v>580</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="11" t="s">
         <v>582</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="12" t="s">
         <v>561</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="12" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="73" ht="39" spans="1:3">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="11" t="s">
         <v>583</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C73" s="13" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="11" t="s">
         <v>586</v>
       </c>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11" t="s">
+      <c r="B74" s="12"/>
+      <c r="C74" s="12" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="11" t="s">
         <v>587</v>
       </c>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11" t="s">
+      <c r="B75" s="12"/>
+      <c r="C75" s="12" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="76" ht="97.5" spans="1:3">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="11" t="s">
         <v>588</v>
       </c>
-      <c r="B76" s="11"/>
-      <c r="C76" s="12" t="s">
+      <c r="B76" s="12"/>
+      <c r="C76" s="13" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="11" t="s">
         <v>590</v>
       </c>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11" t="s">
+      <c r="B77" s="12"/>
+      <c r="C77" s="12" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="78" ht="48.75" spans="1:3">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="B78" s="11"/>
-      <c r="C78" s="12" t="s">
+      <c r="B78" s="12"/>
+      <c r="C78" s="13" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="79" ht="107.25" spans="1:3">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="B79" s="11"/>
-      <c r="C79" s="12" t="s">
+      <c r="B79" s="12"/>
+      <c r="C79" s="13" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="80" ht="39" spans="1:3">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="B80" s="11"/>
-      <c r="C80" s="12" t="s">
+      <c r="B80" s="12"/>
+      <c r="C80" s="13" t="s">
         <v>596</v>
       </c>
     </row>
@@ -9549,62 +9570,62 @@
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="11" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="11" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="11" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="11" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="11" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="11" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="11" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="11" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="11" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="10" t="s">
+      <c r="A91" s="11" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="11" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="10" t="s">
+      <c r="A93" s="11" t="s">
         <v>608</v>
       </c>
     </row>
@@ -9620,47 +9641,47 @@
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="10" t="s">
+      <c r="A95" s="11" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="11" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="10" t="s">
+      <c r="A97" s="11" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="10" t="s">
+      <c r="A98" s="11" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="10" t="s">
+      <c r="A99" s="11" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="10" t="s">
+      <c r="A100" s="11" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="10" t="s">
+      <c r="A101" s="11" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="10" t="s">
+      <c r="A102" s="11" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="10" t="s">
+      <c r="A103" s="11" t="s">
         <v>617</v>
       </c>
     </row>
@@ -9680,12 +9701,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AMJ182"/>
+  <dimension ref="A1:AMJ184"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10488,21 +10509,21 @@
         <v>166</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H43"/>
     </row>
-    <row r="44" ht="13" customHeight="1" spans="1:8">
+    <row r="44" ht="13" customHeight="1" spans="1:7">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44" s="6" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E44"/>
       <c r="F44"/>
-      <c r="H44" s="1" t="s">
-        <v>671</v>
+      <c r="G44" s="2" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="45" ht="13" customHeight="1" spans="1:8">
@@ -10510,12 +10531,12 @@
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45" s="6" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E45"/>
       <c r="F45"/>
       <c r="G45" s="2" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="H45"/>
     </row>
@@ -10529,7 +10550,7 @@
       <c r="E46"/>
       <c r="F46"/>
       <c r="G46" s="2" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="H46"/>
     </row>
@@ -10539,7 +10560,7 @@
       <c r="C47"/>
       <c r="D47" s="6"/>
       <c r="E47" s="7" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="F47"/>
       <c r="G47" s="2" t="s">
@@ -10549,7 +10570,7 @@
     </row>
     <row r="48" ht="13" customHeight="1" spans="1:8">
       <c r="A48" s="6" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B48"/>
       <c r="C48"/>
@@ -10565,10 +10586,10 @@
     </row>
     <row r="49" ht="13" customHeight="1" spans="1:8">
       <c r="A49" s="6" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>189</v>
@@ -10577,10 +10598,10 @@
         <v>189</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>189</v>
@@ -10589,25 +10610,25 @@
     </row>
     <row r="50" ht="13" customHeight="1" spans="1:8">
       <c r="A50" s="6" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="F50" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>688</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>686</v>
       </c>
       <c r="H50"/>
     </row>
@@ -10617,7 +10638,7 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="F51"/>
       <c r="G51" s="2" t="s">
@@ -10632,7 +10653,7 @@
       <c r="D52" s="6"/>
       <c r="E52"/>
       <c r="F52" s="6" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>151</v>
@@ -10645,48 +10666,48 @@
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="F53"/>
       <c r="H53" s="1" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="54" ht="13" customHeight="1" spans="1:8">
       <c r="A54" s="6" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="F54"/>
       <c r="G54" s="2" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="H54"/>
     </row>
     <row r="55" ht="13" customHeight="1" spans="1:8">
       <c r="A55" s="6" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
       <c r="E55" s="6" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="F55"/>
       <c r="G55" s="2" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H55"/>
     </row>
     <row r="56" ht="13" customHeight="1" spans="1:8">
       <c r="A56" s="6" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B56"/>
       <c r="C56"/>
@@ -10700,7 +10721,7 @@
     </row>
     <row r="57" ht="13" customHeight="1" spans="1:8">
       <c r="A57" s="6" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B57"/>
       <c r="C57"/>
@@ -10708,7 +10729,7 @@
       <c r="E57" s="6"/>
       <c r="F57"/>
       <c r="G57" s="2" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="H57"/>
     </row>
@@ -10719,10 +10740,10 @@
       <c r="D58"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="H58"/>
     </row>
@@ -10733,10 +10754,10 @@
       <c r="D59"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="H59"/>
     </row>
@@ -10747,10 +10768,10 @@
       <c r="D60"/>
       <c r="E60"/>
       <c r="F60" s="6" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="H60"/>
     </row>
@@ -10761,10 +10782,10 @@
       <c r="D61"/>
       <c r="E61"/>
       <c r="F61" s="6" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H61"/>
     </row>
@@ -10774,11 +10795,11 @@
       <c r="C62"/>
       <c r="D62"/>
       <c r="E62" s="6" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="2" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="H62"/>
     </row>
@@ -10788,17 +10809,17 @@
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63" s="6" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="2" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="H63"/>
     </row>
     <row r="64" ht="13" customHeight="1" spans="1:8">
       <c r="A64" s="6" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B64"/>
       <c r="C64"/>
@@ -10806,43 +10827,43 @@
       <c r="E64" s="6"/>
       <c r="F64"/>
       <c r="G64" s="2" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="H64"/>
     </row>
     <row r="65" ht="13" customHeight="1" spans="1:8">
       <c r="A65" s="6" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="F65"/>
       <c r="G65" s="9" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="H65"/>
     </row>
     <row r="66" ht="13" customHeight="1" spans="1:8">
       <c r="A66" s="6"/>
       <c r="B66" s="7" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C66"/>
       <c r="D66"/>
       <c r="E66" s="6"/>
       <c r="F66"/>
       <c r="G66" s="9" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="H66"/>
     </row>
@@ -11879,7 +11900,7 @@
     <row r="68" ht="13" customHeight="1" spans="1:1024">
       <c r="A68" s="6"/>
       <c r="B68" s="7" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C68"/>
       <c r="D68"/>
@@ -12908,16 +12929,16 @@
     </row>
     <row r="69" ht="13" customHeight="1" spans="1:1024">
       <c r="A69" s="6" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>360</v>
@@ -13951,16 +13972,16 @@
         <v>197</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="10" t="s">
         <v>197</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>196</v>
@@ -15000,10 +15021,10 @@
         <v>203</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>203</v>
@@ -16031,7 +16052,7 @@
         <v>639</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>210</v>
@@ -16040,10 +16061,10 @@
         <v>210</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>210</v>
@@ -17071,7 +17092,7 @@
         <v>49</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>216</v>
@@ -17080,10 +17101,10 @@
         <v>216</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>216</v>
@@ -18113,10 +18134,10 @@
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74" s="6" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="F74"/>
       <c r="G74" s="2" t="s">
@@ -19145,7 +19166,7 @@
         <v>225</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>225</v>
@@ -20182,7 +20203,7 @@
     </row>
     <row r="76" ht="13" customHeight="1" spans="1:1024">
       <c r="A76" s="6" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>655</v>
@@ -20194,10 +20215,10 @@
         <v>656</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>656</v>
@@ -21222,25 +21243,25 @@
     </row>
     <row r="77" ht="13" customHeight="1" spans="1:1024">
       <c r="A77" s="6" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="F77" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>748</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>746</v>
       </c>
       <c r="H77"/>
       <c r="I77"/>
@@ -22262,21 +22283,21 @@
     </row>
     <row r="78" ht="13" customHeight="1" spans="1:1024">
       <c r="A78" s="6" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C78"/>
       <c r="D78"/>
       <c r="E78" s="6" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="H78"/>
       <c r="I78"/>
@@ -23298,10 +23319,10 @@
     </row>
     <row r="79" ht="13" customHeight="1" spans="1:1024">
       <c r="A79" s="6" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>277</v>
@@ -23310,10 +23331,10 @@
         <v>277</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>277</v>
@@ -24341,7 +24362,7 @@
         <v>284</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>284</v>
@@ -24350,10 +24371,10 @@
         <v>284</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>284</v>
@@ -25381,7 +25402,7 @@
         <v>270</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>270</v>
@@ -25390,10 +25411,10 @@
         <v>270</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>270</v>
@@ -26418,69 +26439,69 @@
     </row>
     <row r="82" ht="13" customHeight="1" spans="1:7">
       <c r="A82" s="6" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B82"/>
       <c r="C82"/>
       <c r="D82"/>
       <c r="E82" s="6" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="F82"/>
       <c r="G82" s="2" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="83" ht="13" customHeight="1" spans="1:7">
       <c r="A83" s="6" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="F83" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>771</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="84" ht="13" customHeight="1" spans="1:7">
       <c r="A84" s="6" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="D84" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="E84" s="6" t="s">
         <v>775</v>
       </c>
-      <c r="E84" s="6" t="s">
-        <v>773</v>
-      </c>
       <c r="F84" s="6" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="85" ht="13" customHeight="1" spans="1:7">
       <c r="A85" s="6"/>
       <c r="B85" s="7" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>439</v>
@@ -26488,7 +26509,7 @@
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>439</v>
@@ -26496,85 +26517,85 @@
     </row>
     <row r="86" ht="13" customHeight="1" spans="1:7">
       <c r="A86" s="6" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C86"/>
       <c r="D86" s="6" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F86" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>783</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="87" ht="13" customHeight="1" spans="1:7">
       <c r="A87" s="6" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B87" s="6"/>
       <c r="C87"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="F87" s="6"/>
       <c r="G87" s="2" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="88" ht="13" customHeight="1" spans="1:7">
       <c r="A88" s="6" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88"/>
       <c r="D88" s="6"/>
       <c r="E88" s="6" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="2" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="89" ht="13" customHeight="1" spans="1:7">
       <c r="A89" s="6" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89"/>
       <c r="D89" s="6"/>
       <c r="E89" s="6" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="F89" s="6"/>
       <c r="G89" s="2" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="90" ht="13" customHeight="1" spans="1:7">
       <c r="A90" s="6" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B90" s="6"/>
       <c r="C90"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="91" ht="13" customHeight="1" spans="1:7">
@@ -26584,10 +26605,10 @@
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>797</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="92" ht="13" customHeight="1" spans="1:7">
@@ -26597,7 +26618,7 @@
       <c r="D92"/>
       <c r="E92"/>
       <c r="F92" s="6" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>231</v>
@@ -26620,22 +26641,22 @@
     </row>
     <row r="94" ht="13" customHeight="1" spans="1:7">
       <c r="A94" s="6" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B94"/>
       <c r="C94"/>
       <c r="D94"/>
       <c r="E94" s="6" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="F94" s="6"/>
       <c r="G94" s="2" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="95" ht="13" customHeight="1" spans="1:7">
       <c r="A95" s="6" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B95"/>
       <c r="C95"/>
@@ -26643,13 +26664,13 @@
       <c r="E95"/>
       <c r="F95" s="6"/>
       <c r="G95" s="2" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
     <row r="96" ht="13" customHeight="1" spans="1:7">
       <c r="A96"/>
       <c r="B96" s="7" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="C96"/>
       <c r="D96"/>
@@ -26662,92 +26683,92 @@
     <row r="97" ht="13" customHeight="1" spans="1:7">
       <c r="A97"/>
       <c r="B97" s="6" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C97"/>
       <c r="D97"/>
       <c r="E97"/>
       <c r="F97" s="6"/>
       <c r="G97" s="2" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="98" ht="13" customHeight="1" spans="1:7">
       <c r="A98"/>
       <c r="B98" s="6" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C98"/>
       <c r="D98"/>
       <c r="E98"/>
       <c r="F98" s="6"/>
       <c r="G98" s="2" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="99" ht="13" customHeight="1" spans="1:7">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99" s="6" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="D99"/>
       <c r="E99"/>
       <c r="F99" s="6"/>
       <c r="G99" s="2" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="100" ht="13" customHeight="1" spans="1:7">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100" s="6" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="D100"/>
       <c r="E100"/>
       <c r="F100"/>
       <c r="G100" s="2" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="101" ht="13" customHeight="1" spans="1:7">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101" s="6" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="D101"/>
       <c r="E101"/>
       <c r="F101"/>
       <c r="G101" s="2" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="102" ht="13" customHeight="1" spans="1:7">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102" s="6" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D102"/>
       <c r="E102"/>
       <c r="F102"/>
       <c r="G102" s="2" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
     </row>
     <row r="103" ht="13" customHeight="1" spans="1:7">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103" s="6" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="D103"/>
       <c r="E103"/>
       <c r="F103"/>
       <c r="G103" s="2" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="104" ht="13" customHeight="1" spans="1:7">
@@ -26769,7 +26790,7 @@
       <c r="C105" s="6"/>
       <c r="D105"/>
       <c r="E105" s="6" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="F105" s="6"/>
       <c r="G105" s="2" t="s">
@@ -26783,10 +26804,10 @@
       <c r="D106" s="6"/>
       <c r="E106"/>
       <c r="F106" s="6" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="107" ht="13" customHeight="1" spans="1:7">
@@ -26796,10 +26817,10 @@
       <c r="D107" s="6"/>
       <c r="E107"/>
       <c r="F107" s="6" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="108" ht="13" customHeight="1" spans="1:7">
@@ -26851,7 +26872,7 @@
         <v>415</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="112" ht="13" customHeight="1" spans="1:7">
@@ -26859,12 +26880,12 @@
       <c r="B112" s="6"/>
       <c r="C112"/>
       <c r="D112" s="6" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="E112" s="6"/>
       <c r="F112"/>
       <c r="G112" s="2" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="113" ht="13" customHeight="1" spans="1:7">
@@ -26872,220 +26893,220 @@
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
       <c r="D113" s="6" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
       <c r="G113" s="2" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="114" ht="13" customHeight="1" spans="1:7">
-      <c r="A114" s="6" t="s">
-        <v>824</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>825</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>824</v>
-      </c>
+      <c r="A114" s="6"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
       <c r="D114" s="6" t="s">
         <v>826</v>
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
       <c r="G114" s="2" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="115" ht="13" customHeight="1" spans="1:7">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
+      <c r="D115" s="6" t="s">
+        <v>827</v>
+      </c>
       <c r="E115" s="6"/>
-      <c r="F115" s="6" t="s">
-        <v>660</v>
-      </c>
+      <c r="F115" s="6"/>
       <c r="G115" s="2" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="116" ht="13" customHeight="1" spans="1:7">
       <c r="A116" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="B116" s="7" t="s">
         <v>828</v>
       </c>
+      <c r="B116" s="6" t="s">
+        <v>829</v>
+      </c>
       <c r="C116" s="6" t="s">
-        <v>126</v>
+        <v>828</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="F116" s="6" t="s">
-        <v>125</v>
-      </c>
+        <v>830</v>
+      </c>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
       <c r="G116" s="2" t="s">
-        <v>126</v>
+        <v>828</v>
       </c>
     </row>
     <row r="117" ht="13" customHeight="1" spans="1:7">
-      <c r="A117" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
+      <c r="A117" s="6"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>831</v>
+      </c>
     </row>
     <row r="118" ht="13" customHeight="1" spans="1:7">
       <c r="A118" s="6" t="s">
-        <v>618</v>
+        <v>661</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>12</v>
+        <v>832</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>829</v>
+        <v>470</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
     </row>
     <row r="119" ht="13" customHeight="1" spans="1:7">
-      <c r="A119" s="6" t="s">
-        <v>830</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>831</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>622</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>622</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>832</v>
-      </c>
-      <c r="F119" s="6" t="s">
-        <v>833</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>622</v>
-      </c>
+      <c r="A119" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
     </row>
     <row r="120" ht="13" customHeight="1" spans="1:7">
       <c r="A120" s="6" t="s">
-        <v>834</v>
+        <v>618</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>835</v>
+        <v>12</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E120"/>
+        <v>17</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>833</v>
+      </c>
       <c r="F120" s="6" t="s">
-        <v>630</v>
+        <v>16</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" ht="13" customHeight="1" spans="1:7">
       <c r="A121" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="E121" s="6" t="s">
         <v>836</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="F121" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="122" ht="13" customHeight="1" spans="1:7">
+      <c r="A122" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E122"/>
+      <c r="F122" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="123" ht="13" customHeight="1" spans="1:7">
+      <c r="A123" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="B123" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C121" s="6" t="s">
+      <c r="C123" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D121" s="6" t="s">
+      <c r="D123" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E121" s="6" t="s">
+      <c r="E123" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="F121" s="6" t="s">
+      <c r="F123" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="G121" s="2" t="s">
+      <c r="G123" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="122" ht="13" customHeight="1" spans="1:7">
-      <c r="A122" s="6"/>
-      <c r="B122" s="6"/>
-      <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6" t="s">
-        <v>837</v>
-      </c>
-      <c r="F122" s="6"/>
-      <c r="G122" s="2" t="s">
+    <row r="124" ht="13" customHeight="1" spans="1:7">
+      <c r="A124" s="6"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="F124" s="6"/>
+      <c r="G124" s="2" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="123" ht="13" customHeight="1" spans="1:7">
-      <c r="A123"/>
-      <c r="B123"/>
-      <c r="C123"/>
-      <c r="D123"/>
-      <c r="E123" s="6" t="s">
-        <v>838</v>
-      </c>
-      <c r="F123"/>
-      <c r="G123" s="2" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="124" ht="13" customHeight="1" spans="1:7">
-      <c r="A124"/>
-      <c r="B124"/>
-      <c r="C124" s="6"/>
-      <c r="D124"/>
-      <c r="E124" s="6" t="s">
-        <v>840</v>
-      </c>
-      <c r="F124"/>
-      <c r="G124" s="2" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="125" ht="13" customHeight="1" spans="1:7">
       <c r="A125"/>
       <c r="B125"/>
-      <c r="C125" s="6"/>
+      <c r="C125"/>
       <c r="D125"/>
       <c r="E125" s="6" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="F125"/>
       <c r="G125" s="2" t="s">
-        <v>315</v>
+        <v>843</v>
       </c>
     </row>
     <row r="126" ht="13" customHeight="1" spans="1:7">
@@ -27094,11 +27115,11 @@
       <c r="C126" s="6"/>
       <c r="D126"/>
       <c r="E126" s="6" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="F126"/>
       <c r="G126" s="2" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="127" ht="13" customHeight="1" spans="1:7">
@@ -27107,11 +27128,11 @@
       <c r="C127" s="6"/>
       <c r="D127"/>
       <c r="E127" s="6" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="F127"/>
       <c r="G127" s="2" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
     </row>
     <row r="128" ht="13" customHeight="1" spans="1:7">
@@ -27120,11 +27141,11 @@
       <c r="C128" s="6"/>
       <c r="D128"/>
       <c r="E128" s="6" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="F128"/>
       <c r="G128" s="2" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
     </row>
     <row r="129" ht="13" customHeight="1" spans="1:7">
@@ -27133,135 +27154,131 @@
       <c r="C129" s="6"/>
       <c r="D129"/>
       <c r="E129" s="6" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="F129"/>
       <c r="G129" s="2" t="s">
-        <v>846</v>
+        <v>327</v>
       </c>
     </row>
     <row r="130" ht="13" customHeight="1" spans="1:7">
       <c r="A130"/>
-      <c r="B130" s="7" t="s">
-        <v>847</v>
-      </c>
+      <c r="B130"/>
       <c r="C130" s="6"/>
-      <c r="D130" s="6" t="s">
-        <v>459</v>
-      </c>
+      <c r="D130"/>
       <c r="E130" s="6" t="s">
         <v>848</v>
       </c>
       <c r="F130"/>
       <c r="G130" s="2" t="s">
-        <v>459</v>
+        <v>333</v>
       </c>
     </row>
     <row r="131" ht="13" customHeight="1" spans="1:7">
       <c r="A131"/>
-      <c r="B131" s="6" t="s">
+      <c r="B131"/>
+      <c r="C131" s="6"/>
+      <c r="D131"/>
+      <c r="E131" s="6" t="s">
         <v>849</v>
       </c>
-      <c r="C131" s="6"/>
-      <c r="D131" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="E131" s="6"/>
       <c r="F131"/>
       <c r="G131" s="2" t="s">
-        <v>203</v>
+        <v>850</v>
       </c>
     </row>
     <row r="132" ht="13" customHeight="1" spans="1:7">
       <c r="A132"/>
-      <c r="B132" s="6" t="s">
-        <v>850</v>
+      <c r="B132" s="7" t="s">
+        <v>851</v>
       </c>
       <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
+      <c r="D132" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>852</v>
+      </c>
       <c r="F132"/>
       <c r="G132" s="2" t="s">
-        <v>851</v>
+        <v>459</v>
       </c>
     </row>
     <row r="133" ht="13" customHeight="1" spans="1:7">
-      <c r="A133" s="6" t="s">
-        <v>852</v>
-      </c>
-      <c r="B133"/>
+      <c r="A133"/>
+      <c r="B133" s="6" t="s">
+        <v>853</v>
+      </c>
       <c r="C133" s="6"/>
       <c r="D133" s="6" t="s">
-        <v>853</v>
-      </c>
-      <c r="E133"/>
-      <c r="F133" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E133" s="6"/>
+      <c r="F133"/>
+      <c r="G133" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="134" ht="13" customHeight="1" spans="1:7">
+      <c r="A134"/>
+      <c r="B134" s="6" t="s">
         <v>854</v>
       </c>
-      <c r="G133" s="2" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="134" ht="13" customHeight="1" spans="1:7">
-      <c r="A134" s="6" t="s">
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="F134"/>
+      <c r="G134" s="2" t="s">
         <v>855</v>
-      </c>
-      <c r="B134"/>
-      <c r="C134" s="6"/>
-      <c r="D134" s="6" t="s">
-        <v>856</v>
-      </c>
-      <c r="E134"/>
-      <c r="F134" s="6" t="s">
-        <v>857</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="135" ht="13" customHeight="1" spans="1:7">
       <c r="A135" s="6" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B135"/>
       <c r="C135" s="6"/>
       <c r="D135" s="6" t="s">
-        <v>859</v>
-      </c>
-      <c r="E135" s="6"/>
+        <v>857</v>
+      </c>
+      <c r="E135"/>
       <c r="F135" s="6" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
     </row>
     <row r="136" ht="13" customHeight="1" spans="1:7">
       <c r="A136" s="6" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B136"/>
       <c r="C136" s="6"/>
       <c r="D136" s="6" t="s">
-        <v>863</v>
-      </c>
-      <c r="E136" s="6"/>
-      <c r="F136"/>
+        <v>860</v>
+      </c>
+      <c r="E136"/>
+      <c r="F136" s="6" t="s">
+        <v>861</v>
+      </c>
       <c r="G136" s="2" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="137" ht="13" customHeight="1" spans="1:7">
       <c r="A137" s="6" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B137"/>
       <c r="C137" s="6"/>
       <c r="D137" s="6" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E137" s="6"/>
-      <c r="F137"/>
+      <c r="F137" s="6" t="s">
+        <v>864</v>
+      </c>
       <c r="G137" s="2" t="s">
         <v>865</v>
       </c>
@@ -27278,11 +27295,13 @@
       <c r="E138" s="6"/>
       <c r="F138"/>
       <c r="G138" s="2" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="139" ht="13" customHeight="1" spans="1:7">
+      <c r="A139" s="6" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="139" ht="13" customHeight="1" spans="1:7">
-      <c r="A139"/>
       <c r="B139"/>
       <c r="C139" s="6"/>
       <c r="D139" s="6" t="s">
@@ -27295,16 +27314,18 @@
       </c>
     </row>
     <row r="140" ht="13" customHeight="1" spans="1:7">
-      <c r="A140"/>
+      <c r="A140" s="6" t="s">
+        <v>870</v>
+      </c>
       <c r="B140"/>
       <c r="C140" s="6"/>
       <c r="D140" s="6" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="E140" s="6"/>
       <c r="F140"/>
       <c r="G140" s="2" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="141" ht="13" customHeight="1" spans="1:7">
@@ -27312,126 +27333,126 @@
       <c r="B141"/>
       <c r="C141" s="6"/>
       <c r="D141" s="6" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="E141" s="6"/>
       <c r="F141"/>
       <c r="G141" s="2" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="142" ht="13" customHeight="1" spans="1:7">
-      <c r="A142" s="6" t="s">
-        <v>873</v>
-      </c>
+      <c r="A142"/>
       <c r="B142"/>
       <c r="C142" s="6"/>
-      <c r="D142"/>
+      <c r="D142" s="6" t="s">
+        <v>874</v>
+      </c>
       <c r="E142" s="6"/>
-      <c r="F142" s="6" t="s">
+      <c r="F142"/>
+      <c r="G142" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="G142" s="2" t="s">
-        <v>875</v>
-      </c>
     </row>
     <row r="143" ht="13" customHeight="1" spans="1:7">
-      <c r="A143" s="6" t="s">
-        <v>876</v>
-      </c>
+      <c r="A143"/>
       <c r="B143"/>
       <c r="C143" s="6"/>
-      <c r="D143"/>
+      <c r="D143" s="6" t="s">
+        <v>875</v>
+      </c>
       <c r="E143" s="6"/>
-      <c r="F143" s="6" t="s">
-        <v>877</v>
-      </c>
+      <c r="F143"/>
       <c r="G143" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="144" ht="13" customHeight="1" spans="1:7">
       <c r="A144" s="6" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B144"/>
       <c r="C144" s="6"/>
       <c r="D144"/>
       <c r="E144" s="6"/>
       <c r="F144" s="6" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="145" ht="13" customHeight="1" spans="1:7">
       <c r="A145" s="6" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B145"/>
       <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
+      <c r="D145"/>
       <c r="E145" s="6"/>
       <c r="F145" s="6" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="146" ht="13" customHeight="1" spans="1:7">
       <c r="A146" s="6" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B146"/>
       <c r="C146" s="6"/>
-      <c r="D146" s="6"/>
+      <c r="D146"/>
       <c r="E146" s="6"/>
       <c r="F146" s="6" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="147" ht="13" customHeight="1" spans="1:7">
       <c r="A147" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B147"/>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
       <c r="E147" s="6"/>
       <c r="F147" s="6" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="148" ht="13" customHeight="1" spans="1:7">
       <c r="A148" s="6" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B148"/>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
-      <c r="F148"/>
+      <c r="F148" s="6" t="s">
+        <v>890</v>
+      </c>
       <c r="G148" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="149" ht="13" customHeight="1" spans="1:7">
       <c r="A149" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B149"/>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
       <c r="E149" s="6"/>
-      <c r="F149" s="6"/>
+      <c r="F149" s="6" t="s">
+        <v>893</v>
+      </c>
       <c r="G149" s="2" t="s">
         <v>894</v>
       </c>
@@ -27444,16 +27465,16 @@
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
       <c r="E150" s="6"/>
-      <c r="F150" s="6"/>
+      <c r="F150"/>
       <c r="G150" s="2" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="151" ht="13" customHeight="1" spans="1:7">
-      <c r="A151" s="6"/>
-      <c r="B151" s="6" t="s">
+      <c r="A151" s="6" t="s">
         <v>897</v>
       </c>
+      <c r="B151"/>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
       <c r="E151" s="6"/>
@@ -27463,10 +27484,10 @@
       </c>
     </row>
     <row r="152" ht="13" customHeight="1" spans="1:7">
-      <c r="A152" s="6"/>
-      <c r="B152" s="7" t="s">
+      <c r="A152" s="6" t="s">
         <v>899</v>
       </c>
+      <c r="B152"/>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
       <c r="E152" s="6"/>
@@ -27477,7 +27498,7 @@
     </row>
     <row r="153" ht="13" customHeight="1" spans="1:7">
       <c r="A153" s="6"/>
-      <c r="B153" s="7" t="s">
+      <c r="B153" s="6" t="s">
         <v>901</v>
       </c>
       <c r="C153" s="6"/>
@@ -27503,7 +27524,7 @@
     </row>
     <row r="155" ht="13" customHeight="1" spans="1:7">
       <c r="A155" s="6"/>
-      <c r="B155" s="6" t="s">
+      <c r="B155" s="7" t="s">
         <v>905</v>
       </c>
       <c r="C155" s="6"/>
@@ -27529,7 +27550,7 @@
     </row>
     <row r="157" ht="13" customHeight="1" spans="1:7">
       <c r="A157" s="6"/>
-      <c r="B157" s="7" t="s">
+      <c r="B157" s="6" t="s">
         <v>909</v>
       </c>
       <c r="C157" s="6"/>
@@ -27594,7 +27615,7 @@
     </row>
     <row r="162" ht="13" customHeight="1" spans="1:7">
       <c r="A162" s="6"/>
-      <c r="B162" s="6" t="s">
+      <c r="B162" s="7" t="s">
         <v>919</v>
       </c>
       <c r="C162" s="6"/>
@@ -27607,7 +27628,7 @@
     </row>
     <row r="163" ht="13" customHeight="1" spans="1:7">
       <c r="A163" s="6"/>
-      <c r="B163" s="6" t="s">
+      <c r="B163" s="7" t="s">
         <v>921</v>
       </c>
       <c r="C163" s="6"/>
@@ -27624,7 +27645,7 @@
         <v>923</v>
       </c>
       <c r="C164" s="6"/>
-      <c r="D164"/>
+      <c r="D164" s="6"/>
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
       <c r="G164" s="2" t="s">
@@ -27633,7 +27654,7 @@
     </row>
     <row r="165" ht="13" customHeight="1" spans="1:7">
       <c r="A165" s="6"/>
-      <c r="B165" s="7" t="s">
+      <c r="B165" s="6" t="s">
         <v>925</v>
       </c>
       <c r="C165" s="6"/>
@@ -27650,7 +27671,7 @@
         <v>927</v>
       </c>
       <c r="C166" s="6"/>
-      <c r="D166" s="6"/>
+      <c r="D166"/>
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
       <c r="G166" s="2" t="s">
@@ -27659,7 +27680,7 @@
     </row>
     <row r="167" ht="13" customHeight="1" spans="1:7">
       <c r="A167" s="6"/>
-      <c r="B167" s="6" t="s">
+      <c r="B167" s="7" t="s">
         <v>929</v>
       </c>
       <c r="C167" s="6"/>
@@ -27672,12 +27693,12 @@
     </row>
     <row r="168" ht="13" customHeight="1" spans="1:7">
       <c r="A168" s="6"/>
-      <c r="B168" s="6"/>
+      <c r="B168" s="6" t="s">
+        <v>931</v>
+      </c>
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
-      <c r="E168" s="6" t="s">
-        <v>931</v>
-      </c>
+      <c r="E168" s="6"/>
       <c r="F168" s="6"/>
       <c r="G168" s="2" t="s">
         <v>932</v>
@@ -27685,57 +27706,67 @@
     </row>
     <row r="169" ht="13" customHeight="1" spans="1:7">
       <c r="A169" s="6"/>
-      <c r="B169" s="6"/>
+      <c r="B169" s="6" t="s">
+        <v>933</v>
+      </c>
       <c r="C169" s="6"/>
-      <c r="D169" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E169"/>
-      <c r="F169" s="6" t="s">
-        <v>660</v>
-      </c>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
+      <c r="F169" s="6"/>
       <c r="G169" s="2" t="s">
-        <v>118</v>
+        <v>934</v>
       </c>
     </row>
     <row r="170" ht="13" customHeight="1" spans="1:7">
-      <c r="A170" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="B170" s="6" t="s">
-        <v>933</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D170" s="6" t="s">
-        <v>126</v>
-      </c>
+      <c r="A170" s="6"/>
+      <c r="B170" s="6"/>
+      <c r="C170" s="6"/>
+      <c r="D170" s="6"/>
       <c r="E170" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="F170" s="6" t="s">
-        <v>125</v>
-      </c>
+        <v>935</v>
+      </c>
+      <c r="F170" s="6"/>
       <c r="G170" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="171" ht="13" customHeight="1" spans="1:6">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="171" ht="13" customHeight="1" spans="1:7">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
-      <c r="D171" s="6"/>
-      <c r="E171" s="6"/>
-      <c r="F171" s="6"/>
-    </row>
-    <row r="172" ht="13" customHeight="1" spans="1:6">
-      <c r="A172" s="6"/>
-      <c r="B172" s="6"/>
-      <c r="C172" s="6"/>
-      <c r="D172" s="6"/>
-      <c r="E172" s="6"/>
-      <c r="F172" s="6"/>
+      <c r="D171" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E171"/>
+      <c r="F171" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="172" ht="13" customHeight="1" spans="1:7">
+      <c r="A172" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="F172" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="173" ht="13" customHeight="1" spans="1:6">
       <c r="A173" s="6"/>
@@ -27817,8 +27848,24 @@
       <c r="E182" s="6"/>
       <c r="F182" s="6"/>
     </row>
+    <row r="183" ht="13" customHeight="1" spans="1:6">
+      <c r="A183" s="6"/>
+      <c r="B183" s="6"/>
+      <c r="C183" s="6"/>
+      <c r="D183" s="6"/>
+      <c r="E183" s="6"/>
+      <c r="F183" s="6"/>
+    </row>
+    <row r="184" ht="13" customHeight="1" spans="1:6">
+      <c r="A184" s="6"/>
+      <c r="B184" s="6"/>
+      <c r="C184" s="6"/>
+      <c r="D184" s="6"/>
+      <c r="E184" s="6"/>
+      <c r="F184" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G170"/>
+  <autoFilter ref="A1:G172"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>

--- a/docs/Normalization.xlsx
+++ b/docs/Normalization.xlsx
@@ -3157,10 +3157,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -3196,8 +3196,60 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -3211,29 +3263,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3241,22 +3272,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3270,31 +3286,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3308,16 +3316,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3331,10 +3331,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3344,15 +3351,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3391,8 +3391,68 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor rgb="FFE2F0D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.8"/>
         <bgColor rgb="FFE2F0D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -3403,7 +3463,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3415,67 +3499,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3487,19 +3511,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3517,7 +3535,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3529,43 +3553,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3578,6 +3572,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3600,17 +3606,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3631,16 +3661,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3656,21 +3686,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -3679,156 +3694,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3860,6 +3866,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -8876,7 +8885,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="47.2583333333333" style="11"/>
+    <col min="1" max="1" width="47.2583333333333" style="12"/>
     <col min="2" max="2" width="47.7416666666667"/>
     <col min="3" max="3" width="49.2583333333333"/>
   </cols>
@@ -8893,183 +8902,183 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>473</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>476</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>477</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>478</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
     </row>
     <row r="10" ht="146.25" spans="1:3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>481</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="14" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>485</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
     </row>
     <row r="14" ht="97.5" spans="1:3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="14" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>490</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="13" t="s">
         <v>493</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" ht="12.75" customHeight="1" spans="1:3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
         <v>494</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="15" t="s">
         <v>495</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="16" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="13" t="s">
         <v>497</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="13" t="s">
         <v>498</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
     </row>
     <row r="22" ht="12.75" customHeight="1" spans="1:3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="13" t="s">
         <v>499</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="15" t="s">
         <v>500</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="16" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="13" t="s">
         <v>502</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
     </row>
     <row r="24" ht="107.25" spans="1:3">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="14" t="s">
         <v>505</v>
       </c>
     </row>
@@ -9085,90 +9094,90 @@
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="12" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="12" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="12" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="12" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="12" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="12" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="12" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="12" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="12" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="12" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="12" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="12" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="12" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="12" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="12" t="s">
         <v>520</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="12" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="12" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="12" t="s">
         <v>523</v>
       </c>
     </row>
@@ -9176,140 +9185,140 @@
       <c r="A43" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="17" t="s">
         <v>471</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="17" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="12" t="s">
         <v>524</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12" t="s">
+      <c r="B44" s="13"/>
+      <c r="C44" s="13" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="45" ht="78" spans="1:3">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="12" t="s">
         <v>526</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="13" t="s">
         <v>527</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="14" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="46" ht="29.25" spans="1:3">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="12" t="s">
         <v>529</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="14" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="13" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="48" ht="19.5" spans="1:3">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="13" t="s">
         <v>535</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="14" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="49" ht="19.5" spans="1:3">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="13" t="s">
         <v>538</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="14" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="50" ht="29.25" spans="1:3">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="13" t="s">
         <v>541</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="14" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="13" t="s">
         <v>541</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="13" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="52" ht="409.5" spans="1:3">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="12" t="s">
         <v>545</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="13" t="s">
         <v>527</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="14" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="13" t="s">
         <v>527</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="13" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="13" t="s">
         <v>541</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="13" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="13" t="s">
         <v>541</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="13" t="s">
         <v>544</v>
       </c>
     </row>
@@ -9325,236 +9334,236 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="13" t="s">
         <v>552</v>
       </c>
-      <c r="C57" s="12"/>
+      <c r="C57" s="13"/>
     </row>
     <row r="58" ht="87.75" spans="1:3">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="12" t="s">
         <v>553</v>
       </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="13" t="s">
+      <c r="B58" s="13"/>
+      <c r="C58" s="14" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="59" ht="107.25" spans="1:3">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="12" t="s">
         <v>555</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="13" t="s">
         <v>556</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="14" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="12" t="s">
         <v>558</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="13" t="s">
         <v>556</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="13" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="12" t="s">
         <v>560</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="13" t="s">
         <v>561</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="13" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="12" t="s">
         <v>562</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C62" s="13" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="12" t="s">
         <v>564</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="13" t="s">
         <v>565</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="13" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="64" ht="97.5" spans="1:3">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="12" t="s">
         <v>566</v>
       </c>
-      <c r="B64" s="12"/>
-      <c r="C64" s="13" t="s">
+      <c r="B64" s="13"/>
+      <c r="C64" s="14" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12" t="s">
+      <c r="B65" s="13"/>
+      <c r="C65" s="13" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="12" t="s">
         <v>569</v>
       </c>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12" t="s">
+      <c r="B66" s="13"/>
+      <c r="C66" s="13" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="67" ht="48.75" spans="1:3">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="B67" s="12"/>
-      <c r="C67" s="13" t="s">
+      <c r="B67" s="13"/>
+      <c r="C67" s="14" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="68" ht="78" spans="1:3">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="12" t="s">
         <v>572</v>
       </c>
-      <c r="B68" s="12"/>
-      <c r="C68" s="13" t="s">
+      <c r="B68" s="13"/>
+      <c r="C68" s="14" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C69" s="13" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="12" t="s">
         <v>577</v>
       </c>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12" t="s">
+      <c r="B70" s="13"/>
+      <c r="C70" s="13" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="71" ht="48.75" spans="1:3">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="13" t="s">
         <v>580</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C71" s="14" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="13" t="s">
         <v>561</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="C72" s="13" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="73" ht="39" spans="1:3">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="13" t="s">
         <v>584</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C73" s="14" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12" t="s">
+      <c r="B74" s="13"/>
+      <c r="C74" s="13" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="11" t="s">
+      <c r="A75" s="12" t="s">
         <v>587</v>
       </c>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12" t="s">
+      <c r="B75" s="13"/>
+      <c r="C75" s="13" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="76" ht="97.5" spans="1:3">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="B76" s="12"/>
-      <c r="C76" s="13" t="s">
+      <c r="B76" s="13"/>
+      <c r="C76" s="14" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="12" t="s">
         <v>590</v>
       </c>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12" t="s">
+      <c r="B77" s="13"/>
+      <c r="C77" s="13" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="78" ht="48.75" spans="1:3">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="12" t="s">
         <v>591</v>
       </c>
-      <c r="B78" s="12"/>
-      <c r="C78" s="13" t="s">
+      <c r="B78" s="13"/>
+      <c r="C78" s="14" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="79" ht="107.25" spans="1:3">
-      <c r="A79" s="11" t="s">
+      <c r="A79" s="12" t="s">
         <v>593</v>
       </c>
-      <c r="B79" s="12"/>
-      <c r="C79" s="13" t="s">
+      <c r="B79" s="13"/>
+      <c r="C79" s="14" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="80" ht="39" spans="1:3">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="12" t="s">
         <v>595</v>
       </c>
-      <c r="B80" s="12"/>
-      <c r="C80" s="13" t="s">
+      <c r="B80" s="13"/>
+      <c r="C80" s="14" t="s">
         <v>596</v>
       </c>
     </row>
@@ -9570,62 +9579,62 @@
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="12" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="11" t="s">
+      <c r="A83" s="12" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="11" t="s">
+      <c r="A84" s="12" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="11" t="s">
+      <c r="A85" s="12" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="12" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="11" t="s">
+      <c r="A87" s="12" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="11" t="s">
+      <c r="A88" s="12" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="11" t="s">
+      <c r="A89" s="12" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="11" t="s">
+      <c r="A90" s="12" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="11" t="s">
+      <c r="A91" s="12" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="11" t="s">
+      <c r="A92" s="12" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="11" t="s">
+      <c r="A93" s="12" t="s">
         <v>608</v>
       </c>
     </row>
@@ -9641,47 +9650,47 @@
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="11" t="s">
+      <c r="A95" s="12" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="11" t="s">
+      <c r="A96" s="12" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="11" t="s">
+      <c r="A97" s="12" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="11" t="s">
+      <c r="A98" s="12" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="11" t="s">
+      <c r="A99" s="12" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="11" t="s">
+      <c r="A100" s="12" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="11" t="s">
+      <c r="A101" s="12" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="11" t="s">
+      <c r="A102" s="12" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="11" t="s">
+      <c r="A103" s="12" t="s">
         <v>617</v>
       </c>
     </row>
@@ -9704,9 +9713,9 @@
   <dimension ref="A1:AMJ184"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9991,7 +10000,7 @@
       </c>
     </row>
     <row r="15" ht="13" customHeight="1" spans="1:7">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="6" t="s">
         <v>639</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -10832,7 +10841,7 @@
       <c r="H64"/>
     </row>
     <row r="65" ht="13" customHeight="1" spans="1:8">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="10" t="s">
         <v>718</v>
       </c>
       <c r="B65" s="7" t="s">
@@ -13977,7 +13986,7 @@
       <c r="C70" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="D70" s="11" t="s">
         <v>197</v>
       </c>
       <c r="E70" s="6" t="s">

--- a/docs/Normalization.xlsx
+++ b/docs/Normalization.xlsx
@@ -3052,7 +3052,7 @@
 Títulos baixados</t>
   </si>
   <si>
-    <t>dischargeQuantity</t>
+    <t>dischargedQuantity</t>
   </si>
   <si>
     <t>Valor dos Registros –
@@ -3060,7 +3060,7 @@
 Títulos baixados</t>
   </si>
   <si>
-    <t>valueQuantity</t>
+    <t>dischargedValue</t>
   </si>
   <si>
     <t>Quantidade de registros
@@ -3071,7 +3071,7 @@
 Abatimento Cancelado</t>
   </si>
   <si>
-    <t>rebateCancelQuantity</t>
+    <t>rebateCanceledQuantity</t>
   </si>
   <si>
     <t>Valor dos Registros –
@@ -3079,7 +3079,7 @@
 Abatimento Cancelado</t>
   </si>
   <si>
-    <t>rebateCancelValue</t>
+    <t>rebateCanceledValue</t>
   </si>
   <si>
     <t>Quantidade dos Registros
@@ -3090,7 +3090,7 @@
 Vencimento Alterado</t>
   </si>
   <si>
-    <t>rebateUpdateQuantity</t>
+    <t>expirationUpdatedQuantity</t>
   </si>
   <si>
     <t>Valor dos Registros –
@@ -3100,25 +3100,25 @@
 Vencimento Alterado</t>
   </si>
   <si>
-    <t>rebateUpdateValue</t>
+    <t>expirationUpdatedValue</t>
   </si>
   <si>
     <t>Quantidade dos Registros-Ocorrência 12 - Abatimento Concedido</t>
   </si>
   <si>
-    <t>rebateQuantity</t>
+    <t>rebatedQuantity</t>
   </si>
   <si>
     <t>Valor dos Registros - Ocorência 12 - Abatimento Concedido</t>
   </si>
   <si>
-    <t>rebateValue</t>
+    <t>rebatedValue</t>
   </si>
   <si>
     <t>Quantidade dos Registros - Ocorrência 19 -  Confirmação Da Instrução de protesto</t>
   </si>
   <si>
-    <t>protestQuantity</t>
+    <t>protestedQuantity</t>
   </si>
   <si>
     <t>Valor dos Registros –
@@ -3128,7 +3128,7 @@
 de Protesto</t>
   </si>
   <si>
-    <t>protestValue</t>
+    <t>protestedValue</t>
   </si>
   <si>
     <t>Valor Total dos Rateios Efetuados</t>
@@ -3157,9 +3157,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
@@ -3205,7 +3205,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -3218,48 +3218,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3270,9 +3240,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3286,23 +3271,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3324,7 +3294,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3332,7 +3302,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3340,13 +3347,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3403,7 +3403,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3415,7 +3427,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3427,37 +3517,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3469,67 +3565,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3541,49 +3583,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3599,8 +3599,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3610,22 +3612,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3646,21 +3648,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -3675,13 +3662,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3694,140 +3685,149 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9713,15 +9713,15 @@
   <dimension ref="A1:AMJ184"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G79" sqref="G79"/>
+      <selection pane="bottomLeft" activeCell="G166" sqref="G166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.2583333333333" style="1"/>
-    <col min="2" max="2" width="20.625" style="1"/>
+    <col min="2" max="2" width="19.8583333333333" style="1" customWidth="1"/>
     <col min="3" max="4" width="16.775" style="1"/>
     <col min="5" max="6" width="20.625" style="1"/>
     <col min="7" max="7" width="17.7416666666667" style="2"/>

--- a/docs/Normalization.xlsx
+++ b/docs/Normalization.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939">
   <si>
     <t>Banco do Brasil</t>
   </si>
@@ -2472,7 +2472,12 @@
 de Instrução de Protesto)</t>
   </si>
   <si>
-    <t>eventCode25</t>
+    <t>protestMotive</t>
+  </si>
+  <si>
+    <t>Identificação da
+Empresa Beneficiário
+no Banco</t>
   </si>
   <si>
     <t>Indicador de Rateio
@@ -3157,10 +3162,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -3212,12 +3217,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -3225,16 +3232,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3247,11 +3251,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3271,35 +3274,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -3309,13 +3283,14 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -3330,9 +3305,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3346,7 +3335,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3403,7 +3408,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3433,7 +3444,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3445,25 +3492,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3481,13 +3510,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3505,49 +3546,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3559,31 +3582,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3597,22 +3602,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3647,21 +3647,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3680,8 +3665,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3694,139 +3679,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -3834,7 +3839,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3867,6 +3872,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -8885,7 +8893,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="47.2583333333333" style="12"/>
+    <col min="1" max="1" width="47.2583333333333" style="13"/>
     <col min="2" max="2" width="47.7416666666667"/>
     <col min="3" max="3" width="49.2583333333333"/>
   </cols>
@@ -8902,183 +8910,183 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>473</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>474</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>477</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>479</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>480</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
     </row>
     <row r="10" ht="146.25" spans="1:3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>481</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="14" t="s">
         <v>484</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>485</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
     </row>
     <row r="14" ht="97.5" spans="1:3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="15" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>490</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="14" t="s">
         <v>491</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="14" t="s">
         <v>492</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="14" t="s">
         <v>493</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
     </row>
     <row r="19" ht="12.75" customHeight="1" spans="1:3">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="14" t="s">
         <v>494</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="16" t="s">
         <v>495</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="17" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="14" t="s">
         <v>497</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="14" t="s">
         <v>498</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
     </row>
     <row r="22" ht="12.75" customHeight="1" spans="1:3">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="14" t="s">
         <v>499</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="16" t="s">
         <v>500</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="17" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="14" t="s">
         <v>502</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
     </row>
     <row r="24" ht="107.25" spans="1:3">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="14" t="s">
         <v>503</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>504</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="15" t="s">
         <v>505</v>
       </c>
     </row>
@@ -9094,90 +9102,90 @@
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="13" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="13" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="13" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="13" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="13" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="13" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="13" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="13" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="13" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="13" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="13" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="13" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="13" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="13" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="13" t="s">
         <v>520</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="13" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="13" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="13" t="s">
         <v>523</v>
       </c>
     </row>
@@ -9185,140 +9193,140 @@
       <c r="A43" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="18" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="13" t="s">
         <v>524</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13" t="s">
+      <c r="B44" s="14"/>
+      <c r="C44" s="14" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="45" ht="78" spans="1:3">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="13" t="s">
         <v>526</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="14" t="s">
         <v>527</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="15" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="46" ht="29.25" spans="1:3">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="13" t="s">
         <v>529</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="14" t="s">
         <v>530</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="15" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="13" t="s">
         <v>532</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="14" t="s">
         <v>530</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="14" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="48" ht="19.5" spans="1:3">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="13" t="s">
         <v>534</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="15" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="49" ht="19.5" spans="1:3">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="13" t="s">
         <v>537</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="14" t="s">
         <v>538</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="15" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="50" ht="29.25" spans="1:3">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="13" t="s">
         <v>540</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="14" t="s">
         <v>541</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="15" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="13" t="s">
         <v>543</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="14" t="s">
         <v>541</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="14" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="52" ht="409.5" spans="1:3">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="13" t="s">
         <v>545</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="14" t="s">
         <v>527</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="15" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="13" t="s">
         <v>547</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="14" t="s">
         <v>527</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="14" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="13" t="s">
         <v>549</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="14" t="s">
         <v>541</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="14" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="13" t="s">
         <v>550</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="14" t="s">
         <v>541</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="14" t="s">
         <v>544</v>
       </c>
     </row>
@@ -9334,236 +9342,236 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="13" t="s">
         <v>551</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="14" t="s">
         <v>552</v>
       </c>
-      <c r="C57" s="13"/>
+      <c r="C57" s="14"/>
     </row>
     <row r="58" ht="87.75" spans="1:3">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="13" t="s">
         <v>553</v>
       </c>
-      <c r="B58" s="13"/>
-      <c r="C58" s="14" t="s">
+      <c r="B58" s="14"/>
+      <c r="C58" s="15" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="59" ht="107.25" spans="1:3">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="13" t="s">
         <v>555</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="15" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="14" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="13" t="s">
         <v>560</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="14" t="s">
         <v>561</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C61" s="14" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="13" t="s">
         <v>562</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="14" t="s">
         <v>563</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="14" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="13" t="s">
         <v>564</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="14" t="s">
         <v>565</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="14" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="64" ht="97.5" spans="1:3">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="13" t="s">
         <v>566</v>
       </c>
-      <c r="B64" s="13"/>
-      <c r="C64" s="14" t="s">
+      <c r="B64" s="14"/>
+      <c r="C64" s="15" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="13" t="s">
         <v>568</v>
       </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13" t="s">
+      <c r="B65" s="14"/>
+      <c r="C65" s="14" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="13" t="s">
         <v>569</v>
       </c>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13" t="s">
+      <c r="B66" s="14"/>
+      <c r="C66" s="14" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="67" ht="48.75" spans="1:3">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="14" t="s">
+      <c r="B67" s="14"/>
+      <c r="C67" s="15" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="68" ht="78" spans="1:3">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="13" t="s">
         <v>572</v>
       </c>
-      <c r="B68" s="13"/>
-      <c r="C68" s="14" t="s">
+      <c r="B68" s="14"/>
+      <c r="C68" s="15" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="14" t="s">
         <v>575</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C69" s="14" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="13" t="s">
         <v>577</v>
       </c>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13" t="s">
+      <c r="B70" s="14"/>
+      <c r="C70" s="14" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="71" ht="48.75" spans="1:3">
-      <c r="A71" s="12" t="s">
+      <c r="A71" s="13" t="s">
         <v>579</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="14" t="s">
         <v>580</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C71" s="15" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="12" t="s">
+      <c r="A72" s="13" t="s">
         <v>582</v>
       </c>
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="14" t="s">
         <v>561</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C72" s="14" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="73" ht="39" spans="1:3">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="13" t="s">
         <v>583</v>
       </c>
-      <c r="B73" s="13" t="s">
+      <c r="B73" s="14" t="s">
         <v>584</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C73" s="15" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="13" t="s">
         <v>586</v>
       </c>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13" t="s">
+      <c r="B74" s="14"/>
+      <c r="C74" s="14" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="12" t="s">
+      <c r="A75" s="13" t="s">
         <v>587</v>
       </c>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13" t="s">
+      <c r="B75" s="14"/>
+      <c r="C75" s="14" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="76" ht="97.5" spans="1:3">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="13" t="s">
         <v>588</v>
       </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="14" t="s">
+      <c r="B76" s="14"/>
+      <c r="C76" s="15" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="12" t="s">
+      <c r="A77" s="13" t="s">
         <v>590</v>
       </c>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13" t="s">
+      <c r="B77" s="14"/>
+      <c r="C77" s="14" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="78" ht="48.75" spans="1:3">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="13" t="s">
         <v>591</v>
       </c>
-      <c r="B78" s="13"/>
-      <c r="C78" s="14" t="s">
+      <c r="B78" s="14"/>
+      <c r="C78" s="15" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="79" ht="107.25" spans="1:3">
-      <c r="A79" s="12" t="s">
+      <c r="A79" s="13" t="s">
         <v>593</v>
       </c>
-      <c r="B79" s="13"/>
-      <c r="C79" s="14" t="s">
+      <c r="B79" s="14"/>
+      <c r="C79" s="15" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="80" ht="39" spans="1:3">
-      <c r="A80" s="12" t="s">
+      <c r="A80" s="13" t="s">
         <v>595</v>
       </c>
-      <c r="B80" s="13"/>
-      <c r="C80" s="14" t="s">
+      <c r="B80" s="14"/>
+      <c r="C80" s="15" t="s">
         <v>596</v>
       </c>
     </row>
@@ -9579,62 +9587,62 @@
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="12" t="s">
+      <c r="A82" s="13" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="12" t="s">
+      <c r="A83" s="13" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="12" t="s">
+      <c r="A84" s="13" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="13" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="12" t="s">
+      <c r="A86" s="13" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="12" t="s">
+      <c r="A87" s="13" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="12" t="s">
+      <c r="A88" s="13" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="12" t="s">
+      <c r="A89" s="13" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="12" t="s">
+      <c r="A90" s="13" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="12" t="s">
+      <c r="A91" s="13" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="12" t="s">
+      <c r="A92" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="12" t="s">
+      <c r="A93" s="13" t="s">
         <v>608</v>
       </c>
     </row>
@@ -9650,47 +9658,47 @@
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="12" t="s">
+      <c r="A95" s="13" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="12" t="s">
+      <c r="A96" s="13" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="12" t="s">
+      <c r="A97" s="13" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="12" t="s">
+      <c r="A98" s="13" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="12" t="s">
+      <c r="A99" s="13" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="12" t="s">
+      <c r="A100" s="13" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="12" t="s">
+      <c r="A101" s="13" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="12" t="s">
+      <c r="A102" s="13" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="12" t="s">
+      <c r="A103" s="13" t="s">
         <v>617</v>
       </c>
     </row>
@@ -9713,9 +9721,9 @@
   <dimension ref="A1:AMJ184"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G166" sqref="G166"/>
+      <selection pane="bottomLeft" activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10878,7 +10886,9 @@
     </row>
     <row r="67" ht="13" customHeight="1" spans="1:1024">
       <c r="A67"/>
-      <c r="B67" s="6"/>
+      <c r="B67" s="11" t="s">
+        <v>726</v>
+      </c>
       <c r="C67" s="6" t="s">
         <v>86</v>
       </c>
@@ -11909,7 +11919,7 @@
     <row r="68" ht="13" customHeight="1" spans="1:1024">
       <c r="A68" s="6"/>
       <c r="B68" s="7" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C68"/>
       <c r="D68"/>
@@ -12938,16 +12948,16 @@
     </row>
     <row r="69" ht="13" customHeight="1" spans="1:1024">
       <c r="A69" s="6" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>360</v>
@@ -13981,16 +13991,16 @@
         <v>197</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="D70" s="12" t="s">
         <v>197</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>196</v>
@@ -15030,10 +15040,10 @@
         <v>203</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>203</v>
@@ -16061,7 +16071,7 @@
         <v>639</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>210</v>
@@ -16070,10 +16080,10 @@
         <v>210</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>210</v>
@@ -17101,7 +17111,7 @@
         <v>49</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>216</v>
@@ -17110,10 +17120,10 @@
         <v>216</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>216</v>
@@ -18143,10 +18153,10 @@
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74" s="6" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="F74"/>
       <c r="G74" s="2" t="s">
@@ -19175,7 +19185,7 @@
         <v>225</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>225</v>
@@ -20212,7 +20222,7 @@
     </row>
     <row r="76" ht="13" customHeight="1" spans="1:1024">
       <c r="A76" s="6" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>655</v>
@@ -20224,10 +20234,10 @@
         <v>656</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>656</v>
@@ -21252,25 +21262,25 @@
     </row>
     <row r="77" ht="13" customHeight="1" spans="1:1024">
       <c r="A77" s="6" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="E77" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>749</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>750</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>748</v>
       </c>
       <c r="H77"/>
       <c r="I77"/>
@@ -22292,21 +22302,21 @@
     </row>
     <row r="78" ht="13" customHeight="1" spans="1:1024">
       <c r="A78" s="6" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C78"/>
       <c r="D78"/>
       <c r="E78" s="6" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H78"/>
       <c r="I78"/>
@@ -23328,10 +23338,10 @@
     </row>
     <row r="79" ht="13" customHeight="1" spans="1:1024">
       <c r="A79" s="6" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>277</v>
@@ -23340,10 +23350,10 @@
         <v>277</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>277</v>
@@ -24371,7 +24381,7 @@
         <v>284</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>284</v>
@@ -24380,10 +24390,10 @@
         <v>284</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>284</v>
@@ -25411,7 +25421,7 @@
         <v>270</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>270</v>
@@ -25420,10 +25430,10 @@
         <v>270</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>270</v>
@@ -26448,69 +26458,69 @@
     </row>
     <row r="82" ht="13" customHeight="1" spans="1:7">
       <c r="A82" s="6" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B82"/>
       <c r="C82"/>
       <c r="D82"/>
       <c r="E82" s="6" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="F82"/>
       <c r="G82" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="83" ht="13" customHeight="1" spans="1:7">
       <c r="A83" s="6" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E83" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>772</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>773</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="84" ht="13" customHeight="1" spans="1:7">
       <c r="A84" s="6" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C84" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="E84" s="6" t="s">
         <v>776</v>
       </c>
-      <c r="D84" s="6" t="s">
-        <v>777</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>775</v>
-      </c>
       <c r="F84" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>778</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="85" ht="13" customHeight="1" spans="1:7">
       <c r="A85" s="6"/>
       <c r="B85" s="7" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>439</v>
@@ -26518,7 +26528,7 @@
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>439</v>
@@ -26526,85 +26536,85 @@
     </row>
     <row r="86" ht="13" customHeight="1" spans="1:7">
       <c r="A86" s="6" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C86"/>
       <c r="D86" s="6" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="E86" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>784</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>785</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="87" ht="13" customHeight="1" spans="1:7">
       <c r="A87" s="6" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B87" s="6"/>
       <c r="C87"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F87" s="6"/>
       <c r="G87" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="88" ht="13" customHeight="1" spans="1:7">
       <c r="A88" s="6" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88"/>
       <c r="D88" s="6"/>
       <c r="E88" s="6" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="89" ht="13" customHeight="1" spans="1:7">
       <c r="A89" s="6" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89"/>
       <c r="D89" s="6"/>
       <c r="E89" s="6" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F89" s="6"/>
       <c r="G89" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="90" ht="13" customHeight="1" spans="1:7">
       <c r="A90" s="6" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B90" s="6"/>
       <c r="C90"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="91" ht="13" customHeight="1" spans="1:7">
@@ -26614,10 +26624,10 @@
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="92" ht="13" customHeight="1" spans="1:7">
@@ -26627,7 +26637,7 @@
       <c r="D92"/>
       <c r="E92"/>
       <c r="F92" s="6" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>231</v>
@@ -26650,22 +26660,22 @@
     </row>
     <row r="94" ht="13" customHeight="1" spans="1:7">
       <c r="A94" s="6" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B94"/>
       <c r="C94"/>
       <c r="D94"/>
       <c r="E94" s="6" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F94" s="6"/>
       <c r="G94" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="95" ht="13" customHeight="1" spans="1:7">
       <c r="A95" s="6" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B95"/>
       <c r="C95"/>
@@ -26673,13 +26683,13 @@
       <c r="E95"/>
       <c r="F95" s="6"/>
       <c r="G95" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="96" ht="13" customHeight="1" spans="1:7">
       <c r="A96"/>
       <c r="B96" s="7" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C96"/>
       <c r="D96"/>
@@ -26692,92 +26702,92 @@
     <row r="97" ht="13" customHeight="1" spans="1:7">
       <c r="A97"/>
       <c r="B97" s="6" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C97"/>
       <c r="D97"/>
       <c r="E97"/>
       <c r="F97" s="6"/>
       <c r="G97" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="98" ht="13" customHeight="1" spans="1:7">
       <c r="A98"/>
       <c r="B98" s="6" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C98"/>
       <c r="D98"/>
       <c r="E98"/>
       <c r="F98" s="6"/>
       <c r="G98" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="99" ht="13" customHeight="1" spans="1:7">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99" s="6" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D99"/>
       <c r="E99"/>
       <c r="F99" s="6"/>
       <c r="G99" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="100" ht="13" customHeight="1" spans="1:7">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100" s="6" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D100"/>
       <c r="E100"/>
       <c r="F100"/>
       <c r="G100" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="101" ht="13" customHeight="1" spans="1:7">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101" s="6" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D101"/>
       <c r="E101"/>
       <c r="F101"/>
       <c r="G101" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="102" ht="13" customHeight="1" spans="1:7">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102" s="6" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D102"/>
       <c r="E102"/>
       <c r="F102"/>
       <c r="G102" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="103" ht="13" customHeight="1" spans="1:7">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103" s="6" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D103"/>
       <c r="E103"/>
       <c r="F103"/>
       <c r="G103" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="104" ht="13" customHeight="1" spans="1:7">
@@ -26799,7 +26809,7 @@
       <c r="C105" s="6"/>
       <c r="D105"/>
       <c r="E105" s="6" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F105" s="6"/>
       <c r="G105" s="2" t="s">
@@ -26813,10 +26823,10 @@
       <c r="D106" s="6"/>
       <c r="E106"/>
       <c r="F106" s="6" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="107" ht="13" customHeight="1" spans="1:7">
@@ -26826,10 +26836,10 @@
       <c r="D107" s="6"/>
       <c r="E107"/>
       <c r="F107" s="6" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="108" ht="13" customHeight="1" spans="1:7">
@@ -26881,7 +26891,7 @@
         <v>415</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="112" ht="13" customHeight="1" spans="1:7">
@@ -26889,12 +26899,12 @@
       <c r="B112" s="6"/>
       <c r="C112"/>
       <c r="D112" s="6" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="E112" s="6"/>
       <c r="F112"/>
       <c r="G112" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="113" ht="13" customHeight="1" spans="1:7">
@@ -26902,12 +26912,12 @@
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
       <c r="D113" s="6" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
       <c r="G113" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="114" ht="13" customHeight="1" spans="1:7">
@@ -26915,12 +26925,12 @@
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
       <c r="D114" s="6" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
       <c r="G114" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="115" ht="13" customHeight="1" spans="1:7">
@@ -26928,31 +26938,31 @@
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
       <c r="D115" s="6" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
       <c r="G115" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="116" ht="13" customHeight="1" spans="1:7">
       <c r="A116" s="6" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B116" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="C116" s="6" t="s">
         <v>829</v>
       </c>
-      <c r="C116" s="6" t="s">
-        <v>828</v>
-      </c>
       <c r="D116" s="6" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
       <c r="G116" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="117" ht="13" customHeight="1" spans="1:7">
@@ -26965,7 +26975,7 @@
         <v>660</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="118" ht="13" customHeight="1" spans="1:7">
@@ -26973,7 +26983,7 @@
         <v>661</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>126</v>
@@ -27016,7 +27026,7 @@
         <v>17</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>16</v>
@@ -27027,10 +27037,10 @@
     </row>
     <row r="121" ht="13" customHeight="1" spans="1:7">
       <c r="A121" s="6" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>622</v>
@@ -27039,10 +27049,10 @@
         <v>622</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>622</v>
@@ -27050,10 +27060,10 @@
     </row>
     <row r="122" ht="13" customHeight="1" spans="1:7">
       <c r="A122" s="6" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>37</v>
@@ -27071,7 +27081,7 @@
     </row>
     <row r="123" ht="13" customHeight="1" spans="1:7">
       <c r="A123" s="6" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>99</v>
@@ -27098,7 +27108,7 @@
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
       <c r="E124" s="6" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="F124" s="6"/>
       <c r="G124" s="2" t="s">
@@ -27111,11 +27121,11 @@
       <c r="C125"/>
       <c r="D125"/>
       <c r="E125" s="6" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F125"/>
       <c r="G125" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="126" ht="13" customHeight="1" spans="1:7">
@@ -27124,7 +27134,7 @@
       <c r="C126" s="6"/>
       <c r="D126"/>
       <c r="E126" s="6" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="F126"/>
       <c r="G126" s="2" t="s">
@@ -27137,7 +27147,7 @@
       <c r="C127" s="6"/>
       <c r="D127"/>
       <c r="E127" s="6" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F127"/>
       <c r="G127" s="2" t="s">
@@ -27150,7 +27160,7 @@
       <c r="C128" s="6"/>
       <c r="D128"/>
       <c r="E128" s="6" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="F128"/>
       <c r="G128" s="2" t="s">
@@ -27163,7 +27173,7 @@
       <c r="C129" s="6"/>
       <c r="D129"/>
       <c r="E129" s="6" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="F129"/>
       <c r="G129" s="2" t="s">
@@ -27176,7 +27186,7 @@
       <c r="C130" s="6"/>
       <c r="D130"/>
       <c r="E130" s="6" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="F130"/>
       <c r="G130" s="2" t="s">
@@ -27189,24 +27199,24 @@
       <c r="C131" s="6"/>
       <c r="D131"/>
       <c r="E131" s="6" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="F131"/>
       <c r="G131" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="132" ht="13" customHeight="1" spans="1:7">
       <c r="A132"/>
       <c r="B132" s="7" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6" t="s">
         <v>459</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="F132"/>
       <c r="G132" s="2" t="s">
@@ -27216,7 +27226,7 @@
     <row r="133" ht="13" customHeight="1" spans="1:7">
       <c r="A133"/>
       <c r="B133" s="6" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="6" t="s">
@@ -27231,110 +27241,110 @@
     <row r="134" ht="13" customHeight="1" spans="1:7">
       <c r="A134"/>
       <c r="B134" s="6" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
       <c r="E134" s="6"/>
       <c r="F134"/>
       <c r="G134" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="135" ht="13" customHeight="1" spans="1:7">
       <c r="A135" s="6" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B135"/>
       <c r="C135" s="6"/>
       <c r="D135" s="6" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="E135"/>
       <c r="F135" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>858</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="136" ht="13" customHeight="1" spans="1:7">
       <c r="A136" s="6" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B136"/>
       <c r="C136" s="6"/>
       <c r="D136" s="6" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E136"/>
       <c r="F136" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>861</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="137" ht="13" customHeight="1" spans="1:7">
       <c r="A137" s="6" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B137"/>
       <c r="C137" s="6"/>
       <c r="D137" s="6" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="E137" s="6"/>
       <c r="F137" s="6" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="138" ht="13" customHeight="1" spans="1:7">
       <c r="A138" s="6" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B138"/>
       <c r="C138" s="6"/>
       <c r="D138" s="6" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="E138" s="6"/>
       <c r="F138"/>
       <c r="G138" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="139" ht="13" customHeight="1" spans="1:7">
       <c r="A139" s="6" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B139"/>
       <c r="C139" s="6"/>
       <c r="D139" s="6" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="E139" s="6"/>
       <c r="F139"/>
       <c r="G139" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="140" ht="13" customHeight="1" spans="1:7">
       <c r="A140" s="6" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B140"/>
       <c r="C140" s="6"/>
       <c r="D140" s="6" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E140" s="6"/>
       <c r="F140"/>
       <c r="G140" s="2" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="141" ht="13" customHeight="1" spans="1:7">
@@ -27342,12 +27352,12 @@
       <c r="B141"/>
       <c r="C141" s="6"/>
       <c r="D141" s="6" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E141" s="6"/>
       <c r="F141"/>
       <c r="G141" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="142" ht="13" customHeight="1" spans="1:7">
@@ -27355,12 +27365,12 @@
       <c r="B142"/>
       <c r="C142" s="6"/>
       <c r="D142" s="6" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E142" s="6"/>
       <c r="F142"/>
       <c r="G142" s="2" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="143" ht="13" customHeight="1" spans="1:7">
@@ -27368,107 +27378,107 @@
       <c r="B143"/>
       <c r="C143" s="6"/>
       <c r="D143" s="6" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="E143" s="6"/>
       <c r="F143"/>
       <c r="G143" s="2" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="144" ht="13" customHeight="1" spans="1:7">
       <c r="A144" s="6" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B144"/>
       <c r="C144" s="6"/>
       <c r="D144"/>
       <c r="E144" s="6"/>
       <c r="F144" s="6" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="145" ht="13" customHeight="1" spans="1:7">
       <c r="A145" s="6" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B145"/>
       <c r="C145" s="6"/>
       <c r="D145"/>
       <c r="E145" s="6"/>
       <c r="F145" s="6" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="146" ht="13" customHeight="1" spans="1:7">
       <c r="A146" s="6" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B146"/>
       <c r="C146" s="6"/>
       <c r="D146"/>
       <c r="E146" s="6"/>
       <c r="F146" s="6" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="147" ht="13" customHeight="1" spans="1:7">
       <c r="A147" s="6" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B147"/>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
       <c r="E147" s="6"/>
       <c r="F147" s="6" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="148" ht="13" customHeight="1" spans="1:7">
       <c r="A148" s="6" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B148"/>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
       <c r="F148" s="6" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="149" ht="13" customHeight="1" spans="1:7">
       <c r="A149" s="6" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B149"/>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
       <c r="E149" s="6"/>
       <c r="F149" s="6" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="150" ht="13" customHeight="1" spans="1:7">
       <c r="A150" s="6" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B150"/>
       <c r="C150" s="6"/>
@@ -27476,12 +27486,12 @@
       <c r="E150" s="6"/>
       <c r="F150"/>
       <c r="G150" s="2" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="151" ht="13" customHeight="1" spans="1:7">
       <c r="A151" s="6" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B151"/>
       <c r="C151" s="6"/>
@@ -27489,12 +27499,12 @@
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
       <c r="G151" s="2" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="152" ht="13" customHeight="1" spans="1:7">
       <c r="A152" s="6" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B152"/>
       <c r="C152" s="6"/>
@@ -27502,228 +27512,228 @@
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
       <c r="G152" s="2" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="153" ht="13" customHeight="1" spans="1:7">
       <c r="A153" s="6"/>
       <c r="B153" s="6" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
       <c r="G153" s="2" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="154" ht="13" customHeight="1" spans="1:7">
       <c r="A154" s="6"/>
       <c r="B154" s="7" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
       <c r="G154" s="2" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="155" ht="13" customHeight="1" spans="1:7">
       <c r="A155" s="6"/>
       <c r="B155" s="7" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
       <c r="G155" s="2" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="156" ht="13" customHeight="1" spans="1:7">
       <c r="A156" s="6"/>
       <c r="B156" s="7" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
       <c r="G156" s="2" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="157" ht="13" customHeight="1" spans="1:7">
       <c r="A157" s="6"/>
       <c r="B157" s="6" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
       <c r="G157" s="2" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="158" ht="13" customHeight="1" spans="1:7">
       <c r="A158" s="6"/>
       <c r="B158" s="7" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
       <c r="G158" s="2" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="159" ht="13" customHeight="1" spans="1:7">
       <c r="A159" s="6"/>
       <c r="B159" s="7" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
       <c r="G159" s="2" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="160" ht="13" customHeight="1" spans="1:7">
       <c r="A160" s="6"/>
       <c r="B160" s="7" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
       <c r="G160" s="2" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="161" ht="13" customHeight="1" spans="1:7">
       <c r="A161" s="6"/>
       <c r="B161" s="7" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
       <c r="G161" s="2" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="162" ht="13" customHeight="1" spans="1:7">
       <c r="A162" s="6"/>
       <c r="B162" s="7" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
       <c r="G162" s="2" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="163" ht="13" customHeight="1" spans="1:7">
       <c r="A163" s="6"/>
       <c r="B163" s="7" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
       <c r="G163" s="2" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="164" ht="13" customHeight="1" spans="1:7">
       <c r="A164" s="6"/>
       <c r="B164" s="6" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C164" s="6"/>
       <c r="D164" s="6"/>
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
       <c r="G164" s="2" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="165" ht="13" customHeight="1" spans="1:7">
       <c r="A165" s="6"/>
       <c r="B165" s="6" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
       <c r="G165" s="2" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="166" ht="13" customHeight="1" spans="1:7">
       <c r="A166" s="6"/>
       <c r="B166" s="6" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C166" s="6"/>
       <c r="D166"/>
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
       <c r="G166" s="2" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="167" ht="13" customHeight="1" spans="1:7">
       <c r="A167" s="6"/>
       <c r="B167" s="7" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
       <c r="G167" s="2" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="168" ht="13" customHeight="1" spans="1:7">
       <c r="A168" s="6"/>
       <c r="B168" s="6" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
       <c r="G168" s="2" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="169" ht="13" customHeight="1" spans="1:7">
       <c r="A169" s="6"/>
       <c r="B169" s="6" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
       <c r="G169" s="2" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="170" ht="13" customHeight="1" spans="1:7">
@@ -27732,11 +27742,11 @@
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
       <c r="E170" s="6" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="F170" s="6"/>
       <c r="G170" s="2" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="171" ht="13" customHeight="1" spans="1:7">
@@ -27759,7 +27769,7 @@
         <v>661</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>126</v>
